--- a/プロジェクト型演習_成果物(タスク一覧画面).xlsx
+++ b/プロジェクト型演習_成果物(タスク一覧画面).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S-01\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2415052-D5A6-4936-B0A1-D3F0ED391128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A5B747-F66C-47AF-B9F4-58CEEED297C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
   <si>
     <t>プロジェクト型演習　成果ドキュメント</t>
   </si>
@@ -215,40 +215,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>ログイン認証を行わず（ログアウト後も含む）に、ブラウザのリンクにタスク詳細画面のURLを打ち込むとログイン画面へ遷移する。</t>
-    <rPh sb="4" eb="6">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>レイヤ</t>
     <phoneticPr fontId="9"/>
   </si>
@@ -282,10 +248,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>TaskListBean.java</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>タスク情報一覧画面を作成するため
 の情報を保持するクラス</t>
     <rPh sb="3" eb="5">
@@ -307,10 +269,6 @@
   </si>
   <si>
     <t>model.dao</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>TaskListDAO.java</t>
     <phoneticPr fontId="9"/>
   </si>
   <si>
@@ -437,41 +395,173 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>セッション情報を保持した状態で、ブラウザのリンクにタスク詳細画面のURLを打ち込むと、対象のタスク詳細画面へ遷移する。</t>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="28" eb="32">
-      <t>ショウサイガメン</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
+    <t>詳細画面遷移</t>
+    <rPh sb="0" eb="2">
       <t>ショウサイ</t>
     </rPh>
-    <rPh sb="51" eb="53">
+    <rPh sb="2" eb="4">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="54" eb="56">
+    <rPh sb="4" eb="6">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>タスク情報の一覧を表示する。各タスクに隣接している詳細ボタンを押下すると、対象のタスク詳細画面へ遷移する。</t>
+    <t>taskdetail</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>詳細画面</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①タスク情報の一覧を表示する。各タスクに隣接している詳細ボタンを押下すると、対象のタスク詳細画面へ遷移する。
+②画面右上「メニュー画面へ」を押下すると、メニュー画面へ遷移する。
+</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>リンセツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="56" eb="60">
+      <t>ガメンミギウエ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>TaskCategoryUserStatusBean.java</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>TaskCategoryUserStatusDAO.java</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>①タスクリストが空の時、「タスクはありません」と表示する。</t>
+    <rPh sb="8" eb="9">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>①ログイン認証を行わず（ログアウト/セッションタイムアウトも含む）に、
+ブラウザのリンクにタスク一覧画面のURLを打ち込むとログイン画面へ遷移する。
+②タスク内の項目がNullの場合「　　　　　　」空白を表示する。
+③タスクの担当者以外が詳細画面ボタンを押下しても反応しない。</t>
+    <rPh sb="5" eb="7">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="113" eb="118">
+      <t>タントウシャイガイ</t>
+    </rPh>
+    <rPh sb="119" eb="123">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>ハンノウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>タスク情報の一覧が表示され、タスクの担当者は各タスクに隣接する詳細ボタンを押下すると、対象の詳細画面へ遷移する。</t>
     <rPh sb="3" eb="5">
       <t>ジョウホウ</t>
     </rPh>
@@ -481,77 +571,42 @@
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="14" eb="15">
+    <rPh sb="18" eb="21">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
       <t>カク</t>
     </rPh>
-    <rPh sb="19" eb="21">
+    <rPh sb="27" eb="29">
       <t>リンセツ</t>
     </rPh>
-    <rPh sb="25" eb="27">
+    <rPh sb="31" eb="33">
       <t>ショウサイ</t>
     </rPh>
-    <rPh sb="31" eb="32">
-      <t>オ</t>
+    <rPh sb="37" eb="39">
+      <t>オウカ</t>
     </rPh>
-    <rPh sb="32" eb="33">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
+    <rPh sb="43" eb="45">
       <t>タイショウ</t>
     </rPh>
-    <rPh sb="43" eb="45">
+    <rPh sb="46" eb="48">
       <t>ショウサイ</t>
     </rPh>
-    <rPh sb="45" eb="47">
+    <rPh sb="48" eb="50">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="48" eb="50">
+    <rPh sb="51" eb="53">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>タスク情報の一覧が表示され、各タスクに隣接する詳細ボタンを押下すると、タスクを登録した本人のみが対象の詳細画面へ遷移する。</t>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>リンセツ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ホンニン</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
+    <t>/menu.jsp</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="9"/>
   </si>
 </sst>
 </file>
@@ -1413,7 +1468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1549,12 +1604,135 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1564,15 +1742,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1585,233 +1754,119 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1859,6 +1914,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="8" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3761,7 +3825,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>+setMemo(memo):void</a:t>
+            <a:t>+setMemo():void</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:solidFill>
@@ -4679,12 +4743,24 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TaskCategoryUserStatus</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>TaskListDAO</a:t>
+            <a:t>DAO</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6743,8 +6819,8 @@
   </sheetPr>
   <dimension ref="B1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6765,157 +6841,157 @@
   <sheetData>
     <row r="1" spans="2:11" ht="18" customHeight="1"/>
     <row r="2" spans="2:11" ht="18" customHeight="1">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="86" t="s">
+      <c r="E2" s="54"/>
+      <c r="F2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="87"/>
-      <c r="F2" s="86" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="88" t="s">
+      <c r="I2" s="56"/>
+    </row>
+    <row r="3" spans="2:11" ht="36" customHeight="1">
+      <c r="B3" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="80"/>
-    </row>
-    <row r="3" spans="2:11" ht="36" customHeight="1">
-      <c r="B3" s="83" t="s">
+      <c r="C3" s="58"/>
+      <c r="D3" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="85" t="s">
+      <c r="E3" s="56"/>
+      <c r="F3" s="149" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="56"/>
+      <c r="H3" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="85" t="s">
+      <c r="I3" s="56"/>
+    </row>
+    <row r="4" spans="2:11" ht="34.5" customHeight="1">
+      <c r="B4" s="57"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
+    </row>
+    <row r="5" spans="2:11" ht="50.25" customHeight="1">
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="80"/>
-      <c r="H3" s="79" t="s">
+      <c r="E5" s="56"/>
+      <c r="F5" s="150" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="54"/>
+      <c r="H5" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="80"/>
-    </row>
-    <row r="4" spans="2:11" ht="34.5" customHeight="1">
-      <c r="B4" s="83"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="82"/>
-    </row>
-    <row r="5" spans="2:11" ht="50.25" customHeight="1">
-      <c r="B5" s="83"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="85" t="s">
+      <c r="I5" s="54"/>
+    </row>
+    <row r="6" spans="2:11" ht="33.75" customHeight="1">
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="86" t="s">
+      <c r="G6" s="54"/>
+      <c r="H6" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="87"/>
-      <c r="H5" s="89" t="s">
+      <c r="I6" s="54"/>
+    </row>
+    <row r="7" spans="2:11" ht="21" customHeight="1">
+      <c r="B7" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="87"/>
-    </row>
-    <row r="6" spans="2:11" ht="33.75" customHeight="1">
-      <c r="B6" s="83"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="86" t="s">
+      <c r="C7" s="56"/>
+      <c r="D7" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="87"/>
-      <c r="H6" s="89" t="s">
+      <c r="E7" s="56"/>
+      <c r="F7" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="87"/>
-    </row>
-    <row r="7" spans="2:11" ht="21" customHeight="1">
-      <c r="B7" s="85" t="s">
+      <c r="G7" s="56"/>
+      <c r="H7" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="85" t="s">
+      <c r="I7" s="56"/>
+    </row>
+    <row r="8" spans="2:11" ht="21" customHeight="1">
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+    </row>
+    <row r="9" spans="2:11" ht="21" customHeight="1">
+      <c r="B9" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="85" t="s">
+      <c r="C9" s="58"/>
+      <c r="D9" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="80"/>
-      <c r="H7" s="79" t="s">
+      <c r="E9" s="56"/>
+      <c r="F9" s="149" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="80"/>
-    </row>
-    <row r="8" spans="2:11" ht="21" customHeight="1">
-      <c r="B8" s="81"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="82"/>
-    </row>
-    <row r="9" spans="2:11" ht="21" customHeight="1">
-      <c r="B9" s="83" t="s">
+      <c r="G9" s="56"/>
+      <c r="H9" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="80"/>
-      <c r="F9" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="80"/>
-      <c r="H9" s="79" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="80"/>
+      <c r="I9" s="56"/>
     </row>
     <row r="10" spans="2:11" ht="21" customHeight="1">
-      <c r="B10" s="81"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="82"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="61"/>
     </row>
     <row r="11" spans="2:11" ht="21" customHeight="1"/>
     <row r="12" spans="2:11" ht="21" customHeight="1" thickBot="1">
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="2:11" ht="19.5" customHeight="1">
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="45" t="s">
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="45" t="s">
+      <c r="F13" s="71"/>
+      <c r="G13" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="46"/>
+      <c r="H13" s="71"/>
       <c r="I13" s="21" t="s">
         <v>8</v>
       </c>
@@ -6927,323 +7003,325 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="19.5" customHeight="1">
-      <c r="B14" s="77"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="47" t="s">
+      <c r="B14" s="67"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="48"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51" t="s">
+      <c r="F14" s="89"/>
+      <c r="G14" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="89"/>
+      <c r="I14" s="151">
+        <v>45632</v>
+      </c>
+      <c r="J14" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="72"/>
+      <c r="K14" s="77"/>
     </row>
     <row r="15" spans="2:11" ht="19.5" customHeight="1">
-      <c r="B15" s="77"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="73"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="78"/>
     </row>
     <row r="16" spans="2:11" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B16" s="77"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="73"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="78"/>
     </row>
     <row r="17" spans="2:14" ht="19.5" customHeight="1">
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="55" t="s">
-        <v>65</v>
+      <c r="C17" s="92"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="93" t="s">
+        <v>62</v>
       </c>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="56"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="94"/>
     </row>
     <row r="18" spans="2:14" ht="19.5" customHeight="1">
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="69"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="49"/>
     </row>
     <row r="19" spans="2:14" ht="19.5" customHeight="1">
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="59"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="81"/>
     </row>
     <row r="20" spans="2:14" ht="19.5" customHeight="1">
-      <c r="B20" s="60"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="62"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="84"/>
     </row>
     <row r="21" spans="2:14" ht="19.5" customHeight="1">
-      <c r="B21" s="60"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="62"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="84"/>
     </row>
     <row r="22" spans="2:14" ht="19.5" customHeight="1">
-      <c r="B22" s="60"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="62"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="84"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
     </row>
     <row r="23" spans="2:14" ht="19.5" customHeight="1">
-      <c r="B23" s="60"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="84"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
     </row>
     <row r="24" spans="2:14" ht="12.75" customHeight="1">
-      <c r="B24" s="60"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="62"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="84"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
     </row>
     <row r="25" spans="2:14" ht="12.75" customHeight="1">
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="62"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="84"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
     </row>
     <row r="26" spans="2:14" ht="12.75" customHeight="1">
-      <c r="B26" s="60"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="62"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="84"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
     </row>
     <row r="27" spans="2:14" ht="12.75" customHeight="1">
-      <c r="B27" s="60"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="62"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="84"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
     </row>
     <row r="28" spans="2:14" ht="12.75" customHeight="1">
-      <c r="B28" s="60"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="62"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="66"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="84"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
     </row>
     <row r="29" spans="2:14" ht="12.75" customHeight="1">
-      <c r="B29" s="60"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="62"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="84"/>
     </row>
     <row r="30" spans="2:14" ht="12.75" customHeight="1">
-      <c r="B30" s="60"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="62"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="84"/>
     </row>
     <row r="31" spans="2:14" ht="12.75" customHeight="1">
-      <c r="B31" s="60"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="62"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="84"/>
     </row>
     <row r="32" spans="2:14" ht="12.75" customHeight="1">
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="62"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="84"/>
     </row>
     <row r="33" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B33" s="60"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="62"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="84"/>
     </row>
     <row r="34" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B34" s="63"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="65"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="87"/>
     </row>
     <row r="35" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B35" s="67" t="s">
+      <c r="B35" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="69"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="49"/>
     </row>
     <row r="36" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B36" s="67" t="s">
+      <c r="B36" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="68"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="71" t="s">
-        <v>63</v>
+      <c r="C36" s="46"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="48" t="s">
+        <v>60</v>
       </c>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="70"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="47"/>
       <c r="J36" s="26" t="s">
         <v>27</v>
       </c>
       <c r="K36" s="27" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B37" s="67" t="s">
+      <c r="B37" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="68"/>
-      <c r="D37" s="70"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="26" t="s">
         <v>29</v>
       </c>
@@ -7256,36 +7334,36 @@
       <c r="H37" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="I37" s="94" t="s">
+      <c r="I37" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="68"/>
-      <c r="K37" s="69"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="49"/>
     </row>
     <row r="38" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B38" s="90" t="s">
+      <c r="B38" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="46"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H38" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="68"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="G38" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H38" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="I38" s="71"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="69"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="49"/>
     </row>
     <row r="39" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B39" s="90"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="70"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="47"/>
       <c r="E39" s="28"/>
       <c r="F39" s="28"/>
       <c r="G39" s="29"/>
@@ -7295,21 +7373,21 @@
       <c r="K39" s="25"/>
     </row>
     <row r="40" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B40" s="90"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="70"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="47"/>
       <c r="E40" s="28"/>
       <c r="F40" s="28"/>
       <c r="G40" s="29"/>
       <c r="H40" s="29"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="69"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="49"/>
     </row>
     <row r="41" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B41" s="90"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="70"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="47"/>
       <c r="E41" s="28"/>
       <c r="F41" s="28"/>
       <c r="G41" s="29"/>
@@ -7319,9 +7397,9 @@
       <c r="K41" s="25"/>
     </row>
     <row r="42" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B42" s="90"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="70"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="47"/>
       <c r="E42" s="28"/>
       <c r="F42" s="28"/>
       <c r="G42" s="29"/>
@@ -7331,21 +7409,21 @@
       <c r="K42" s="25"/>
     </row>
     <row r="43" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B43" s="90"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="70"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="47"/>
       <c r="E43" s="28"/>
       <c r="F43" s="28"/>
       <c r="G43" s="29"/>
       <c r="H43" s="29"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="69"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="49"/>
     </row>
     <row r="44" spans="2:11" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B44" s="91"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="93"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="52"/>
       <c r="E44" s="32"/>
       <c r="F44" s="32"/>
       <c r="G44" s="33"/>
@@ -7354,26 +7432,166 @@
       <c r="J44" s="31"/>
       <c r="K44" s="35"/>
     </row>
-    <row r="45" spans="2:11" ht="12.75" customHeight="1"/>
-    <row r="46" spans="2:11" ht="12.75" customHeight="1"/>
-    <row r="47" spans="2:11" ht="12.75" customHeight="1"/>
-    <row r="48" spans="2:11" ht="12.75" customHeight="1"/>
-    <row r="49" ht="12.75" customHeight="1"/>
-    <row r="50" ht="12.75" customHeight="1"/>
-    <row r="51" ht="12.75" customHeight="1"/>
-    <row r="52" ht="12.75" customHeight="1"/>
-    <row r="53" ht="12.75" customHeight="1"/>
-    <row r="54" ht="12.75" customHeight="1"/>
-    <row r="55" ht="12.75" customHeight="1"/>
-    <row r="56" ht="12.75" customHeight="1"/>
-    <row r="57" ht="12.75" customHeight="1"/>
-    <row r="58" ht="12.75" customHeight="1"/>
-    <row r="59" ht="12.75" customHeight="1"/>
-    <row r="60" ht="12.75" customHeight="1"/>
-    <row r="61" ht="12.75" customHeight="1"/>
-    <row r="62" ht="12.75" customHeight="1"/>
-    <row r="63" ht="12.75" customHeight="1"/>
-    <row r="64" ht="12.75" customHeight="1"/>
+    <row r="45" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B45" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="49"/>
+    </row>
+    <row r="46" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B46" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="46"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" s="27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B47" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="46"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="46"/>
+      <c r="K47" s="49"/>
+    </row>
+    <row r="48" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B48" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="46"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G48" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="I48" s="48"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="49"/>
+    </row>
+    <row r="49" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B49" s="45"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="25"/>
+    </row>
+    <row r="50" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B50" s="45"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="49"/>
+    </row>
+    <row r="51" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B51" s="45"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="25"/>
+    </row>
+    <row r="52" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B52" s="45"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="25"/>
+    </row>
+    <row r="53" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B53" s="45"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="49"/>
+    </row>
+    <row r="54" spans="2:11" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B54" s="50"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="35"/>
+    </row>
+    <row r="55" spans="2:11" ht="12.75" customHeight="1"/>
+    <row r="56" spans="2:11" ht="12.75" customHeight="1"/>
+    <row r="57" spans="2:11" ht="12.75" customHeight="1"/>
+    <row r="58" spans="2:11" ht="12.75" customHeight="1"/>
+    <row r="59" spans="2:11" ht="12.75" customHeight="1"/>
+    <row r="60" spans="2:11" ht="12.75" customHeight="1"/>
+    <row r="61" spans="2:11" ht="12.75" customHeight="1"/>
+    <row r="62" spans="2:11" ht="12.75" customHeight="1"/>
+    <row r="63" spans="2:11" ht="12.75" customHeight="1"/>
+    <row r="64" spans="2:11" ht="12.75" customHeight="1"/>
     <row r="65" ht="12.75" customHeight="1"/>
     <row r="66" ht="12.75" customHeight="1"/>
     <row r="67" ht="12.75" customHeight="1"/>
@@ -8311,28 +8529,40 @@
     <row r="999" ht="12.75" customHeight="1"/>
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:C6"/>
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="F3:G4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
+  <mergeCells count="70">
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="B45:K45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="M27:N28"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E14:F16"/>
+    <mergeCell ref="G14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="E17:K17"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="B19:K34"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="I38:K38"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="B13:D16"/>
@@ -8349,24 +8579,27 @@
     <mergeCell ref="B7:C8"/>
     <mergeCell ref="D7:E8"/>
     <mergeCell ref="F7:G8"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="B19:K34"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N28"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E14:F16"/>
-    <mergeCell ref="G14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:K17"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:C6"/>
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="B41:D41"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -8379,8 +8612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8391,19 +8624,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="127" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="127" t="s">
+      <c r="E1" s="96"/>
+      <c r="F1" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="115"/>
+      <c r="G1" s="96"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -8415,72 +8648,72 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="109"/>
+      <c r="A2" s="120"/>
       <c r="B2" s="41"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="128" t="s">
+      <c r="C2" s="100"/>
+      <c r="D2" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="129"/>
-      <c r="F2" s="128" t="s">
+      <c r="E2" s="98"/>
+      <c r="F2" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="129"/>
-      <c r="H2" s="132">
-        <v>45629</v>
+      <c r="G2" s="98"/>
+      <c r="H2" s="103">
+        <v>45632</v>
       </c>
-      <c r="I2" s="121" t="s">
+      <c r="I2" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="124"/>
+      <c r="J2" s="107"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="109"/>
+      <c r="A3" s="120"/>
       <c r="B3" s="41"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="125"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="108"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="111"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="126"/>
+      <c r="A4" s="121"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="109"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="98" t="s">
+      <c r="B5" s="124"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="100"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="131"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="111" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="39"/>
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="112" t="s">
         <v>38</v>
       </c>
       <c r="E6" s="38"/>
@@ -8488,15 +8721,15 @@
       <c r="G6" s="38"/>
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
-      <c r="J6" s="102"/>
+      <c r="J6" s="113"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="111" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="39"/>
-      <c r="D7" s="101" t="s">
+      <c r="D7" s="112" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="38"/>
@@ -8504,15 +8737,15 @@
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
-      <c r="J7" s="102"/>
+      <c r="J7" s="113"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="111" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="39"/>
-      <c r="D8" s="101" t="s">
+      <c r="D8" s="112" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="38"/>
@@ -8520,87 +8753,87 @@
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
-      <c r="J8" s="102"/>
+      <c r="J8" s="113"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="110" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="39"/>
-      <c r="D9" s="103" t="s">
-        <v>71</v>
+      <c r="D9" s="132" t="s">
+        <v>70</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
-      <c r="J9" s="102"/>
+      <c r="J9" s="113"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="118"/>
-      <c r="B10" s="120" t="s">
+      <c r="A10" s="126"/>
+      <c r="B10" s="110" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="39"/>
-      <c r="D10" s="101" t="s">
-        <v>70</v>
+      <c r="D10" s="112" t="s">
+        <v>73</v>
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
-      <c r="J10" s="102"/>
+      <c r="J10" s="113"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="119"/>
-      <c r="B11" s="120" t="s">
+      <c r="A11" s="127"/>
+      <c r="B11" s="110" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="39"/>
-      <c r="D11" s="101" t="s">
-        <v>40</v>
+      <c r="D11" s="132" t="s">
+        <v>74</v>
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
-      <c r="J11" s="102"/>
+      <c r="J11" s="113"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="111" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="39"/>
-      <c r="D12" s="101" t="s">
-        <v>72</v>
+      <c r="D12" s="132" t="s">
+        <v>75</v>
       </c>
       <c r="E12" s="38"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
-      <c r="J12" s="102"/>
+      <c r="J12" s="113"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="96"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="97"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="129"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -9591,17 +9824,14 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
@@ -9610,14 +9840,17 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -9629,8 +9862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9681,7 +9914,7 @@
       </c>
       <c r="G2" s="142"/>
       <c r="H2" s="133">
-        <v>45629</v>
+        <v>45632</v>
       </c>
       <c r="I2" s="136" t="s">
         <v>34</v>

--- a/プロジェクト型演習_成果物(タスク一覧画面).xlsx
+++ b/プロジェクト型演習_成果物(タスク一覧画面).xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S-01\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A5B747-F66C-47AF-B9F4-58CEEED297C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEECA67-5160-4497-9C09-A71052832FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
-    <sheet name="画面設計書" sheetId="5" r:id="rId2"/>
-    <sheet name="ユースケース記述" sheetId="2" r:id="rId3"/>
+    <sheet name="ユースケース記述" sheetId="2" r:id="rId2"/>
+    <sheet name="画面設計書" sheetId="5" r:id="rId3"/>
     <sheet name="詳細クラス図" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -28,16 +28,7 @@
     <t>プロジェクト型演習　成果ドキュメント</t>
   </si>
   <si>
-    <t>○○○○システム</t>
-  </si>
-  <si>
     <t>初版</t>
-  </si>
-  <si>
-    <t>YYYY/MM/DD</t>
-  </si>
-  <si>
-    <t>チーム名</t>
   </si>
   <si>
     <t>ユースケース記述</t>
@@ -95,9 +86,6 @@
   </si>
   <si>
     <t>画面名称</t>
-  </si>
-  <si>
-    <t>画面レイアウト</t>
   </si>
   <si>
     <t>フォーム定義</t>
@@ -198,19 +186,6 @@
     </rPh>
     <rPh sb="55" eb="57">
       <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>タスク管理システムへのログイン状態を保持している。</t>
-    <rPh sb="3" eb="5">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ホジ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -352,10 +327,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>/TaskEditServlet</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>post</t>
     <phoneticPr fontId="9"/>
   </si>
@@ -422,8 +393,41 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t xml:space="preserve">①タスク情報の一覧を表示する。各タスクに隣接している詳細ボタンを押下すると、対象のタスク詳細画面へ遷移する。
-②画面右上「メニュー画面へ」を押下すると、メニュー画面へ遷移する。
+    <t>TaskCategoryUserStatusBean.java</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>TaskCategoryUserStatusDAO.java</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>menu.jsp</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>TaskEditServlet</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>タスク管理システムへのログイン状態を保持している</t>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①タスク情報の一覧を表示する　各タスクに隣接している詳細ボタンを押下すると、対象のタスク詳細画面へ遷移する
+②画面右上「メニュー画面へ」を押下すると、メニュー画面へ遷移する
 </t>
     <rPh sb="4" eb="6">
       <t>ジョウホウ</t>
@@ -461,33 +465,25 @@
     <rPh sb="49" eb="51">
       <t>センイ</t>
     </rPh>
-    <rPh sb="56" eb="60">
+    <rPh sb="55" eb="59">
       <t>ガメンミギウエ</t>
     </rPh>
-    <rPh sb="65" eb="67">
+    <rPh sb="64" eb="66">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="70" eb="72">
+    <rPh sb="69" eb="71">
       <t>オウカ</t>
     </rPh>
-    <rPh sb="80" eb="82">
+    <rPh sb="79" eb="81">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="83" eb="85">
+    <rPh sb="82" eb="84">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>TaskCategoryUserStatusBean.java</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>TaskCategoryUserStatusDAO.java</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>①タスクリストが空の時、「タスクはありません」と表示する。</t>
+    <t>①タスクリストが空の時、「タスクはありません」と表示する</t>
     <rPh sb="8" eb="9">
       <t>カラ</t>
     </rPh>
@@ -500,10 +496,65 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>①ログイン認証を行わず（ログアウト/セッションタイムアウトも含む）に、
-ブラウザのリンクにタスク一覧画面のURLを打ち込むとログイン画面へ遷移する。
-②タスク内の項目がNullの場合「　　　　　　」空白を表示する。
-③タスクの担当者以外が詳細画面ボタンを押下しても反応しない。</t>
+    <t>タスク情報の一覧が表示され、各タスクに隣接する詳細ボタンを押下すると、対象の詳細画面へ遷移する</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>リンセツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>タスク管理システム</t>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ProjectX</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>YYYY/MM/DD</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>画面レイアウト</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>①ログイン認証を行わず（ログアウト/セッションタイムアウトも含む）に、ブラウザのリンクにタスク一覧画面のURLを打ち込むと
+ログイン画面へ遷移する
+②タスク内の項目がNullの場合「　　　　　　」空白を表示する</t>
     <rPh sb="5" eb="7">
       <t>ニンショウ</t>
     </rPh>
@@ -513,16 +564,16 @@
     <rPh sb="30" eb="31">
       <t>フク</t>
     </rPh>
-    <rPh sb="48" eb="50">
+    <rPh sb="47" eb="49">
       <t>イチラン</t>
     </rPh>
-    <rPh sb="50" eb="52">
+    <rPh sb="49" eb="51">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="57" eb="58">
+    <rPh sb="56" eb="57">
       <t>ウ</t>
     </rPh>
-    <rPh sb="59" eb="60">
+    <rPh sb="58" eb="59">
       <t>コ</t>
     </rPh>
     <rPh sb="66" eb="68">
@@ -531,82 +582,22 @@
     <rPh sb="69" eb="71">
       <t>センイ</t>
     </rPh>
-    <rPh sb="79" eb="80">
+    <rPh sb="78" eb="79">
       <t>ナイ</t>
     </rPh>
-    <rPh sb="81" eb="83">
+    <rPh sb="80" eb="82">
       <t>コウモク</t>
     </rPh>
-    <rPh sb="89" eb="91">
+    <rPh sb="88" eb="90">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="99" eb="101">
+    <rPh sb="98" eb="100">
       <t>クウハク</t>
     </rPh>
-    <rPh sb="102" eb="104">
+    <rPh sb="101" eb="103">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="113" eb="118">
-      <t>タントウシャイガイ</t>
-    </rPh>
-    <rPh sb="119" eb="123">
-      <t>ショウサイガメン</t>
-    </rPh>
-    <rPh sb="127" eb="129">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="132" eb="134">
-      <t>ハンノウ</t>
-    </rPh>
     <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>タスク情報の一覧が表示され、タスクの担当者は各タスクに隣接する詳細ボタンを押下すると、対象の詳細画面へ遷移する。</t>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>リンセツ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>/menu.jsp</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="9"/>
   </si>
 </sst>
 </file>
@@ -616,7 +607,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-411]h:mm"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -687,6 +678,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1468,7 +1466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1580,6 +1578,39 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1616,9 +1647,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1634,18 +1662,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1655,9 +1677,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1685,15 +1713,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1703,35 +1725,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1742,17 +1740,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="8" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1806,7 +1795,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1866,7 +1855,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1916,14 +1905,80 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="8" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1945,25 +2000,20 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>67862</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="7772400" cy="1220387"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9">
+        <xdr:cNvPr id="12" name="図 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB1D5A4C-5A28-2113-5CAA-1071A9BC40C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6528088-5F4E-4EB9-B81D-94EAEC74DD54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1985,7 +2035,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676275" y="6400800"/>
+          <a:off x="1362075" y="14668500"/>
           <a:ext cx="7772400" cy="1220387"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1994,26 +2044,26 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8121BE4-353F-F0BF-85B9-7D28F098FAA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D8E0A88-1073-4A80-8A48-91993CFB0881}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2021,8 +2071,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6772275" y="6096000"/>
-          <a:ext cx="1724025" cy="276225"/>
+          <a:off x="7591425" y="14354174"/>
+          <a:ext cx="1409700" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5647,7 +5697,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:P1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:K14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -5657,85 +5709,85 @@
   <sheetData>
     <row r="1" spans="3:16" ht="30" customHeight="1"/>
     <row r="2" spans="3:16" ht="30" customHeight="1">
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="3:16" ht="30" customHeight="1">
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="3:16" ht="30" customHeight="1">
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="3:16" ht="30" customHeight="1">
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="3:16" ht="30" customHeight="1">
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="3:16" ht="30" customHeight="1">
@@ -5755,46 +5807,48 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="3:16" ht="30" customHeight="1">
-      <c r="E8" s="44" t="s">
-        <v>1</v>
+      <c r="E8" s="55" t="s">
+        <v>73</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
     </row>
     <row r="9" spans="3:16" ht="30" customHeight="1"/>
     <row r="10" spans="3:16" ht="30" customHeight="1"/>
     <row r="11" spans="3:16" ht="30" customHeight="1"/>
     <row r="12" spans="3:16" ht="30" customHeight="1"/>
     <row r="13" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G13" s="37" t="s">
-        <v>2</v>
+      <c r="G13" s="48" t="s">
+        <v>1</v>
       </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="37" t="s">
-        <v>3</v>
+      <c r="H13" s="50"/>
+      <c r="I13" s="165" t="s">
+        <v>75</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="50"/>
     </row>
     <row r="14" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G14" s="37"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="39"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="165">
+        <v>45632</v>
+      </c>
+      <c r="J14" s="49"/>
+      <c r="K14" s="50"/>
     </row>
     <row r="15" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G15" s="37"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="39"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="50"/>
     </row>
     <row r="16" spans="3:16" ht="15.75" customHeight="1">
       <c r="G16" s="3"/>
@@ -5803,13 +5857,13 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="7:11" ht="30" customHeight="1">
-      <c r="G17" s="40" t="s">
-        <v>4</v>
+      <c r="G17" s="51" t="s">
+        <v>74</v>
       </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
     </row>
     <row r="18" spans="7:11" ht="14.25" customHeight="1"/>
     <row r="19" spans="7:11" ht="24.75" customHeight="1"/>
@@ -6813,1807 +6867,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:N1000"/>
-  <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="3" width="5.140625" customWidth="1"/>
-    <col min="4" max="10" width="16.7109375" customWidth="1"/>
-    <col min="11" max="17" width="8.7109375" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" customWidth="1"/>
-    <col min="19" max="19" width="30.5703125" customWidth="1"/>
-    <col min="20" max="20" width="32.28515625" customWidth="1"/>
-    <col min="21" max="21" width="12" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" customWidth="1"/>
-    <col min="23" max="23" width="13" customWidth="1"/>
-    <col min="24" max="24" width="12" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:11" ht="18" customHeight="1"/>
-    <row r="2" spans="2:11" ht="18" customHeight="1">
-      <c r="B2" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="56"/>
-    </row>
-    <row r="3" spans="2:11" ht="36" customHeight="1">
-      <c r="B3" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="149" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="56"/>
-    </row>
-    <row r="4" spans="2:11" ht="34.5" customHeight="1">
-      <c r="B4" s="57"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="61"/>
-    </row>
-    <row r="5" spans="2:11" ht="50.25" customHeight="1">
-      <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="56"/>
-      <c r="F5" s="150" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="54"/>
-    </row>
-    <row r="6" spans="2:11" ht="33.75" customHeight="1">
-      <c r="B6" s="57"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="54"/>
-      <c r="H6" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="54"/>
-    </row>
-    <row r="7" spans="2:11" ht="21" customHeight="1">
-      <c r="B7" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="56"/>
-    </row>
-    <row r="8" spans="2:11" ht="21" customHeight="1">
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61"/>
-    </row>
-    <row r="9" spans="2:11" ht="21" customHeight="1">
-      <c r="B9" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="56"/>
-      <c r="F9" s="149" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="56"/>
-      <c r="H9" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="56"/>
-    </row>
-    <row r="10" spans="2:11" ht="21" customHeight="1">
-      <c r="B10" s="60"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61"/>
-    </row>
-    <row r="11" spans="2:11" ht="21" customHeight="1"/>
-    <row r="12" spans="2:11" ht="21" customHeight="1" thickBot="1">
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-    </row>
-    <row r="13" spans="2:11" ht="19.5" customHeight="1">
-      <c r="B13" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="71"/>
-      <c r="G13" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="71"/>
-      <c r="I13" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="19.5" customHeight="1">
-      <c r="B14" s="67"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="89"/>
-      <c r="I14" s="151">
-        <v>45632</v>
-      </c>
-      <c r="J14" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" s="77"/>
-    </row>
-    <row r="15" spans="2:11" ht="19.5" customHeight="1">
-      <c r="B15" s="67"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="78"/>
-    </row>
-    <row r="16" spans="2:11" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B16" s="67"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="78"/>
-    </row>
-    <row r="17" spans="2:14" ht="19.5" customHeight="1">
-      <c r="B17" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="94"/>
-    </row>
-    <row r="18" spans="2:14" ht="19.5" customHeight="1">
-      <c r="B18" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="49"/>
-    </row>
-    <row r="19" spans="2:14" ht="19.5" customHeight="1">
-      <c r="B19" s="79"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="81"/>
-    </row>
-    <row r="20" spans="2:14" ht="19.5" customHeight="1">
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="84"/>
-    </row>
-    <row r="21" spans="2:14" ht="19.5" customHeight="1">
-      <c r="B21" s="82"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="84"/>
-    </row>
-    <row r="22" spans="2:14" ht="19.5" customHeight="1">
-      <c r="B22" s="82"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="84"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-    </row>
-    <row r="23" spans="2:14" ht="19.5" customHeight="1">
-      <c r="B23" s="82"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="84"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-    </row>
-    <row r="24" spans="2:14" ht="12.75" customHeight="1">
-      <c r="B24" s="82"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="84"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-    </row>
-    <row r="25" spans="2:14" ht="12.75" customHeight="1">
-      <c r="B25" s="82"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="84"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-    </row>
-    <row r="26" spans="2:14" ht="12.75" customHeight="1">
-      <c r="B26" s="82"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="84"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-    </row>
-    <row r="27" spans="2:14" ht="12.75" customHeight="1">
-      <c r="B27" s="82"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="84"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-    </row>
-    <row r="28" spans="2:14" ht="12.75" customHeight="1">
-      <c r="B28" s="82"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="84"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-    </row>
-    <row r="29" spans="2:14" ht="12.75" customHeight="1">
-      <c r="B29" s="82"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="84"/>
-    </row>
-    <row r="30" spans="2:14" ht="12.75" customHeight="1">
-      <c r="B30" s="82"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="84"/>
-    </row>
-    <row r="31" spans="2:14" ht="12.75" customHeight="1">
-      <c r="B31" s="82"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="84"/>
-    </row>
-    <row r="32" spans="2:14" ht="12.75" customHeight="1">
-      <c r="B32" s="82"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="84"/>
-    </row>
-    <row r="33" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B33" s="82"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="84"/>
-    </row>
-    <row r="34" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B34" s="85"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="87"/>
-    </row>
-    <row r="35" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B35" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="49"/>
-    </row>
-    <row r="36" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B36" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="K36" s="27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B37" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="46"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="I37" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" s="46"/>
-      <c r="K37" s="49"/>
-    </row>
-    <row r="38" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B38" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="G38" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="H38" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="I38" s="48"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="49"/>
-    </row>
-    <row r="39" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B39" s="45"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="25"/>
-    </row>
-    <row r="40" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B40" s="45"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="49"/>
-    </row>
-    <row r="41" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B41" s="45"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="25"/>
-    </row>
-    <row r="42" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B42" s="45"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="25"/>
-    </row>
-    <row r="43" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B43" s="45"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="49"/>
-    </row>
-    <row r="44" spans="2:11" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B44" s="50"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="35"/>
-    </row>
-    <row r="45" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B45" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="49"/>
-    </row>
-    <row r="46" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B46" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="46"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="K46" s="27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B47" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G47" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="I47" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="J47" s="46"/>
-      <c r="K47" s="49"/>
-    </row>
-    <row r="48" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B48" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="G48" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="H48" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="I48" s="48"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="49"/>
-    </row>
-    <row r="49" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B49" s="45"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="25"/>
-    </row>
-    <row r="50" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B50" s="45"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="49"/>
-    </row>
-    <row r="51" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B51" s="45"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="25"/>
-    </row>
-    <row r="52" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B52" s="45"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="25"/>
-    </row>
-    <row r="53" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B53" s="45"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="46"/>
-      <c r="K53" s="49"/>
-    </row>
-    <row r="54" spans="2:11" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B54" s="50"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="35"/>
-    </row>
-    <row r="55" spans="2:11" ht="12.75" customHeight="1"/>
-    <row r="56" spans="2:11" ht="12.75" customHeight="1"/>
-    <row r="57" spans="2:11" ht="12.75" customHeight="1"/>
-    <row r="58" spans="2:11" ht="12.75" customHeight="1"/>
-    <row r="59" spans="2:11" ht="12.75" customHeight="1"/>
-    <row r="60" spans="2:11" ht="12.75" customHeight="1"/>
-    <row r="61" spans="2:11" ht="12.75" customHeight="1"/>
-    <row r="62" spans="2:11" ht="12.75" customHeight="1"/>
-    <row r="63" spans="2:11" ht="12.75" customHeight="1"/>
-    <row r="64" spans="2:11" ht="12.75" customHeight="1"/>
-    <row r="65" ht="12.75" customHeight="1"/>
-    <row r="66" ht="12.75" customHeight="1"/>
-    <row r="67" ht="12.75" customHeight="1"/>
-    <row r="68" ht="12.75" customHeight="1"/>
-    <row r="69" ht="12.75" customHeight="1"/>
-    <row r="70" ht="12.75" customHeight="1"/>
-    <row r="71" ht="12.75" customHeight="1"/>
-    <row r="72" ht="12.75" customHeight="1"/>
-    <row r="73" ht="12.75" customHeight="1"/>
-    <row r="74" ht="12.75" customHeight="1"/>
-    <row r="75" ht="12.75" customHeight="1"/>
-    <row r="76" ht="12.75" customHeight="1"/>
-    <row r="77" ht="12.75" customHeight="1"/>
-    <row r="78" ht="12.75" customHeight="1"/>
-    <row r="79" ht="12.75" customHeight="1"/>
-    <row r="80" ht="12.75" customHeight="1"/>
-    <row r="81" ht="12.75" customHeight="1"/>
-    <row r="82" ht="12.75" customHeight="1"/>
-    <row r="83" ht="12.75" customHeight="1"/>
-    <row r="84" ht="12.75" customHeight="1"/>
-    <row r="85" ht="12.75" customHeight="1"/>
-    <row r="86" ht="12.75" customHeight="1"/>
-    <row r="87" ht="12.75" customHeight="1"/>
-    <row r="88" ht="12.75" customHeight="1"/>
-    <row r="89" ht="12.75" customHeight="1"/>
-    <row r="90" ht="12.75" customHeight="1"/>
-    <row r="91" ht="12.75" customHeight="1"/>
-    <row r="92" ht="12.75" customHeight="1"/>
-    <row r="93" ht="12.75" customHeight="1"/>
-    <row r="94" ht="12.75" customHeight="1"/>
-    <row r="95" ht="12.75" customHeight="1"/>
-    <row r="96" ht="12.75" customHeight="1"/>
-    <row r="97" ht="12.75" customHeight="1"/>
-    <row r="98" ht="12.75" customHeight="1"/>
-    <row r="99" ht="12.75" customHeight="1"/>
-    <row r="100" ht="12.75" customHeight="1"/>
-    <row r="101" ht="12.75" customHeight="1"/>
-    <row r="102" ht="12.75" customHeight="1"/>
-    <row r="103" ht="12.75" customHeight="1"/>
-    <row r="104" ht="12.75" customHeight="1"/>
-    <row r="105" ht="12.75" customHeight="1"/>
-    <row r="106" ht="12.75" customHeight="1"/>
-    <row r="107" ht="12.75" customHeight="1"/>
-    <row r="108" ht="12.75" customHeight="1"/>
-    <row r="109" ht="12.75" customHeight="1"/>
-    <row r="110" ht="12.75" customHeight="1"/>
-    <row r="111" ht="12.75" customHeight="1"/>
-    <row r="112" ht="12.75" customHeight="1"/>
-    <row r="113" ht="12.75" customHeight="1"/>
-    <row r="114" ht="12.75" customHeight="1"/>
-    <row r="115" ht="12.75" customHeight="1"/>
-    <row r="116" ht="12.75" customHeight="1"/>
-    <row r="117" ht="12.75" customHeight="1"/>
-    <row r="118" ht="12.75" customHeight="1"/>
-    <row r="119" ht="12.75" customHeight="1"/>
-    <row r="120" ht="12.75" customHeight="1"/>
-    <row r="121" ht="12.75" customHeight="1"/>
-    <row r="122" ht="12.75" customHeight="1"/>
-    <row r="123" ht="12.75" customHeight="1"/>
-    <row r="124" ht="12.75" customHeight="1"/>
-    <row r="125" ht="12.75" customHeight="1"/>
-    <row r="126" ht="12.75" customHeight="1"/>
-    <row r="127" ht="12.75" customHeight="1"/>
-    <row r="128" ht="12.75" customHeight="1"/>
-    <row r="129" ht="12.75" customHeight="1"/>
-    <row r="130" ht="12.75" customHeight="1"/>
-    <row r="131" ht="12.75" customHeight="1"/>
-    <row r="132" ht="12.75" customHeight="1"/>
-    <row r="133" ht="12.75" customHeight="1"/>
-    <row r="134" ht="12.75" customHeight="1"/>
-    <row r="135" ht="12.75" customHeight="1"/>
-    <row r="136" ht="12.75" customHeight="1"/>
-    <row r="137" ht="12.75" customHeight="1"/>
-    <row r="138" ht="12.75" customHeight="1"/>
-    <row r="139" ht="12.75" customHeight="1"/>
-    <row r="140" ht="12.75" customHeight="1"/>
-    <row r="141" ht="12.75" customHeight="1"/>
-    <row r="142" ht="12.75" customHeight="1"/>
-    <row r="143" ht="12.75" customHeight="1"/>
-    <row r="144" ht="12.75" customHeight="1"/>
-    <row r="145" ht="12.75" customHeight="1"/>
-    <row r="146" ht="12.75" customHeight="1"/>
-    <row r="147" ht="12.75" customHeight="1"/>
-    <row r="148" ht="12.75" customHeight="1"/>
-    <row r="149" ht="12.75" customHeight="1"/>
-    <row r="150" ht="12.75" customHeight="1"/>
-    <row r="151" ht="12.75" customHeight="1"/>
-    <row r="152" ht="12.75" customHeight="1"/>
-    <row r="153" ht="12.75" customHeight="1"/>
-    <row r="154" ht="12.75" customHeight="1"/>
-    <row r="155" ht="12.75" customHeight="1"/>
-    <row r="156" ht="12.75" customHeight="1"/>
-    <row r="157" ht="12.75" customHeight="1"/>
-    <row r="158" ht="12.75" customHeight="1"/>
-    <row r="159" ht="12.75" customHeight="1"/>
-    <row r="160" ht="12.75" customHeight="1"/>
-    <row r="161" ht="12.75" customHeight="1"/>
-    <row r="162" ht="12.75" customHeight="1"/>
-    <row r="163" ht="12.75" customHeight="1"/>
-    <row r="164" ht="12.75" customHeight="1"/>
-    <row r="165" ht="12.75" customHeight="1"/>
-    <row r="166" ht="12.75" customHeight="1"/>
-    <row r="167" ht="12.75" customHeight="1"/>
-    <row r="168" ht="12.75" customHeight="1"/>
-    <row r="169" ht="12.75" customHeight="1"/>
-    <row r="170" ht="12.75" customHeight="1"/>
-    <row r="171" ht="12.75" customHeight="1"/>
-    <row r="172" ht="12.75" customHeight="1"/>
-    <row r="173" ht="12.75" customHeight="1"/>
-    <row r="174" ht="12.75" customHeight="1"/>
-    <row r="175" ht="12.75" customHeight="1"/>
-    <row r="176" ht="12.75" customHeight="1"/>
-    <row r="177" ht="12.75" customHeight="1"/>
-    <row r="178" ht="12.75" customHeight="1"/>
-    <row r="179" ht="12.75" customHeight="1"/>
-    <row r="180" ht="12.75" customHeight="1"/>
-    <row r="181" ht="12.75" customHeight="1"/>
-    <row r="182" ht="12.75" customHeight="1"/>
-    <row r="183" ht="12.75" customHeight="1"/>
-    <row r="184" ht="12.75" customHeight="1"/>
-    <row r="185" ht="12.75" customHeight="1"/>
-    <row r="186" ht="12.75" customHeight="1"/>
-    <row r="187" ht="12.75" customHeight="1"/>
-    <row r="188" ht="12.75" customHeight="1"/>
-    <row r="189" ht="12.75" customHeight="1"/>
-    <row r="190" ht="12.75" customHeight="1"/>
-    <row r="191" ht="12.75" customHeight="1"/>
-    <row r="192" ht="12.75" customHeight="1"/>
-    <row r="193" ht="12.75" customHeight="1"/>
-    <row r="194" ht="12.75" customHeight="1"/>
-    <row r="195" ht="12.75" customHeight="1"/>
-    <row r="196" ht="12.75" customHeight="1"/>
-    <row r="197" ht="12.75" customHeight="1"/>
-    <row r="198" ht="12.75" customHeight="1"/>
-    <row r="199" ht="12.75" customHeight="1"/>
-    <row r="200" ht="12.75" customHeight="1"/>
-    <row r="201" ht="12.75" customHeight="1"/>
-    <row r="202" ht="12.75" customHeight="1"/>
-    <row r="203" ht="12.75" customHeight="1"/>
-    <row r="204" ht="12.75" customHeight="1"/>
-    <row r="205" ht="12.75" customHeight="1"/>
-    <row r="206" ht="12.75" customHeight="1"/>
-    <row r="207" ht="12.75" customHeight="1"/>
-    <row r="208" ht="12.75" customHeight="1"/>
-    <row r="209" ht="12.75" customHeight="1"/>
-    <row r="210" ht="12.75" customHeight="1"/>
-    <row r="211" ht="12.75" customHeight="1"/>
-    <row r="212" ht="12.75" customHeight="1"/>
-    <row r="213" ht="12.75" customHeight="1"/>
-    <row r="214" ht="12.75" customHeight="1"/>
-    <row r="215" ht="12.75" customHeight="1"/>
-    <row r="216" ht="12.75" customHeight="1"/>
-    <row r="217" ht="12.75" customHeight="1"/>
-    <row r="218" ht="12.75" customHeight="1"/>
-    <row r="219" ht="12.75" customHeight="1"/>
-    <row r="220" ht="12.75" customHeight="1"/>
-    <row r="221" ht="12.75" customHeight="1"/>
-    <row r="222" ht="12.75" customHeight="1"/>
-    <row r="223" ht="12.75" customHeight="1"/>
-    <row r="224" ht="12.75" customHeight="1"/>
-    <row r="225" ht="12.75" customHeight="1"/>
-    <row r="226" ht="12.75" customHeight="1"/>
-    <row r="227" ht="12.75" customHeight="1"/>
-    <row r="228" ht="12.75" customHeight="1"/>
-    <row r="229" ht="12.75" customHeight="1"/>
-    <row r="230" ht="12.75" customHeight="1"/>
-    <row r="231" ht="12.75" customHeight="1"/>
-    <row r="232" ht="12.75" customHeight="1"/>
-    <row r="233" ht="12.75" customHeight="1"/>
-    <row r="234" ht="12.75" customHeight="1"/>
-    <row r="235" ht="12.75" customHeight="1"/>
-    <row r="236" ht="12.75" customHeight="1"/>
-    <row r="237" ht="12.75" customHeight="1"/>
-    <row r="238" ht="12.75" customHeight="1"/>
-    <row r="239" ht="12.75" customHeight="1"/>
-    <row r="240" ht="12.75" customHeight="1"/>
-    <row r="241" ht="12.75" customHeight="1"/>
-    <row r="242" ht="12.75" customHeight="1"/>
-    <row r="243" ht="12.75" customHeight="1"/>
-    <row r="244" ht="12.75" customHeight="1"/>
-    <row r="245" ht="12.75" customHeight="1"/>
-    <row r="246" ht="12.75" customHeight="1"/>
-    <row r="247" ht="12.75" customHeight="1"/>
-    <row r="248" ht="12.75" customHeight="1"/>
-    <row r="249" ht="12.75" customHeight="1"/>
-    <row r="250" ht="12.75" customHeight="1"/>
-    <row r="251" ht="12.75" customHeight="1"/>
-    <row r="252" ht="12.75" customHeight="1"/>
-    <row r="253" ht="12.75" customHeight="1"/>
-    <row r="254" ht="12.75" customHeight="1"/>
-    <row r="255" ht="12.75" customHeight="1"/>
-    <row r="256" ht="12.75" customHeight="1"/>
-    <row r="257" ht="12.75" customHeight="1"/>
-    <row r="258" ht="12.75" customHeight="1"/>
-    <row r="259" ht="12.75" customHeight="1"/>
-    <row r="260" ht="12.75" customHeight="1"/>
-    <row r="261" ht="12.75" customHeight="1"/>
-    <row r="262" ht="12.75" customHeight="1"/>
-    <row r="263" ht="12.75" customHeight="1"/>
-    <row r="264" ht="12.75" customHeight="1"/>
-    <row r="265" ht="12.75" customHeight="1"/>
-    <row r="266" ht="12.75" customHeight="1"/>
-    <row r="267" ht="12.75" customHeight="1"/>
-    <row r="268" ht="12.75" customHeight="1"/>
-    <row r="269" ht="12.75" customHeight="1"/>
-    <row r="270" ht="12.75" customHeight="1"/>
-    <row r="271" ht="12.75" customHeight="1"/>
-    <row r="272" ht="12.75" customHeight="1"/>
-    <row r="273" ht="12.75" customHeight="1"/>
-    <row r="274" ht="12.75" customHeight="1"/>
-    <row r="275" ht="12.75" customHeight="1"/>
-    <row r="276" ht="12.75" customHeight="1"/>
-    <row r="277" ht="12.75" customHeight="1"/>
-    <row r="278" ht="12.75" customHeight="1"/>
-    <row r="279" ht="12.75" customHeight="1"/>
-    <row r="280" ht="12.75" customHeight="1"/>
-    <row r="281" ht="12.75" customHeight="1"/>
-    <row r="282" ht="12.75" customHeight="1"/>
-    <row r="283" ht="12.75" customHeight="1"/>
-    <row r="284" ht="12.75" customHeight="1"/>
-    <row r="285" ht="12.75" customHeight="1"/>
-    <row r="286" ht="12.75" customHeight="1"/>
-    <row r="287" ht="12.75" customHeight="1"/>
-    <row r="288" ht="12.75" customHeight="1"/>
-    <row r="289" ht="12.75" customHeight="1"/>
-    <row r="290" ht="12.75" customHeight="1"/>
-    <row r="291" ht="12.75" customHeight="1"/>
-    <row r="292" ht="12.75" customHeight="1"/>
-    <row r="293" ht="12.75" customHeight="1"/>
-    <row r="294" ht="12.75" customHeight="1"/>
-    <row r="295" ht="12.75" customHeight="1"/>
-    <row r="296" ht="12.75" customHeight="1"/>
-    <row r="297" ht="12.75" customHeight="1"/>
-    <row r="298" ht="12.75" customHeight="1"/>
-    <row r="299" ht="12.75" customHeight="1"/>
-    <row r="300" ht="12.75" customHeight="1"/>
-    <row r="301" ht="12.75" customHeight="1"/>
-    <row r="302" ht="12.75" customHeight="1"/>
-    <row r="303" ht="12.75" customHeight="1"/>
-    <row r="304" ht="12.75" customHeight="1"/>
-    <row r="305" ht="12.75" customHeight="1"/>
-    <row r="306" ht="12.75" customHeight="1"/>
-    <row r="307" ht="12.75" customHeight="1"/>
-    <row r="308" ht="12.75" customHeight="1"/>
-    <row r="309" ht="12.75" customHeight="1"/>
-    <row r="310" ht="12.75" customHeight="1"/>
-    <row r="311" ht="12.75" customHeight="1"/>
-    <row r="312" ht="12.75" customHeight="1"/>
-    <row r="313" ht="12.75" customHeight="1"/>
-    <row r="314" ht="12.75" customHeight="1"/>
-    <row r="315" ht="12.75" customHeight="1"/>
-    <row r="316" ht="12.75" customHeight="1"/>
-    <row r="317" ht="12.75" customHeight="1"/>
-    <row r="318" ht="12.75" customHeight="1"/>
-    <row r="319" ht="12.75" customHeight="1"/>
-    <row r="320" ht="12.75" customHeight="1"/>
-    <row r="321" ht="12.75" customHeight="1"/>
-    <row r="322" ht="12.75" customHeight="1"/>
-    <row r="323" ht="12.75" customHeight="1"/>
-    <row r="324" ht="12.75" customHeight="1"/>
-    <row r="325" ht="12.75" customHeight="1"/>
-    <row r="326" ht="12.75" customHeight="1"/>
-    <row r="327" ht="12.75" customHeight="1"/>
-    <row r="328" ht="12.75" customHeight="1"/>
-    <row r="329" ht="12.75" customHeight="1"/>
-    <row r="330" ht="12.75" customHeight="1"/>
-    <row r="331" ht="12.75" customHeight="1"/>
-    <row r="332" ht="12.75" customHeight="1"/>
-    <row r="333" ht="12.75" customHeight="1"/>
-    <row r="334" ht="12.75" customHeight="1"/>
-    <row r="335" ht="12.75" customHeight="1"/>
-    <row r="336" ht="12.75" customHeight="1"/>
-    <row r="337" ht="12.75" customHeight="1"/>
-    <row r="338" ht="12.75" customHeight="1"/>
-    <row r="339" ht="12.75" customHeight="1"/>
-    <row r="340" ht="12.75" customHeight="1"/>
-    <row r="341" ht="12.75" customHeight="1"/>
-    <row r="342" ht="12.75" customHeight="1"/>
-    <row r="343" ht="12.75" customHeight="1"/>
-    <row r="344" ht="12.75" customHeight="1"/>
-    <row r="345" ht="12.75" customHeight="1"/>
-    <row r="346" ht="12.75" customHeight="1"/>
-    <row r="347" ht="12.75" customHeight="1"/>
-    <row r="348" ht="12.75" customHeight="1"/>
-    <row r="349" ht="12.75" customHeight="1"/>
-    <row r="350" ht="12.75" customHeight="1"/>
-    <row r="351" ht="12.75" customHeight="1"/>
-    <row r="352" ht="12.75" customHeight="1"/>
-    <row r="353" ht="12.75" customHeight="1"/>
-    <row r="354" ht="12.75" customHeight="1"/>
-    <row r="355" ht="12.75" customHeight="1"/>
-    <row r="356" ht="12.75" customHeight="1"/>
-    <row r="357" ht="12.75" customHeight="1"/>
-    <row r="358" ht="12.75" customHeight="1"/>
-    <row r="359" ht="12.75" customHeight="1"/>
-    <row r="360" ht="12.75" customHeight="1"/>
-    <row r="361" ht="12.75" customHeight="1"/>
-    <row r="362" ht="12.75" customHeight="1"/>
-    <row r="363" ht="12.75" customHeight="1"/>
-    <row r="364" ht="12.75" customHeight="1"/>
-    <row r="365" ht="12.75" customHeight="1"/>
-    <row r="366" ht="12.75" customHeight="1"/>
-    <row r="367" ht="12.75" customHeight="1"/>
-    <row r="368" ht="12.75" customHeight="1"/>
-    <row r="369" ht="12.75" customHeight="1"/>
-    <row r="370" ht="12.75" customHeight="1"/>
-    <row r="371" ht="12.75" customHeight="1"/>
-    <row r="372" ht="12.75" customHeight="1"/>
-    <row r="373" ht="12.75" customHeight="1"/>
-    <row r="374" ht="12.75" customHeight="1"/>
-    <row r="375" ht="12.75" customHeight="1"/>
-    <row r="376" ht="12.75" customHeight="1"/>
-    <row r="377" ht="12.75" customHeight="1"/>
-    <row r="378" ht="12.75" customHeight="1"/>
-    <row r="379" ht="12.75" customHeight="1"/>
-    <row r="380" ht="12.75" customHeight="1"/>
-    <row r="381" ht="12.75" customHeight="1"/>
-    <row r="382" ht="12.75" customHeight="1"/>
-    <row r="383" ht="12.75" customHeight="1"/>
-    <row r="384" ht="12.75" customHeight="1"/>
-    <row r="385" ht="12.75" customHeight="1"/>
-    <row r="386" ht="12.75" customHeight="1"/>
-    <row r="387" ht="12.75" customHeight="1"/>
-    <row r="388" ht="12.75" customHeight="1"/>
-    <row r="389" ht="12.75" customHeight="1"/>
-    <row r="390" ht="12.75" customHeight="1"/>
-    <row r="391" ht="12.75" customHeight="1"/>
-    <row r="392" ht="12.75" customHeight="1"/>
-    <row r="393" ht="12.75" customHeight="1"/>
-    <row r="394" ht="12.75" customHeight="1"/>
-    <row r="395" ht="12.75" customHeight="1"/>
-    <row r="396" ht="12.75" customHeight="1"/>
-    <row r="397" ht="12.75" customHeight="1"/>
-    <row r="398" ht="12.75" customHeight="1"/>
-    <row r="399" ht="12.75" customHeight="1"/>
-    <row r="400" ht="12.75" customHeight="1"/>
-    <row r="401" ht="12.75" customHeight="1"/>
-    <row r="402" ht="12.75" customHeight="1"/>
-    <row r="403" ht="12.75" customHeight="1"/>
-    <row r="404" ht="12.75" customHeight="1"/>
-    <row r="405" ht="12.75" customHeight="1"/>
-    <row r="406" ht="12.75" customHeight="1"/>
-    <row r="407" ht="12.75" customHeight="1"/>
-    <row r="408" ht="12.75" customHeight="1"/>
-    <row r="409" ht="12.75" customHeight="1"/>
-    <row r="410" ht="12.75" customHeight="1"/>
-    <row r="411" ht="12.75" customHeight="1"/>
-    <row r="412" ht="12.75" customHeight="1"/>
-    <row r="413" ht="12.75" customHeight="1"/>
-    <row r="414" ht="12.75" customHeight="1"/>
-    <row r="415" ht="12.75" customHeight="1"/>
-    <row r="416" ht="12.75" customHeight="1"/>
-    <row r="417" ht="12.75" customHeight="1"/>
-    <row r="418" ht="12.75" customHeight="1"/>
-    <row r="419" ht="12.75" customHeight="1"/>
-    <row r="420" ht="12.75" customHeight="1"/>
-    <row r="421" ht="12.75" customHeight="1"/>
-    <row r="422" ht="12.75" customHeight="1"/>
-    <row r="423" ht="12.75" customHeight="1"/>
-    <row r="424" ht="12.75" customHeight="1"/>
-    <row r="425" ht="12.75" customHeight="1"/>
-    <row r="426" ht="12.75" customHeight="1"/>
-    <row r="427" ht="12.75" customHeight="1"/>
-    <row r="428" ht="12.75" customHeight="1"/>
-    <row r="429" ht="12.75" customHeight="1"/>
-    <row r="430" ht="12.75" customHeight="1"/>
-    <row r="431" ht="12.75" customHeight="1"/>
-    <row r="432" ht="12.75" customHeight="1"/>
-    <row r="433" ht="12.75" customHeight="1"/>
-    <row r="434" ht="12.75" customHeight="1"/>
-    <row r="435" ht="12.75" customHeight="1"/>
-    <row r="436" ht="12.75" customHeight="1"/>
-    <row r="437" ht="12.75" customHeight="1"/>
-    <row r="438" ht="12.75" customHeight="1"/>
-    <row r="439" ht="12.75" customHeight="1"/>
-    <row r="440" ht="12.75" customHeight="1"/>
-    <row r="441" ht="12.75" customHeight="1"/>
-    <row r="442" ht="12.75" customHeight="1"/>
-    <row r="443" ht="12.75" customHeight="1"/>
-    <row r="444" ht="12.75" customHeight="1"/>
-    <row r="445" ht="12.75" customHeight="1"/>
-    <row r="446" ht="12.75" customHeight="1"/>
-    <row r="447" ht="12.75" customHeight="1"/>
-    <row r="448" ht="12.75" customHeight="1"/>
-    <row r="449" ht="12.75" customHeight="1"/>
-    <row r="450" ht="12.75" customHeight="1"/>
-    <row r="451" ht="12.75" customHeight="1"/>
-    <row r="452" ht="12.75" customHeight="1"/>
-    <row r="453" ht="12.75" customHeight="1"/>
-    <row r="454" ht="12.75" customHeight="1"/>
-    <row r="455" ht="12.75" customHeight="1"/>
-    <row r="456" ht="12.75" customHeight="1"/>
-    <row r="457" ht="12.75" customHeight="1"/>
-    <row r="458" ht="12.75" customHeight="1"/>
-    <row r="459" ht="12.75" customHeight="1"/>
-    <row r="460" ht="12.75" customHeight="1"/>
-    <row r="461" ht="12.75" customHeight="1"/>
-    <row r="462" ht="12.75" customHeight="1"/>
-    <row r="463" ht="12.75" customHeight="1"/>
-    <row r="464" ht="12.75" customHeight="1"/>
-    <row r="465" ht="12.75" customHeight="1"/>
-    <row r="466" ht="12.75" customHeight="1"/>
-    <row r="467" ht="12.75" customHeight="1"/>
-    <row r="468" ht="12.75" customHeight="1"/>
-    <row r="469" ht="12.75" customHeight="1"/>
-    <row r="470" ht="12.75" customHeight="1"/>
-    <row r="471" ht="12.75" customHeight="1"/>
-    <row r="472" ht="12.75" customHeight="1"/>
-    <row r="473" ht="12.75" customHeight="1"/>
-    <row r="474" ht="12.75" customHeight="1"/>
-    <row r="475" ht="12.75" customHeight="1"/>
-    <row r="476" ht="12.75" customHeight="1"/>
-    <row r="477" ht="12.75" customHeight="1"/>
-    <row r="478" ht="12.75" customHeight="1"/>
-    <row r="479" ht="12.75" customHeight="1"/>
-    <row r="480" ht="12.75" customHeight="1"/>
-    <row r="481" ht="12.75" customHeight="1"/>
-    <row r="482" ht="12.75" customHeight="1"/>
-    <row r="483" ht="12.75" customHeight="1"/>
-    <row r="484" ht="12.75" customHeight="1"/>
-    <row r="485" ht="12.75" customHeight="1"/>
-    <row r="486" ht="12.75" customHeight="1"/>
-    <row r="487" ht="12.75" customHeight="1"/>
-    <row r="488" ht="12.75" customHeight="1"/>
-    <row r="489" ht="12.75" customHeight="1"/>
-    <row r="490" ht="12.75" customHeight="1"/>
-    <row r="491" ht="12.75" customHeight="1"/>
-    <row r="492" ht="12.75" customHeight="1"/>
-    <row r="493" ht="12.75" customHeight="1"/>
-    <row r="494" ht="12.75" customHeight="1"/>
-    <row r="495" ht="12.75" customHeight="1"/>
-    <row r="496" ht="12.75" customHeight="1"/>
-    <row r="497" ht="12.75" customHeight="1"/>
-    <row r="498" ht="12.75" customHeight="1"/>
-    <row r="499" ht="12.75" customHeight="1"/>
-    <row r="500" ht="12.75" customHeight="1"/>
-    <row r="501" ht="12.75" customHeight="1"/>
-    <row r="502" ht="12.75" customHeight="1"/>
-    <row r="503" ht="12.75" customHeight="1"/>
-    <row r="504" ht="12.75" customHeight="1"/>
-    <row r="505" ht="12.75" customHeight="1"/>
-    <row r="506" ht="12.75" customHeight="1"/>
-    <row r="507" ht="12.75" customHeight="1"/>
-    <row r="508" ht="12.75" customHeight="1"/>
-    <row r="509" ht="12.75" customHeight="1"/>
-    <row r="510" ht="12.75" customHeight="1"/>
-    <row r="511" ht="12.75" customHeight="1"/>
-    <row r="512" ht="12.75" customHeight="1"/>
-    <row r="513" ht="12.75" customHeight="1"/>
-    <row r="514" ht="12.75" customHeight="1"/>
-    <row r="515" ht="12.75" customHeight="1"/>
-    <row r="516" ht="12.75" customHeight="1"/>
-    <row r="517" ht="12.75" customHeight="1"/>
-    <row r="518" ht="12.75" customHeight="1"/>
-    <row r="519" ht="12.75" customHeight="1"/>
-    <row r="520" ht="12.75" customHeight="1"/>
-    <row r="521" ht="12.75" customHeight="1"/>
-    <row r="522" ht="12.75" customHeight="1"/>
-    <row r="523" ht="12.75" customHeight="1"/>
-    <row r="524" ht="12.75" customHeight="1"/>
-    <row r="525" ht="12.75" customHeight="1"/>
-    <row r="526" ht="12.75" customHeight="1"/>
-    <row r="527" ht="12.75" customHeight="1"/>
-    <row r="528" ht="12.75" customHeight="1"/>
-    <row r="529" ht="12.75" customHeight="1"/>
-    <row r="530" ht="12.75" customHeight="1"/>
-    <row r="531" ht="12.75" customHeight="1"/>
-    <row r="532" ht="12.75" customHeight="1"/>
-    <row r="533" ht="12.75" customHeight="1"/>
-    <row r="534" ht="12.75" customHeight="1"/>
-    <row r="535" ht="12.75" customHeight="1"/>
-    <row r="536" ht="12.75" customHeight="1"/>
-    <row r="537" ht="12.75" customHeight="1"/>
-    <row r="538" ht="12.75" customHeight="1"/>
-    <row r="539" ht="12.75" customHeight="1"/>
-    <row r="540" ht="12.75" customHeight="1"/>
-    <row r="541" ht="12.75" customHeight="1"/>
-    <row r="542" ht="12.75" customHeight="1"/>
-    <row r="543" ht="12.75" customHeight="1"/>
-    <row r="544" ht="12.75" customHeight="1"/>
-    <row r="545" ht="12.75" customHeight="1"/>
-    <row r="546" ht="12.75" customHeight="1"/>
-    <row r="547" ht="12.75" customHeight="1"/>
-    <row r="548" ht="12.75" customHeight="1"/>
-    <row r="549" ht="12.75" customHeight="1"/>
-    <row r="550" ht="12.75" customHeight="1"/>
-    <row r="551" ht="12.75" customHeight="1"/>
-    <row r="552" ht="12.75" customHeight="1"/>
-    <row r="553" ht="12.75" customHeight="1"/>
-    <row r="554" ht="12.75" customHeight="1"/>
-    <row r="555" ht="12.75" customHeight="1"/>
-    <row r="556" ht="12.75" customHeight="1"/>
-    <row r="557" ht="12.75" customHeight="1"/>
-    <row r="558" ht="12.75" customHeight="1"/>
-    <row r="559" ht="12.75" customHeight="1"/>
-    <row r="560" ht="12.75" customHeight="1"/>
-    <row r="561" ht="12.75" customHeight="1"/>
-    <row r="562" ht="12.75" customHeight="1"/>
-    <row r="563" ht="12.75" customHeight="1"/>
-    <row r="564" ht="12.75" customHeight="1"/>
-    <row r="565" ht="12.75" customHeight="1"/>
-    <row r="566" ht="12.75" customHeight="1"/>
-    <row r="567" ht="12.75" customHeight="1"/>
-    <row r="568" ht="12.75" customHeight="1"/>
-    <row r="569" ht="12.75" customHeight="1"/>
-    <row r="570" ht="12.75" customHeight="1"/>
-    <row r="571" ht="12.75" customHeight="1"/>
-    <row r="572" ht="12.75" customHeight="1"/>
-    <row r="573" ht="12.75" customHeight="1"/>
-    <row r="574" ht="12.75" customHeight="1"/>
-    <row r="575" ht="12.75" customHeight="1"/>
-    <row r="576" ht="12.75" customHeight="1"/>
-    <row r="577" ht="12.75" customHeight="1"/>
-    <row r="578" ht="12.75" customHeight="1"/>
-    <row r="579" ht="12.75" customHeight="1"/>
-    <row r="580" ht="12.75" customHeight="1"/>
-    <row r="581" ht="12.75" customHeight="1"/>
-    <row r="582" ht="12.75" customHeight="1"/>
-    <row r="583" ht="12.75" customHeight="1"/>
-    <row r="584" ht="12.75" customHeight="1"/>
-    <row r="585" ht="12.75" customHeight="1"/>
-    <row r="586" ht="12.75" customHeight="1"/>
-    <row r="587" ht="12.75" customHeight="1"/>
-    <row r="588" ht="12.75" customHeight="1"/>
-    <row r="589" ht="12.75" customHeight="1"/>
-    <row r="590" ht="12.75" customHeight="1"/>
-    <row r="591" ht="12.75" customHeight="1"/>
-    <row r="592" ht="12.75" customHeight="1"/>
-    <row r="593" ht="12.75" customHeight="1"/>
-    <row r="594" ht="12.75" customHeight="1"/>
-    <row r="595" ht="12.75" customHeight="1"/>
-    <row r="596" ht="12.75" customHeight="1"/>
-    <row r="597" ht="12.75" customHeight="1"/>
-    <row r="598" ht="12.75" customHeight="1"/>
-    <row r="599" ht="12.75" customHeight="1"/>
-    <row r="600" ht="12.75" customHeight="1"/>
-    <row r="601" ht="12.75" customHeight="1"/>
-    <row r="602" ht="12.75" customHeight="1"/>
-    <row r="603" ht="12.75" customHeight="1"/>
-    <row r="604" ht="12.75" customHeight="1"/>
-    <row r="605" ht="12.75" customHeight="1"/>
-    <row r="606" ht="12.75" customHeight="1"/>
-    <row r="607" ht="12.75" customHeight="1"/>
-    <row r="608" ht="12.75" customHeight="1"/>
-    <row r="609" ht="12.75" customHeight="1"/>
-    <row r="610" ht="12.75" customHeight="1"/>
-    <row r="611" ht="12.75" customHeight="1"/>
-    <row r="612" ht="12.75" customHeight="1"/>
-    <row r="613" ht="12.75" customHeight="1"/>
-    <row r="614" ht="12.75" customHeight="1"/>
-    <row r="615" ht="12.75" customHeight="1"/>
-    <row r="616" ht="12.75" customHeight="1"/>
-    <row r="617" ht="12.75" customHeight="1"/>
-    <row r="618" ht="12.75" customHeight="1"/>
-    <row r="619" ht="12.75" customHeight="1"/>
-    <row r="620" ht="12.75" customHeight="1"/>
-    <row r="621" ht="12.75" customHeight="1"/>
-    <row r="622" ht="12.75" customHeight="1"/>
-    <row r="623" ht="12.75" customHeight="1"/>
-    <row r="624" ht="12.75" customHeight="1"/>
-    <row r="625" ht="12.75" customHeight="1"/>
-    <row r="626" ht="12.75" customHeight="1"/>
-    <row r="627" ht="12.75" customHeight="1"/>
-    <row r="628" ht="12.75" customHeight="1"/>
-    <row r="629" ht="12.75" customHeight="1"/>
-    <row r="630" ht="12.75" customHeight="1"/>
-    <row r="631" ht="12.75" customHeight="1"/>
-    <row r="632" ht="12.75" customHeight="1"/>
-    <row r="633" ht="12.75" customHeight="1"/>
-    <row r="634" ht="12.75" customHeight="1"/>
-    <row r="635" ht="12.75" customHeight="1"/>
-    <row r="636" ht="12.75" customHeight="1"/>
-    <row r="637" ht="12.75" customHeight="1"/>
-    <row r="638" ht="12.75" customHeight="1"/>
-    <row r="639" ht="12.75" customHeight="1"/>
-    <row r="640" ht="12.75" customHeight="1"/>
-    <row r="641" ht="12.75" customHeight="1"/>
-    <row r="642" ht="12.75" customHeight="1"/>
-    <row r="643" ht="12.75" customHeight="1"/>
-    <row r="644" ht="12.75" customHeight="1"/>
-    <row r="645" ht="12.75" customHeight="1"/>
-    <row r="646" ht="12.75" customHeight="1"/>
-    <row r="647" ht="12.75" customHeight="1"/>
-    <row r="648" ht="12.75" customHeight="1"/>
-    <row r="649" ht="12.75" customHeight="1"/>
-    <row r="650" ht="12.75" customHeight="1"/>
-    <row r="651" ht="12.75" customHeight="1"/>
-    <row r="652" ht="12.75" customHeight="1"/>
-    <row r="653" ht="12.75" customHeight="1"/>
-    <row r="654" ht="12.75" customHeight="1"/>
-    <row r="655" ht="12.75" customHeight="1"/>
-    <row r="656" ht="12.75" customHeight="1"/>
-    <row r="657" ht="12.75" customHeight="1"/>
-    <row r="658" ht="12.75" customHeight="1"/>
-    <row r="659" ht="12.75" customHeight="1"/>
-    <row r="660" ht="12.75" customHeight="1"/>
-    <row r="661" ht="12.75" customHeight="1"/>
-    <row r="662" ht="12.75" customHeight="1"/>
-    <row r="663" ht="12.75" customHeight="1"/>
-    <row r="664" ht="12.75" customHeight="1"/>
-    <row r="665" ht="12.75" customHeight="1"/>
-    <row r="666" ht="12.75" customHeight="1"/>
-    <row r="667" ht="12.75" customHeight="1"/>
-    <row r="668" ht="12.75" customHeight="1"/>
-    <row r="669" ht="12.75" customHeight="1"/>
-    <row r="670" ht="12.75" customHeight="1"/>
-    <row r="671" ht="12.75" customHeight="1"/>
-    <row r="672" ht="12.75" customHeight="1"/>
-    <row r="673" ht="12.75" customHeight="1"/>
-    <row r="674" ht="12.75" customHeight="1"/>
-    <row r="675" ht="12.75" customHeight="1"/>
-    <row r="676" ht="12.75" customHeight="1"/>
-    <row r="677" ht="12.75" customHeight="1"/>
-    <row r="678" ht="12.75" customHeight="1"/>
-    <row r="679" ht="12.75" customHeight="1"/>
-    <row r="680" ht="12.75" customHeight="1"/>
-    <row r="681" ht="12.75" customHeight="1"/>
-    <row r="682" ht="12.75" customHeight="1"/>
-    <row r="683" ht="12.75" customHeight="1"/>
-    <row r="684" ht="12.75" customHeight="1"/>
-    <row r="685" ht="12.75" customHeight="1"/>
-    <row r="686" ht="12.75" customHeight="1"/>
-    <row r="687" ht="12.75" customHeight="1"/>
-    <row r="688" ht="12.75" customHeight="1"/>
-    <row r="689" ht="12.75" customHeight="1"/>
-    <row r="690" ht="12.75" customHeight="1"/>
-    <row r="691" ht="12.75" customHeight="1"/>
-    <row r="692" ht="12.75" customHeight="1"/>
-    <row r="693" ht="12.75" customHeight="1"/>
-    <row r="694" ht="12.75" customHeight="1"/>
-    <row r="695" ht="12.75" customHeight="1"/>
-    <row r="696" ht="12.75" customHeight="1"/>
-    <row r="697" ht="12.75" customHeight="1"/>
-    <row r="698" ht="12.75" customHeight="1"/>
-    <row r="699" ht="12.75" customHeight="1"/>
-    <row r="700" ht="12.75" customHeight="1"/>
-    <row r="701" ht="12.75" customHeight="1"/>
-    <row r="702" ht="12.75" customHeight="1"/>
-    <row r="703" ht="12.75" customHeight="1"/>
-    <row r="704" ht="12.75" customHeight="1"/>
-    <row r="705" ht="12.75" customHeight="1"/>
-    <row r="706" ht="12.75" customHeight="1"/>
-    <row r="707" ht="12.75" customHeight="1"/>
-    <row r="708" ht="12.75" customHeight="1"/>
-    <row r="709" ht="12.75" customHeight="1"/>
-    <row r="710" ht="12.75" customHeight="1"/>
-    <row r="711" ht="12.75" customHeight="1"/>
-    <row r="712" ht="12.75" customHeight="1"/>
-    <row r="713" ht="12.75" customHeight="1"/>
-    <row r="714" ht="12.75" customHeight="1"/>
-    <row r="715" ht="12.75" customHeight="1"/>
-    <row r="716" ht="12.75" customHeight="1"/>
-    <row r="717" ht="12.75" customHeight="1"/>
-    <row r="718" ht="12.75" customHeight="1"/>
-    <row r="719" ht="12.75" customHeight="1"/>
-    <row r="720" ht="12.75" customHeight="1"/>
-    <row r="721" ht="12.75" customHeight="1"/>
-    <row r="722" ht="12.75" customHeight="1"/>
-    <row r="723" ht="12.75" customHeight="1"/>
-    <row r="724" ht="12.75" customHeight="1"/>
-    <row r="725" ht="12.75" customHeight="1"/>
-    <row r="726" ht="12.75" customHeight="1"/>
-    <row r="727" ht="12.75" customHeight="1"/>
-    <row r="728" ht="12.75" customHeight="1"/>
-    <row r="729" ht="12.75" customHeight="1"/>
-    <row r="730" ht="12.75" customHeight="1"/>
-    <row r="731" ht="12.75" customHeight="1"/>
-    <row r="732" ht="12.75" customHeight="1"/>
-    <row r="733" ht="12.75" customHeight="1"/>
-    <row r="734" ht="12.75" customHeight="1"/>
-    <row r="735" ht="12.75" customHeight="1"/>
-    <row r="736" ht="12.75" customHeight="1"/>
-    <row r="737" ht="12.75" customHeight="1"/>
-    <row r="738" ht="12.75" customHeight="1"/>
-    <row r="739" ht="12.75" customHeight="1"/>
-    <row r="740" ht="12.75" customHeight="1"/>
-    <row r="741" ht="12.75" customHeight="1"/>
-    <row r="742" ht="12.75" customHeight="1"/>
-    <row r="743" ht="12.75" customHeight="1"/>
-    <row r="744" ht="12.75" customHeight="1"/>
-    <row r="745" ht="12.75" customHeight="1"/>
-    <row r="746" ht="12.75" customHeight="1"/>
-    <row r="747" ht="12.75" customHeight="1"/>
-    <row r="748" ht="12.75" customHeight="1"/>
-    <row r="749" ht="12.75" customHeight="1"/>
-    <row r="750" ht="12.75" customHeight="1"/>
-    <row r="751" ht="12.75" customHeight="1"/>
-    <row r="752" ht="12.75" customHeight="1"/>
-    <row r="753" ht="12.75" customHeight="1"/>
-    <row r="754" ht="12.75" customHeight="1"/>
-    <row r="755" ht="12.75" customHeight="1"/>
-    <row r="756" ht="12.75" customHeight="1"/>
-    <row r="757" ht="12.75" customHeight="1"/>
-    <row r="758" ht="12.75" customHeight="1"/>
-    <row r="759" ht="12.75" customHeight="1"/>
-    <row r="760" ht="12.75" customHeight="1"/>
-    <row r="761" ht="12.75" customHeight="1"/>
-    <row r="762" ht="12.75" customHeight="1"/>
-    <row r="763" ht="12.75" customHeight="1"/>
-    <row r="764" ht="12.75" customHeight="1"/>
-    <row r="765" ht="12.75" customHeight="1"/>
-    <row r="766" ht="12.75" customHeight="1"/>
-    <row r="767" ht="12.75" customHeight="1"/>
-    <row r="768" ht="12.75" customHeight="1"/>
-    <row r="769" ht="12.75" customHeight="1"/>
-    <row r="770" ht="12.75" customHeight="1"/>
-    <row r="771" ht="12.75" customHeight="1"/>
-    <row r="772" ht="12.75" customHeight="1"/>
-    <row r="773" ht="12.75" customHeight="1"/>
-    <row r="774" ht="12.75" customHeight="1"/>
-    <row r="775" ht="12.75" customHeight="1"/>
-    <row r="776" ht="12.75" customHeight="1"/>
-    <row r="777" ht="12.75" customHeight="1"/>
-    <row r="778" ht="12.75" customHeight="1"/>
-    <row r="779" ht="12.75" customHeight="1"/>
-    <row r="780" ht="12.75" customHeight="1"/>
-    <row r="781" ht="12.75" customHeight="1"/>
-    <row r="782" ht="12.75" customHeight="1"/>
-    <row r="783" ht="12.75" customHeight="1"/>
-    <row r="784" ht="12.75" customHeight="1"/>
-    <row r="785" ht="12.75" customHeight="1"/>
-    <row r="786" ht="12.75" customHeight="1"/>
-    <row r="787" ht="12.75" customHeight="1"/>
-    <row r="788" ht="12.75" customHeight="1"/>
-    <row r="789" ht="12.75" customHeight="1"/>
-    <row r="790" ht="12.75" customHeight="1"/>
-    <row r="791" ht="12.75" customHeight="1"/>
-    <row r="792" ht="12.75" customHeight="1"/>
-    <row r="793" ht="12.75" customHeight="1"/>
-    <row r="794" ht="12.75" customHeight="1"/>
-    <row r="795" ht="12.75" customHeight="1"/>
-    <row r="796" ht="12.75" customHeight="1"/>
-    <row r="797" ht="12.75" customHeight="1"/>
-    <row r="798" ht="12.75" customHeight="1"/>
-    <row r="799" ht="12.75" customHeight="1"/>
-    <row r="800" ht="12.75" customHeight="1"/>
-    <row r="801" ht="12.75" customHeight="1"/>
-    <row r="802" ht="12.75" customHeight="1"/>
-    <row r="803" ht="12.75" customHeight="1"/>
-    <row r="804" ht="12.75" customHeight="1"/>
-    <row r="805" ht="12.75" customHeight="1"/>
-    <row r="806" ht="12.75" customHeight="1"/>
-    <row r="807" ht="12.75" customHeight="1"/>
-    <row r="808" ht="12.75" customHeight="1"/>
-    <row r="809" ht="12.75" customHeight="1"/>
-    <row r="810" ht="12.75" customHeight="1"/>
-    <row r="811" ht="12.75" customHeight="1"/>
-    <row r="812" ht="12.75" customHeight="1"/>
-    <row r="813" ht="12.75" customHeight="1"/>
-    <row r="814" ht="12.75" customHeight="1"/>
-    <row r="815" ht="12.75" customHeight="1"/>
-    <row r="816" ht="12.75" customHeight="1"/>
-    <row r="817" ht="12.75" customHeight="1"/>
-    <row r="818" ht="12.75" customHeight="1"/>
-    <row r="819" ht="12.75" customHeight="1"/>
-    <row r="820" ht="12.75" customHeight="1"/>
-    <row r="821" ht="12.75" customHeight="1"/>
-    <row r="822" ht="12.75" customHeight="1"/>
-    <row r="823" ht="12.75" customHeight="1"/>
-    <row r="824" ht="12.75" customHeight="1"/>
-    <row r="825" ht="12.75" customHeight="1"/>
-    <row r="826" ht="12.75" customHeight="1"/>
-    <row r="827" ht="12.75" customHeight="1"/>
-    <row r="828" ht="12.75" customHeight="1"/>
-    <row r="829" ht="12.75" customHeight="1"/>
-    <row r="830" ht="12.75" customHeight="1"/>
-    <row r="831" ht="12.75" customHeight="1"/>
-    <row r="832" ht="12.75" customHeight="1"/>
-    <row r="833" ht="12.75" customHeight="1"/>
-    <row r="834" ht="12.75" customHeight="1"/>
-    <row r="835" ht="12.75" customHeight="1"/>
-    <row r="836" ht="12.75" customHeight="1"/>
-    <row r="837" ht="12.75" customHeight="1"/>
-    <row r="838" ht="12.75" customHeight="1"/>
-    <row r="839" ht="12.75" customHeight="1"/>
-    <row r="840" ht="12.75" customHeight="1"/>
-    <row r="841" ht="12.75" customHeight="1"/>
-    <row r="842" ht="12.75" customHeight="1"/>
-    <row r="843" ht="12.75" customHeight="1"/>
-    <row r="844" ht="12.75" customHeight="1"/>
-    <row r="845" ht="12.75" customHeight="1"/>
-    <row r="846" ht="12.75" customHeight="1"/>
-    <row r="847" ht="12.75" customHeight="1"/>
-    <row r="848" ht="12.75" customHeight="1"/>
-    <row r="849" ht="12.75" customHeight="1"/>
-    <row r="850" ht="12.75" customHeight="1"/>
-    <row r="851" ht="12.75" customHeight="1"/>
-    <row r="852" ht="12.75" customHeight="1"/>
-    <row r="853" ht="12.75" customHeight="1"/>
-    <row r="854" ht="12.75" customHeight="1"/>
-    <row r="855" ht="12.75" customHeight="1"/>
-    <row r="856" ht="12.75" customHeight="1"/>
-    <row r="857" ht="12.75" customHeight="1"/>
-    <row r="858" ht="12.75" customHeight="1"/>
-    <row r="859" ht="12.75" customHeight="1"/>
-    <row r="860" ht="12.75" customHeight="1"/>
-    <row r="861" ht="12.75" customHeight="1"/>
-    <row r="862" ht="12.75" customHeight="1"/>
-    <row r="863" ht="12.75" customHeight="1"/>
-    <row r="864" ht="12.75" customHeight="1"/>
-    <row r="865" ht="12.75" customHeight="1"/>
-    <row r="866" ht="12.75" customHeight="1"/>
-    <row r="867" ht="12.75" customHeight="1"/>
-    <row r="868" ht="12.75" customHeight="1"/>
-    <row r="869" ht="12.75" customHeight="1"/>
-    <row r="870" ht="12.75" customHeight="1"/>
-    <row r="871" ht="12.75" customHeight="1"/>
-    <row r="872" ht="12.75" customHeight="1"/>
-    <row r="873" ht="12.75" customHeight="1"/>
-    <row r="874" ht="12.75" customHeight="1"/>
-    <row r="875" ht="12.75" customHeight="1"/>
-    <row r="876" ht="12.75" customHeight="1"/>
-    <row r="877" ht="12.75" customHeight="1"/>
-    <row r="878" ht="12.75" customHeight="1"/>
-    <row r="879" ht="12.75" customHeight="1"/>
-    <row r="880" ht="12.75" customHeight="1"/>
-    <row r="881" ht="12.75" customHeight="1"/>
-    <row r="882" ht="12.75" customHeight="1"/>
-    <row r="883" ht="12.75" customHeight="1"/>
-    <row r="884" ht="12.75" customHeight="1"/>
-    <row r="885" ht="12.75" customHeight="1"/>
-    <row r="886" ht="12.75" customHeight="1"/>
-    <row r="887" ht="12.75" customHeight="1"/>
-    <row r="888" ht="12.75" customHeight="1"/>
-    <row r="889" ht="12.75" customHeight="1"/>
-    <row r="890" ht="12.75" customHeight="1"/>
-    <row r="891" ht="12.75" customHeight="1"/>
-    <row r="892" ht="12.75" customHeight="1"/>
-    <row r="893" ht="12.75" customHeight="1"/>
-    <row r="894" ht="12.75" customHeight="1"/>
-    <row r="895" ht="12.75" customHeight="1"/>
-    <row r="896" ht="12.75" customHeight="1"/>
-    <row r="897" ht="12.75" customHeight="1"/>
-    <row r="898" ht="12.75" customHeight="1"/>
-    <row r="899" ht="12.75" customHeight="1"/>
-    <row r="900" ht="12.75" customHeight="1"/>
-    <row r="901" ht="12.75" customHeight="1"/>
-    <row r="902" ht="12.75" customHeight="1"/>
-    <row r="903" ht="12.75" customHeight="1"/>
-    <row r="904" ht="12.75" customHeight="1"/>
-    <row r="905" ht="12.75" customHeight="1"/>
-    <row r="906" ht="12.75" customHeight="1"/>
-    <row r="907" ht="12.75" customHeight="1"/>
-    <row r="908" ht="12.75" customHeight="1"/>
-    <row r="909" ht="12.75" customHeight="1"/>
-    <row r="910" ht="12.75" customHeight="1"/>
-    <row r="911" ht="12.75" customHeight="1"/>
-    <row r="912" ht="12.75" customHeight="1"/>
-    <row r="913" ht="12.75" customHeight="1"/>
-    <row r="914" ht="12.75" customHeight="1"/>
-    <row r="915" ht="12.75" customHeight="1"/>
-    <row r="916" ht="12.75" customHeight="1"/>
-    <row r="917" ht="12.75" customHeight="1"/>
-    <row r="918" ht="12.75" customHeight="1"/>
-    <row r="919" ht="12.75" customHeight="1"/>
-    <row r="920" ht="12.75" customHeight="1"/>
-    <row r="921" ht="12.75" customHeight="1"/>
-    <row r="922" ht="12.75" customHeight="1"/>
-    <row r="923" ht="12.75" customHeight="1"/>
-    <row r="924" ht="12.75" customHeight="1"/>
-    <row r="925" ht="12.75" customHeight="1"/>
-    <row r="926" ht="12.75" customHeight="1"/>
-    <row r="927" ht="12.75" customHeight="1"/>
-    <row r="928" ht="12.75" customHeight="1"/>
-    <row r="929" ht="12.75" customHeight="1"/>
-    <row r="930" ht="12.75" customHeight="1"/>
-    <row r="931" ht="12.75" customHeight="1"/>
-    <row r="932" ht="12.75" customHeight="1"/>
-    <row r="933" ht="12.75" customHeight="1"/>
-    <row r="934" ht="12.75" customHeight="1"/>
-    <row r="935" ht="12.75" customHeight="1"/>
-    <row r="936" ht="12.75" customHeight="1"/>
-    <row r="937" ht="12.75" customHeight="1"/>
-    <row r="938" ht="12.75" customHeight="1"/>
-    <row r="939" ht="12.75" customHeight="1"/>
-    <row r="940" ht="12.75" customHeight="1"/>
-    <row r="941" ht="12.75" customHeight="1"/>
-    <row r="942" ht="12.75" customHeight="1"/>
-    <row r="943" ht="12.75" customHeight="1"/>
-    <row r="944" ht="12.75" customHeight="1"/>
-    <row r="945" ht="12.75" customHeight="1"/>
-    <row r="946" ht="12.75" customHeight="1"/>
-    <row r="947" ht="12.75" customHeight="1"/>
-    <row r="948" ht="12.75" customHeight="1"/>
-    <row r="949" ht="12.75" customHeight="1"/>
-    <row r="950" ht="12.75" customHeight="1"/>
-    <row r="951" ht="12.75" customHeight="1"/>
-    <row r="952" ht="12.75" customHeight="1"/>
-    <row r="953" ht="12.75" customHeight="1"/>
-    <row r="954" ht="12.75" customHeight="1"/>
-    <row r="955" ht="12.75" customHeight="1"/>
-    <row r="956" ht="12.75" customHeight="1"/>
-    <row r="957" ht="12.75" customHeight="1"/>
-    <row r="958" ht="12.75" customHeight="1"/>
-    <row r="959" ht="12.75" customHeight="1"/>
-    <row r="960" ht="12.75" customHeight="1"/>
-    <row r="961" ht="12.75" customHeight="1"/>
-    <row r="962" ht="12.75" customHeight="1"/>
-    <row r="963" ht="12.75" customHeight="1"/>
-    <row r="964" ht="12.75" customHeight="1"/>
-    <row r="965" ht="12.75" customHeight="1"/>
-    <row r="966" ht="12.75" customHeight="1"/>
-    <row r="967" ht="12.75" customHeight="1"/>
-    <row r="968" ht="12.75" customHeight="1"/>
-    <row r="969" ht="12.75" customHeight="1"/>
-    <row r="970" ht="12.75" customHeight="1"/>
-    <row r="971" ht="12.75" customHeight="1"/>
-    <row r="972" ht="12.75" customHeight="1"/>
-    <row r="973" ht="12.75" customHeight="1"/>
-    <row r="974" ht="12.75" customHeight="1"/>
-    <row r="975" ht="12.75" customHeight="1"/>
-    <row r="976" ht="12.75" customHeight="1"/>
-    <row r="977" ht="12.75" customHeight="1"/>
-    <row r="978" ht="12.75" customHeight="1"/>
-    <row r="979" ht="12.75" customHeight="1"/>
-    <row r="980" ht="12.75" customHeight="1"/>
-    <row r="981" ht="12.75" customHeight="1"/>
-    <row r="982" ht="12.75" customHeight="1"/>
-    <row r="983" ht="12.75" customHeight="1"/>
-    <row r="984" ht="12.75" customHeight="1"/>
-    <row r="985" ht="12.75" customHeight="1"/>
-    <row r="986" ht="12.75" customHeight="1"/>
-    <row r="987" ht="12.75" customHeight="1"/>
-    <row r="988" ht="12.75" customHeight="1"/>
-    <row r="989" ht="12.75" customHeight="1"/>
-    <row r="990" ht="12.75" customHeight="1"/>
-    <row r="991" ht="12.75" customHeight="1"/>
-    <row r="992" ht="12.75" customHeight="1"/>
-    <row r="993" ht="12.75" customHeight="1"/>
-    <row r="994" ht="12.75" customHeight="1"/>
-    <row r="995" ht="12.75" customHeight="1"/>
-    <row r="996" ht="12.75" customHeight="1"/>
-    <row r="997" ht="12.75" customHeight="1"/>
-    <row r="998" ht="12.75" customHeight="1"/>
-    <row r="999" ht="12.75" customHeight="1"/>
-    <row r="1000" ht="12.75" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="B45:K45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="M27:N28"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E14:F16"/>
-    <mergeCell ref="G14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="E17:K17"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="B19:K34"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B13:D16"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="F9:G10"/>
-    <mergeCell ref="H9:I10"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:G8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:C6"/>
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="F3:G4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="B41:D41"/>
-  </mergeCells>
-  <phoneticPr fontId="7"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:J8"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8624,216 +6882,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="93"/>
+      <c r="F1" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="93"/>
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="95" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="95" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="96"/>
-      <c r="H1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1">
+      <c r="A2" s="117"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="94" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="95"/>
+      <c r="F2" s="94" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="95"/>
+      <c r="H2" s="100">
+        <v>45632</v>
+      </c>
+      <c r="I2" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="104"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1">
+      <c r="A3" s="117"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="105"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1">
+      <c r="A4" s="118"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="106"/>
+    </row>
+    <row r="5" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A5" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="B5" s="121"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="128"/>
+    </row>
+    <row r="6" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A6" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="B6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="129" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="110"/>
+    </row>
+    <row r="7" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A7" s="108" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="120"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="97" t="s">
-        <v>33</v>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="129" t="s">
+        <v>32</v>
       </c>
-      <c r="E2" s="98"/>
-      <c r="F2" s="97" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="98"/>
-      <c r="H2" s="103">
-        <v>45632</v>
-      </c>
-      <c r="I2" s="106" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="107"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="120"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="108"/>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="121"/>
-      <c r="B4" s="122"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="109"/>
-    </row>
-    <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="123" t="s">
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="110"/>
+    </row>
+    <row r="8" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A8" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="124"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="130" t="s">
-        <v>37</v>
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="129" t="s">
+        <v>69</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="131"/>
-    </row>
-    <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="111" t="s">
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="110"/>
+    </row>
+    <row r="9" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A9" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="112" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="113"/>
-    </row>
-    <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="111" t="s">
+      <c r="B9" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="112" t="s">
-        <v>36</v>
+      <c r="C9" s="50"/>
+      <c r="D9" s="109" t="s">
+        <v>70</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="113"/>
-    </row>
-    <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="111" t="s">
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="110"/>
+    </row>
+    <row r="10" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A10" s="123"/>
+      <c r="B10" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="112" t="s">
-        <v>39</v>
+      <c r="C10" s="50"/>
+      <c r="D10" s="129" t="s">
+        <v>71</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="113"/>
-    </row>
-    <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="125" t="s">
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="110"/>
+    </row>
+    <row r="11" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A11" s="124"/>
+      <c r="B11" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="C11" s="50"/>
+      <c r="D11" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="110"/>
+    </row>
+    <row r="12" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A12" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="132" t="s">
-        <v>70</v>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="109" t="s">
+        <v>72</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="113"/>
-    </row>
-    <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="126"/>
-      <c r="B10" s="110" t="s">
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="110"/>
+    </row>
+    <row r="13" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A13" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="112" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="113"/>
-    </row>
-    <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="127"/>
-      <c r="B11" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="132" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="113"/>
-    </row>
-    <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="111" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="132" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="113"/>
-    </row>
-    <row r="13" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A13" s="114" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="129"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="126"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -9858,12 +8116,1774 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J1000"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D63" sqref="D63:N104"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="3" width="5.140625" customWidth="1"/>
+    <col min="4" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="9" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="17" width="8.7109375" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" customWidth="1"/>
+    <col min="19" max="19" width="30.5703125" customWidth="1"/>
+    <col min="20" max="20" width="32.28515625" customWidth="1"/>
+    <col min="21" max="21" width="12" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" customWidth="1"/>
+    <col min="23" max="23" width="13" customWidth="1"/>
+    <col min="24" max="24" width="12" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" customWidth="1"/>
+    <col min="26" max="26" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1">
+      <c r="A1" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="64"/>
+      <c r="E1" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="64"/>
+      <c r="G1" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="64"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1">
+      <c r="A2" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="65"/>
+      <c r="E2" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="151"/>
+      <c r="G2" s="164" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="148"/>
+    </row>
+    <row r="3" spans="1:10" ht="36" customHeight="1">
+      <c r="A3" s="66"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="150"/>
+    </row>
+    <row r="4" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A4" s="66"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="65"/>
+      <c r="E4" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="147"/>
+      <c r="G4" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="146"/>
+    </row>
+    <row r="5" spans="1:10" ht="50.25" customHeight="1">
+      <c r="A5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="64"/>
+      <c r="G5" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="146"/>
+    </row>
+    <row r="6" spans="1:10" ht="33.75" customHeight="1">
+      <c r="A6" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="65"/>
+      <c r="C6" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="65"/>
+      <c r="E6" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="65"/>
+      <c r="G6" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="148"/>
+    </row>
+    <row r="7" spans="1:10" ht="21" customHeight="1">
+      <c r="A7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="150"/>
+    </row>
+    <row r="8" spans="1:10" ht="21" customHeight="1">
+      <c r="A8" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="65"/>
+      <c r="C8" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="148"/>
+      <c r="E8" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="151"/>
+      <c r="G8" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="148"/>
+    </row>
+    <row r="9" spans="1:10" ht="21" customHeight="1" thickBot="1">
+      <c r="A9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="149"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="150"/>
+    </row>
+    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="A10" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="75"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="81"/>
+      <c r="F10" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="81"/>
+      <c r="H10" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="21" customHeight="1">
+      <c r="A11" s="77"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="89"/>
+      <c r="F11" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="89"/>
+      <c r="H11" s="91">
+        <v>45632</v>
+      </c>
+      <c r="I11" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="85"/>
+    </row>
+    <row r="12" spans="1:10" ht="21" customHeight="1">
+      <c r="A12" s="77"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="166"/>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A13" s="77"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="167"/>
+    </row>
+    <row r="14" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A14" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="87"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="155" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="156"/>
+    </row>
+    <row r="15" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A15" s="168" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="157"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="157"/>
+      <c r="J15" s="158"/>
+    </row>
+    <row r="16" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="42"/>
+    </row>
+    <row r="17" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A17" s="43"/>
+      <c r="B17" s="159"/>
+      <c r="C17" s="159"/>
+      <c r="D17" s="159"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="44"/>
+    </row>
+    <row r="18" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A18" s="43"/>
+      <c r="B18" s="159"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="44"/>
+    </row>
+    <row r="19" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A19" s="43"/>
+      <c r="B19" s="159"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="44"/>
+    </row>
+    <row r="20" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A20" s="43"/>
+      <c r="B20" s="159"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="159"/>
+      <c r="J20" s="44"/>
+    </row>
+    <row r="21" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A21" s="43"/>
+      <c r="B21" s="159"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="159"/>
+      <c r="J21" s="44"/>
+    </row>
+    <row r="22" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A22" s="43"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="159"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="159"/>
+      <c r="J22" s="44"/>
+    </row>
+    <row r="23" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A23" s="43"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="44"/>
+    </row>
+    <row r="24" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A24" s="43"/>
+      <c r="B24" s="159"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="159"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="159"/>
+      <c r="I24" s="159"/>
+      <c r="J24" s="44"/>
+    </row>
+    <row r="25" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A25" s="43"/>
+      <c r="B25" s="159"/>
+      <c r="C25" s="159"/>
+      <c r="D25" s="159"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="44"/>
+    </row>
+    <row r="26" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A26" s="43"/>
+      <c r="B26" s="159"/>
+      <c r="C26" s="159"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="44"/>
+    </row>
+    <row r="27" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A27" s="43"/>
+      <c r="B27" s="159"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="44"/>
+    </row>
+    <row r="28" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A28" s="43"/>
+      <c r="B28" s="159"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="44"/>
+    </row>
+    <row r="29" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A29" s="43"/>
+      <c r="B29" s="159"/>
+      <c r="C29" s="159"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="44"/>
+    </row>
+    <row r="30" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A30" s="43"/>
+      <c r="B30" s="159"/>
+      <c r="C30" s="159"/>
+      <c r="D30" s="159"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="44"/>
+    </row>
+    <row r="31" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A31" s="45"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="47"/>
+    </row>
+    <row r="32" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A32" s="168" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="157"/>
+      <c r="C32" s="157"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="157"/>
+      <c r="H32" s="157"/>
+      <c r="I32" s="157"/>
+      <c r="J32" s="158"/>
+    </row>
+    <row r="33" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A33" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="57"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A34" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="57"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="157"/>
+      <c r="J34" s="158"/>
+    </row>
+    <row r="35" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A35" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="57"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" s="37"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="161"/>
+    </row>
+    <row r="36" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A36" s="56"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="25"/>
+    </row>
+    <row r="37" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A37" s="56"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="160"/>
+      <c r="J37" s="161"/>
+    </row>
+    <row r="38" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A38" s="56"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="25"/>
+    </row>
+    <row r="39" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A39" s="56"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="25"/>
+    </row>
+    <row r="40" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A40" s="56"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="160"/>
+      <c r="J40" s="161"/>
+    </row>
+    <row r="41" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A41" s="60"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="35"/>
+    </row>
+    <row r="42" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A42" s="170" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="162"/>
+      <c r="C42" s="162"/>
+      <c r="D42" s="162"/>
+      <c r="E42" s="162"/>
+      <c r="F42" s="162"/>
+      <c r="G42" s="162"/>
+      <c r="H42" s="162"/>
+      <c r="I42" s="162"/>
+      <c r="J42" s="163"/>
+    </row>
+    <row r="43" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A43" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="57"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A44" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="57"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="157"/>
+      <c r="J44" s="158"/>
+    </row>
+    <row r="45" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A45" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="57"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" s="37"/>
+      <c r="I45" s="160"/>
+      <c r="J45" s="161"/>
+    </row>
+    <row r="46" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A46" s="56"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="25"/>
+    </row>
+    <row r="47" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A47" s="56"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="160"/>
+      <c r="J47" s="161"/>
+    </row>
+    <row r="48" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A48" s="56"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="25"/>
+    </row>
+    <row r="49" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A49" s="56"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="25"/>
+    </row>
+    <row r="50" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A50" s="56"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="160"/>
+      <c r="J50" s="161"/>
+    </row>
+    <row r="51" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A51" s="60"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="35"/>
+    </row>
+    <row r="52" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="53" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="54" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="55" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="56" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="57" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="58" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="59" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="60" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="61" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="62" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="63" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="64" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="65" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="66" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="67" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="68" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="69" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="70" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="71" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="72" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A72" s="169"/>
+    </row>
+    <row r="73" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="74" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="75" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="76" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="77" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="78" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="79" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="80" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="81" ht="12.75" customHeight="1"/>
+    <row r="82" ht="12.75" customHeight="1"/>
+    <row r="83" ht="12.75" customHeight="1"/>
+    <row r="84" ht="12.75" customHeight="1"/>
+    <row r="85" ht="12.75" customHeight="1"/>
+    <row r="86" ht="12.75" customHeight="1"/>
+    <row r="87" ht="12.75" customHeight="1"/>
+    <row r="88" ht="12.75" customHeight="1"/>
+    <row r="89" ht="12.75" customHeight="1"/>
+    <row r="90" ht="12.75" customHeight="1"/>
+    <row r="91" ht="12.75" customHeight="1"/>
+    <row r="92" ht="12.75" customHeight="1"/>
+    <row r="93" ht="12.75" customHeight="1"/>
+    <row r="94" ht="12.75" customHeight="1"/>
+    <row r="95" ht="12.75" customHeight="1"/>
+    <row r="96" ht="12.75" customHeight="1"/>
+    <row r="97" ht="12.75" customHeight="1"/>
+    <row r="98" ht="12.75" customHeight="1"/>
+    <row r="99" ht="12.75" customHeight="1"/>
+    <row r="100" ht="12.75" customHeight="1"/>
+    <row r="101" ht="12.75" customHeight="1"/>
+    <row r="102" ht="12.75" customHeight="1"/>
+    <row r="103" ht="12.75" customHeight="1"/>
+    <row r="104" ht="12.75" customHeight="1"/>
+    <row r="105" ht="12.75" customHeight="1"/>
+    <row r="106" ht="12.75" customHeight="1"/>
+    <row r="107" ht="12.75" customHeight="1"/>
+    <row r="108" ht="12.75" customHeight="1"/>
+    <row r="109" ht="12.75" customHeight="1"/>
+    <row r="110" ht="12.75" customHeight="1"/>
+    <row r="111" ht="12.75" customHeight="1"/>
+    <row r="112" ht="12.75" customHeight="1"/>
+    <row r="113" ht="12.75" customHeight="1"/>
+    <row r="114" ht="12.75" customHeight="1"/>
+    <row r="115" ht="12.75" customHeight="1"/>
+    <row r="116" ht="12.75" customHeight="1"/>
+    <row r="117" ht="12.75" customHeight="1"/>
+    <row r="118" ht="12.75" customHeight="1"/>
+    <row r="119" ht="12.75" customHeight="1"/>
+    <row r="120" ht="12.75" customHeight="1"/>
+    <row r="121" ht="12.75" customHeight="1"/>
+    <row r="122" ht="12.75" customHeight="1"/>
+    <row r="123" ht="12.75" customHeight="1"/>
+    <row r="124" ht="12.75" customHeight="1"/>
+    <row r="125" ht="12.75" customHeight="1"/>
+    <row r="126" ht="12.75" customHeight="1"/>
+    <row r="127" ht="12.75" customHeight="1"/>
+    <row r="128" ht="12.75" customHeight="1"/>
+    <row r="129" ht="12.75" customHeight="1"/>
+    <row r="130" ht="12.75" customHeight="1"/>
+    <row r="131" ht="12.75" customHeight="1"/>
+    <row r="132" ht="12.75" customHeight="1"/>
+    <row r="133" ht="12.75" customHeight="1"/>
+    <row r="134" ht="12.75" customHeight="1"/>
+    <row r="135" ht="12.75" customHeight="1"/>
+    <row r="136" ht="12.75" customHeight="1"/>
+    <row r="137" ht="12.75" customHeight="1"/>
+    <row r="138" ht="12.75" customHeight="1"/>
+    <row r="139" ht="12.75" customHeight="1"/>
+    <row r="140" ht="12.75" customHeight="1"/>
+    <row r="141" ht="12.75" customHeight="1"/>
+    <row r="142" ht="12.75" customHeight="1"/>
+    <row r="143" ht="12.75" customHeight="1"/>
+    <row r="144" ht="12.75" customHeight="1"/>
+    <row r="145" ht="12.75" customHeight="1"/>
+    <row r="146" ht="12.75" customHeight="1"/>
+    <row r="147" ht="12.75" customHeight="1"/>
+    <row r="148" ht="12.75" customHeight="1"/>
+    <row r="149" ht="12.75" customHeight="1"/>
+    <row r="150" ht="12.75" customHeight="1"/>
+    <row r="151" ht="12.75" customHeight="1"/>
+    <row r="152" ht="12.75" customHeight="1"/>
+    <row r="153" ht="12.75" customHeight="1"/>
+    <row r="154" ht="12.75" customHeight="1"/>
+    <row r="155" ht="12.75" customHeight="1"/>
+    <row r="156" ht="12.75" customHeight="1"/>
+    <row r="157" ht="12.75" customHeight="1"/>
+    <row r="158" ht="12.75" customHeight="1"/>
+    <row r="159" ht="12.75" customHeight="1"/>
+    <row r="160" ht="12.75" customHeight="1"/>
+    <row r="161" ht="12.75" customHeight="1"/>
+    <row r="162" ht="12.75" customHeight="1"/>
+    <row r="163" ht="12.75" customHeight="1"/>
+    <row r="164" ht="12.75" customHeight="1"/>
+    <row r="165" ht="12.75" customHeight="1"/>
+    <row r="166" ht="12.75" customHeight="1"/>
+    <row r="167" ht="12.75" customHeight="1"/>
+    <row r="168" ht="12.75" customHeight="1"/>
+    <row r="169" ht="12.75" customHeight="1"/>
+    <row r="170" ht="12.75" customHeight="1"/>
+    <row r="171" ht="12.75" customHeight="1"/>
+    <row r="172" ht="12.75" customHeight="1"/>
+    <row r="173" ht="12.75" customHeight="1"/>
+    <row r="174" ht="12.75" customHeight="1"/>
+    <row r="175" ht="12.75" customHeight="1"/>
+    <row r="176" ht="12.75" customHeight="1"/>
+    <row r="177" ht="12.75" customHeight="1"/>
+    <row r="178" ht="12.75" customHeight="1"/>
+    <row r="179" ht="12.75" customHeight="1"/>
+    <row r="180" ht="12.75" customHeight="1"/>
+    <row r="181" ht="12.75" customHeight="1"/>
+    <row r="182" ht="12.75" customHeight="1"/>
+    <row r="183" ht="12.75" customHeight="1"/>
+    <row r="184" ht="12.75" customHeight="1"/>
+    <row r="185" ht="12.75" customHeight="1"/>
+    <row r="186" ht="12.75" customHeight="1"/>
+    <row r="187" ht="12.75" customHeight="1"/>
+    <row r="188" ht="12.75" customHeight="1"/>
+    <row r="189" ht="12.75" customHeight="1"/>
+    <row r="190" ht="12.75" customHeight="1"/>
+    <row r="191" ht="12.75" customHeight="1"/>
+    <row r="192" ht="12.75" customHeight="1"/>
+    <row r="193" ht="12.75" customHeight="1"/>
+    <row r="194" ht="12.75" customHeight="1"/>
+    <row r="195" ht="12.75" customHeight="1"/>
+    <row r="196" ht="12.75" customHeight="1"/>
+    <row r="197" ht="12.75" customHeight="1"/>
+    <row r="198" ht="12.75" customHeight="1"/>
+    <row r="199" ht="12.75" customHeight="1"/>
+    <row r="200" ht="12.75" customHeight="1"/>
+    <row r="201" ht="12.75" customHeight="1"/>
+    <row r="202" ht="12.75" customHeight="1"/>
+    <row r="203" ht="12.75" customHeight="1"/>
+    <row r="204" ht="12.75" customHeight="1"/>
+    <row r="205" ht="12.75" customHeight="1"/>
+    <row r="206" ht="12.75" customHeight="1"/>
+    <row r="207" ht="12.75" customHeight="1"/>
+    <row r="208" ht="12.75" customHeight="1"/>
+    <row r="209" ht="12.75" customHeight="1"/>
+    <row r="210" ht="12.75" customHeight="1"/>
+    <row r="211" ht="12.75" customHeight="1"/>
+    <row r="212" ht="12.75" customHeight="1"/>
+    <row r="213" ht="12.75" customHeight="1"/>
+    <row r="214" ht="12.75" customHeight="1"/>
+    <row r="215" ht="12.75" customHeight="1"/>
+    <row r="216" ht="12.75" customHeight="1"/>
+    <row r="217" ht="12.75" customHeight="1"/>
+    <row r="218" ht="12.75" customHeight="1"/>
+    <row r="219" ht="12.75" customHeight="1"/>
+    <row r="220" ht="12.75" customHeight="1"/>
+    <row r="221" ht="12.75" customHeight="1"/>
+    <row r="222" ht="12.75" customHeight="1"/>
+    <row r="223" ht="12.75" customHeight="1"/>
+    <row r="224" ht="12.75" customHeight="1"/>
+    <row r="225" ht="12.75" customHeight="1"/>
+    <row r="226" ht="12.75" customHeight="1"/>
+    <row r="227" ht="12.75" customHeight="1"/>
+    <row r="228" ht="12.75" customHeight="1"/>
+    <row r="229" ht="12.75" customHeight="1"/>
+    <row r="230" ht="12.75" customHeight="1"/>
+    <row r="231" ht="12.75" customHeight="1"/>
+    <row r="232" ht="12.75" customHeight="1"/>
+    <row r="233" ht="12.75" customHeight="1"/>
+    <row r="234" ht="12.75" customHeight="1"/>
+    <row r="235" ht="12.75" customHeight="1"/>
+    <row r="236" ht="12.75" customHeight="1"/>
+    <row r="237" ht="12.75" customHeight="1"/>
+    <row r="238" ht="12.75" customHeight="1"/>
+    <row r="239" ht="12.75" customHeight="1"/>
+    <row r="240" ht="12.75" customHeight="1"/>
+    <row r="241" ht="12.75" customHeight="1"/>
+    <row r="242" ht="12.75" customHeight="1"/>
+    <row r="243" ht="12.75" customHeight="1"/>
+    <row r="244" ht="12.75" customHeight="1"/>
+    <row r="245" ht="12.75" customHeight="1"/>
+    <row r="246" ht="12.75" customHeight="1"/>
+    <row r="247" ht="12.75" customHeight="1"/>
+    <row r="248" ht="12.75" customHeight="1"/>
+    <row r="249" ht="12.75" customHeight="1"/>
+    <row r="250" ht="12.75" customHeight="1"/>
+    <row r="251" ht="12.75" customHeight="1"/>
+    <row r="252" ht="12.75" customHeight="1"/>
+    <row r="253" ht="12.75" customHeight="1"/>
+    <row r="254" ht="12.75" customHeight="1"/>
+    <row r="255" ht="12.75" customHeight="1"/>
+    <row r="256" ht="12.75" customHeight="1"/>
+    <row r="257" ht="12.75" customHeight="1"/>
+    <row r="258" ht="12.75" customHeight="1"/>
+    <row r="259" ht="12.75" customHeight="1"/>
+    <row r="260" ht="12.75" customHeight="1"/>
+    <row r="261" ht="12.75" customHeight="1"/>
+    <row r="262" ht="12.75" customHeight="1"/>
+    <row r="263" ht="12.75" customHeight="1"/>
+    <row r="264" ht="12.75" customHeight="1"/>
+    <row r="265" ht="12.75" customHeight="1"/>
+    <row r="266" ht="12.75" customHeight="1"/>
+    <row r="267" ht="12.75" customHeight="1"/>
+    <row r="268" ht="12.75" customHeight="1"/>
+    <row r="269" ht="12.75" customHeight="1"/>
+    <row r="270" ht="12.75" customHeight="1"/>
+    <row r="271" ht="12.75" customHeight="1"/>
+    <row r="272" ht="12.75" customHeight="1"/>
+    <row r="273" ht="12.75" customHeight="1"/>
+    <row r="274" ht="12.75" customHeight="1"/>
+    <row r="275" ht="12.75" customHeight="1"/>
+    <row r="276" ht="12.75" customHeight="1"/>
+    <row r="277" ht="12.75" customHeight="1"/>
+    <row r="278" ht="12.75" customHeight="1"/>
+    <row r="279" ht="12.75" customHeight="1"/>
+    <row r="280" ht="12.75" customHeight="1"/>
+    <row r="281" ht="12.75" customHeight="1"/>
+    <row r="282" ht="12.75" customHeight="1"/>
+    <row r="283" ht="12.75" customHeight="1"/>
+    <row r="284" ht="12.75" customHeight="1"/>
+    <row r="285" ht="12.75" customHeight="1"/>
+    <row r="286" ht="12.75" customHeight="1"/>
+    <row r="287" ht="12.75" customHeight="1"/>
+    <row r="288" ht="12.75" customHeight="1"/>
+    <row r="289" ht="12.75" customHeight="1"/>
+    <row r="290" ht="12.75" customHeight="1"/>
+    <row r="291" ht="12.75" customHeight="1"/>
+    <row r="292" ht="12.75" customHeight="1"/>
+    <row r="293" ht="12.75" customHeight="1"/>
+    <row r="294" ht="12.75" customHeight="1"/>
+    <row r="295" ht="12.75" customHeight="1"/>
+    <row r="296" ht="12.75" customHeight="1"/>
+    <row r="297" ht="12.75" customHeight="1"/>
+    <row r="298" ht="12.75" customHeight="1"/>
+    <row r="299" ht="12.75" customHeight="1"/>
+    <row r="300" ht="12.75" customHeight="1"/>
+    <row r="301" ht="12.75" customHeight="1"/>
+    <row r="302" ht="12.75" customHeight="1"/>
+    <row r="303" ht="12.75" customHeight="1"/>
+    <row r="304" ht="12.75" customHeight="1"/>
+    <row r="305" ht="12.75" customHeight="1"/>
+    <row r="306" ht="12.75" customHeight="1"/>
+    <row r="307" ht="12.75" customHeight="1"/>
+    <row r="308" ht="12.75" customHeight="1"/>
+    <row r="309" ht="12.75" customHeight="1"/>
+    <row r="310" ht="12.75" customHeight="1"/>
+    <row r="311" ht="12.75" customHeight="1"/>
+    <row r="312" ht="12.75" customHeight="1"/>
+    <row r="313" ht="12.75" customHeight="1"/>
+    <row r="314" ht="12.75" customHeight="1"/>
+    <row r="315" ht="12.75" customHeight="1"/>
+    <row r="316" ht="12.75" customHeight="1"/>
+    <row r="317" ht="12.75" customHeight="1"/>
+    <row r="318" ht="12.75" customHeight="1"/>
+    <row r="319" ht="12.75" customHeight="1"/>
+    <row r="320" ht="12.75" customHeight="1"/>
+    <row r="321" ht="12.75" customHeight="1"/>
+    <row r="322" ht="12.75" customHeight="1"/>
+    <row r="323" ht="12.75" customHeight="1"/>
+    <row r="324" ht="12.75" customHeight="1"/>
+    <row r="325" ht="12.75" customHeight="1"/>
+    <row r="326" ht="12.75" customHeight="1"/>
+    <row r="327" ht="12.75" customHeight="1"/>
+    <row r="328" ht="12.75" customHeight="1"/>
+    <row r="329" ht="12.75" customHeight="1"/>
+    <row r="330" ht="12.75" customHeight="1"/>
+    <row r="331" ht="12.75" customHeight="1"/>
+    <row r="332" ht="12.75" customHeight="1"/>
+    <row r="333" ht="12.75" customHeight="1"/>
+    <row r="334" ht="12.75" customHeight="1"/>
+    <row r="335" ht="12.75" customHeight="1"/>
+    <row r="336" ht="12.75" customHeight="1"/>
+    <row r="337" ht="12.75" customHeight="1"/>
+    <row r="338" ht="12.75" customHeight="1"/>
+    <row r="339" ht="12.75" customHeight="1"/>
+    <row r="340" ht="12.75" customHeight="1"/>
+    <row r="341" ht="12.75" customHeight="1"/>
+    <row r="342" ht="12.75" customHeight="1"/>
+    <row r="343" ht="12.75" customHeight="1"/>
+    <row r="344" ht="12.75" customHeight="1"/>
+    <row r="345" ht="12.75" customHeight="1"/>
+    <row r="346" ht="12.75" customHeight="1"/>
+    <row r="347" ht="12.75" customHeight="1"/>
+    <row r="348" ht="12.75" customHeight="1"/>
+    <row r="349" ht="12.75" customHeight="1"/>
+    <row r="350" ht="12.75" customHeight="1"/>
+    <row r="351" ht="12.75" customHeight="1"/>
+    <row r="352" ht="12.75" customHeight="1"/>
+    <row r="353" ht="12.75" customHeight="1"/>
+    <row r="354" ht="12.75" customHeight="1"/>
+    <row r="355" ht="12.75" customHeight="1"/>
+    <row r="356" ht="12.75" customHeight="1"/>
+    <row r="357" ht="12.75" customHeight="1"/>
+    <row r="358" ht="12.75" customHeight="1"/>
+    <row r="359" ht="12.75" customHeight="1"/>
+    <row r="360" ht="12.75" customHeight="1"/>
+    <row r="361" ht="12.75" customHeight="1"/>
+    <row r="362" ht="12.75" customHeight="1"/>
+    <row r="363" ht="12.75" customHeight="1"/>
+    <row r="364" ht="12.75" customHeight="1"/>
+    <row r="365" ht="12.75" customHeight="1"/>
+    <row r="366" ht="12.75" customHeight="1"/>
+    <row r="367" ht="12.75" customHeight="1"/>
+    <row r="368" ht="12.75" customHeight="1"/>
+    <row r="369" ht="12.75" customHeight="1"/>
+    <row r="370" ht="12.75" customHeight="1"/>
+    <row r="371" ht="12.75" customHeight="1"/>
+    <row r="372" ht="12.75" customHeight="1"/>
+    <row r="373" ht="12.75" customHeight="1"/>
+    <row r="374" ht="12.75" customHeight="1"/>
+    <row r="375" ht="12.75" customHeight="1"/>
+    <row r="376" ht="12.75" customHeight="1"/>
+    <row r="377" ht="12.75" customHeight="1"/>
+    <row r="378" ht="12.75" customHeight="1"/>
+    <row r="379" ht="12.75" customHeight="1"/>
+    <row r="380" ht="12.75" customHeight="1"/>
+    <row r="381" ht="12.75" customHeight="1"/>
+    <row r="382" ht="12.75" customHeight="1"/>
+    <row r="383" ht="12.75" customHeight="1"/>
+    <row r="384" ht="12.75" customHeight="1"/>
+    <row r="385" ht="12.75" customHeight="1"/>
+    <row r="386" ht="12.75" customHeight="1"/>
+    <row r="387" ht="12.75" customHeight="1"/>
+    <row r="388" ht="12.75" customHeight="1"/>
+    <row r="389" ht="12.75" customHeight="1"/>
+    <row r="390" ht="12.75" customHeight="1"/>
+    <row r="391" ht="12.75" customHeight="1"/>
+    <row r="392" ht="12.75" customHeight="1"/>
+    <row r="393" ht="12.75" customHeight="1"/>
+    <row r="394" ht="12.75" customHeight="1"/>
+    <row r="395" ht="12.75" customHeight="1"/>
+    <row r="396" ht="12.75" customHeight="1"/>
+    <row r="397" ht="12.75" customHeight="1"/>
+    <row r="398" ht="12.75" customHeight="1"/>
+    <row r="399" ht="12.75" customHeight="1"/>
+    <row r="400" ht="12.75" customHeight="1"/>
+    <row r="401" ht="12.75" customHeight="1"/>
+    <row r="402" ht="12.75" customHeight="1"/>
+    <row r="403" ht="12.75" customHeight="1"/>
+    <row r="404" ht="12.75" customHeight="1"/>
+    <row r="405" ht="12.75" customHeight="1"/>
+    <row r="406" ht="12.75" customHeight="1"/>
+    <row r="407" ht="12.75" customHeight="1"/>
+    <row r="408" ht="12.75" customHeight="1"/>
+    <row r="409" ht="12.75" customHeight="1"/>
+    <row r="410" ht="12.75" customHeight="1"/>
+    <row r="411" ht="12.75" customHeight="1"/>
+    <row r="412" ht="12.75" customHeight="1"/>
+    <row r="413" ht="12.75" customHeight="1"/>
+    <row r="414" ht="12.75" customHeight="1"/>
+    <row r="415" ht="12.75" customHeight="1"/>
+    <row r="416" ht="12.75" customHeight="1"/>
+    <row r="417" ht="12.75" customHeight="1"/>
+    <row r="418" ht="12.75" customHeight="1"/>
+    <row r="419" ht="12.75" customHeight="1"/>
+    <row r="420" ht="12.75" customHeight="1"/>
+    <row r="421" ht="12.75" customHeight="1"/>
+    <row r="422" ht="12.75" customHeight="1"/>
+    <row r="423" ht="12.75" customHeight="1"/>
+    <row r="424" ht="12.75" customHeight="1"/>
+    <row r="425" ht="12.75" customHeight="1"/>
+    <row r="426" ht="12.75" customHeight="1"/>
+    <row r="427" ht="12.75" customHeight="1"/>
+    <row r="428" ht="12.75" customHeight="1"/>
+    <row r="429" ht="12.75" customHeight="1"/>
+    <row r="430" ht="12.75" customHeight="1"/>
+    <row r="431" ht="12.75" customHeight="1"/>
+    <row r="432" ht="12.75" customHeight="1"/>
+    <row r="433" ht="12.75" customHeight="1"/>
+    <row r="434" ht="12.75" customHeight="1"/>
+    <row r="435" ht="12.75" customHeight="1"/>
+    <row r="436" ht="12.75" customHeight="1"/>
+    <row r="437" ht="12.75" customHeight="1"/>
+    <row r="438" ht="12.75" customHeight="1"/>
+    <row r="439" ht="12.75" customHeight="1"/>
+    <row r="440" ht="12.75" customHeight="1"/>
+    <row r="441" ht="12.75" customHeight="1"/>
+    <row r="442" ht="12.75" customHeight="1"/>
+    <row r="443" ht="12.75" customHeight="1"/>
+    <row r="444" ht="12.75" customHeight="1"/>
+    <row r="445" ht="12.75" customHeight="1"/>
+    <row r="446" ht="12.75" customHeight="1"/>
+    <row r="447" ht="12.75" customHeight="1"/>
+    <row r="448" ht="12.75" customHeight="1"/>
+    <row r="449" ht="12.75" customHeight="1"/>
+    <row r="450" ht="12.75" customHeight="1"/>
+    <row r="451" ht="12.75" customHeight="1"/>
+    <row r="452" ht="12.75" customHeight="1"/>
+    <row r="453" ht="12.75" customHeight="1"/>
+    <row r="454" ht="12.75" customHeight="1"/>
+    <row r="455" ht="12.75" customHeight="1"/>
+    <row r="456" ht="12.75" customHeight="1"/>
+    <row r="457" ht="12.75" customHeight="1"/>
+    <row r="458" ht="12.75" customHeight="1"/>
+    <row r="459" ht="12.75" customHeight="1"/>
+    <row r="460" ht="12.75" customHeight="1"/>
+    <row r="461" ht="12.75" customHeight="1"/>
+    <row r="462" ht="12.75" customHeight="1"/>
+    <row r="463" ht="12.75" customHeight="1"/>
+    <row r="464" ht="12.75" customHeight="1"/>
+    <row r="465" ht="12.75" customHeight="1"/>
+    <row r="466" ht="12.75" customHeight="1"/>
+    <row r="467" ht="12.75" customHeight="1"/>
+    <row r="468" ht="12.75" customHeight="1"/>
+    <row r="469" ht="12.75" customHeight="1"/>
+    <row r="470" ht="12.75" customHeight="1"/>
+    <row r="471" ht="12.75" customHeight="1"/>
+    <row r="472" ht="12.75" customHeight="1"/>
+    <row r="473" ht="12.75" customHeight="1"/>
+    <row r="474" ht="12.75" customHeight="1"/>
+    <row r="475" ht="12.75" customHeight="1"/>
+    <row r="476" ht="12.75" customHeight="1"/>
+    <row r="477" ht="12.75" customHeight="1"/>
+    <row r="478" ht="12.75" customHeight="1"/>
+    <row r="479" ht="12.75" customHeight="1"/>
+    <row r="480" ht="12.75" customHeight="1"/>
+    <row r="481" ht="12.75" customHeight="1"/>
+    <row r="482" ht="12.75" customHeight="1"/>
+    <row r="483" ht="12.75" customHeight="1"/>
+    <row r="484" ht="12.75" customHeight="1"/>
+    <row r="485" ht="12.75" customHeight="1"/>
+    <row r="486" ht="12.75" customHeight="1"/>
+    <row r="487" ht="12.75" customHeight="1"/>
+    <row r="488" ht="12.75" customHeight="1"/>
+    <row r="489" ht="12.75" customHeight="1"/>
+    <row r="490" ht="12.75" customHeight="1"/>
+    <row r="491" ht="12.75" customHeight="1"/>
+    <row r="492" ht="12.75" customHeight="1"/>
+    <row r="493" ht="12.75" customHeight="1"/>
+    <row r="494" ht="12.75" customHeight="1"/>
+    <row r="495" ht="12.75" customHeight="1"/>
+    <row r="496" ht="12.75" customHeight="1"/>
+    <row r="497" ht="12.75" customHeight="1"/>
+    <row r="498" ht="12.75" customHeight="1"/>
+    <row r="499" ht="12.75" customHeight="1"/>
+    <row r="500" ht="12.75" customHeight="1"/>
+    <row r="501" ht="12.75" customHeight="1"/>
+    <row r="502" ht="12.75" customHeight="1"/>
+    <row r="503" ht="12.75" customHeight="1"/>
+    <row r="504" ht="12.75" customHeight="1"/>
+    <row r="505" ht="12.75" customHeight="1"/>
+    <row r="506" ht="12.75" customHeight="1"/>
+    <row r="507" ht="12.75" customHeight="1"/>
+    <row r="508" ht="12.75" customHeight="1"/>
+    <row r="509" ht="12.75" customHeight="1"/>
+    <row r="510" ht="12.75" customHeight="1"/>
+    <row r="511" ht="12.75" customHeight="1"/>
+    <row r="512" ht="12.75" customHeight="1"/>
+    <row r="513" ht="12.75" customHeight="1"/>
+    <row r="514" ht="12.75" customHeight="1"/>
+    <row r="515" ht="12.75" customHeight="1"/>
+    <row r="516" ht="12.75" customHeight="1"/>
+    <row r="517" ht="12.75" customHeight="1"/>
+    <row r="518" ht="12.75" customHeight="1"/>
+    <row r="519" ht="12.75" customHeight="1"/>
+    <row r="520" ht="12.75" customHeight="1"/>
+    <row r="521" ht="12.75" customHeight="1"/>
+    <row r="522" ht="12.75" customHeight="1"/>
+    <row r="523" ht="12.75" customHeight="1"/>
+    <row r="524" ht="12.75" customHeight="1"/>
+    <row r="525" ht="12.75" customHeight="1"/>
+    <row r="526" ht="12.75" customHeight="1"/>
+    <row r="527" ht="12.75" customHeight="1"/>
+    <row r="528" ht="12.75" customHeight="1"/>
+    <row r="529" ht="12.75" customHeight="1"/>
+    <row r="530" ht="12.75" customHeight="1"/>
+    <row r="531" ht="12.75" customHeight="1"/>
+    <row r="532" ht="12.75" customHeight="1"/>
+    <row r="533" ht="12.75" customHeight="1"/>
+    <row r="534" ht="12.75" customHeight="1"/>
+    <row r="535" ht="12.75" customHeight="1"/>
+    <row r="536" ht="12.75" customHeight="1"/>
+    <row r="537" ht="12.75" customHeight="1"/>
+    <row r="538" ht="12.75" customHeight="1"/>
+    <row r="539" ht="12.75" customHeight="1"/>
+    <row r="540" ht="12.75" customHeight="1"/>
+    <row r="541" ht="12.75" customHeight="1"/>
+    <row r="542" ht="12.75" customHeight="1"/>
+    <row r="543" ht="12.75" customHeight="1"/>
+    <row r="544" ht="12.75" customHeight="1"/>
+    <row r="545" ht="12.75" customHeight="1"/>
+    <row r="546" ht="12.75" customHeight="1"/>
+    <row r="547" ht="12.75" customHeight="1"/>
+    <row r="548" ht="12.75" customHeight="1"/>
+    <row r="549" ht="12.75" customHeight="1"/>
+    <row r="550" ht="12.75" customHeight="1"/>
+    <row r="551" ht="12.75" customHeight="1"/>
+    <row r="552" ht="12.75" customHeight="1"/>
+    <row r="553" ht="12.75" customHeight="1"/>
+    <row r="554" ht="12.75" customHeight="1"/>
+    <row r="555" ht="12.75" customHeight="1"/>
+    <row r="556" ht="12.75" customHeight="1"/>
+    <row r="557" ht="12.75" customHeight="1"/>
+    <row r="558" ht="12.75" customHeight="1"/>
+    <row r="559" ht="12.75" customHeight="1"/>
+    <row r="560" ht="12.75" customHeight="1"/>
+    <row r="561" ht="12.75" customHeight="1"/>
+    <row r="562" ht="12.75" customHeight="1"/>
+    <row r="563" ht="12.75" customHeight="1"/>
+    <row r="564" ht="12.75" customHeight="1"/>
+    <row r="565" ht="12.75" customHeight="1"/>
+    <row r="566" ht="12.75" customHeight="1"/>
+    <row r="567" ht="12.75" customHeight="1"/>
+    <row r="568" ht="12.75" customHeight="1"/>
+    <row r="569" ht="12.75" customHeight="1"/>
+    <row r="570" ht="12.75" customHeight="1"/>
+    <row r="571" ht="12.75" customHeight="1"/>
+    <row r="572" ht="12.75" customHeight="1"/>
+    <row r="573" ht="12.75" customHeight="1"/>
+    <row r="574" ht="12.75" customHeight="1"/>
+    <row r="575" ht="12.75" customHeight="1"/>
+    <row r="576" ht="12.75" customHeight="1"/>
+    <row r="577" ht="12.75" customHeight="1"/>
+    <row r="578" ht="12.75" customHeight="1"/>
+    <row r="579" ht="12.75" customHeight="1"/>
+    <row r="580" ht="12.75" customHeight="1"/>
+    <row r="581" ht="12.75" customHeight="1"/>
+    <row r="582" ht="12.75" customHeight="1"/>
+    <row r="583" ht="12.75" customHeight="1"/>
+    <row r="584" ht="12.75" customHeight="1"/>
+    <row r="585" ht="12.75" customHeight="1"/>
+    <row r="586" ht="12.75" customHeight="1"/>
+    <row r="587" ht="12.75" customHeight="1"/>
+    <row r="588" ht="12.75" customHeight="1"/>
+    <row r="589" ht="12.75" customHeight="1"/>
+    <row r="590" ht="12.75" customHeight="1"/>
+    <row r="591" ht="12.75" customHeight="1"/>
+    <row r="592" ht="12.75" customHeight="1"/>
+    <row r="593" ht="12.75" customHeight="1"/>
+    <row r="594" ht="12.75" customHeight="1"/>
+    <row r="595" ht="12.75" customHeight="1"/>
+    <row r="596" ht="12.75" customHeight="1"/>
+    <row r="597" ht="12.75" customHeight="1"/>
+    <row r="598" ht="12.75" customHeight="1"/>
+    <row r="599" ht="12.75" customHeight="1"/>
+    <row r="600" ht="12.75" customHeight="1"/>
+    <row r="601" ht="12.75" customHeight="1"/>
+    <row r="602" ht="12.75" customHeight="1"/>
+    <row r="603" ht="12.75" customHeight="1"/>
+    <row r="604" ht="12.75" customHeight="1"/>
+    <row r="605" ht="12.75" customHeight="1"/>
+    <row r="606" ht="12.75" customHeight="1"/>
+    <row r="607" ht="12.75" customHeight="1"/>
+    <row r="608" ht="12.75" customHeight="1"/>
+    <row r="609" ht="12.75" customHeight="1"/>
+    <row r="610" ht="12.75" customHeight="1"/>
+    <row r="611" ht="12.75" customHeight="1"/>
+    <row r="612" ht="12.75" customHeight="1"/>
+    <row r="613" ht="12.75" customHeight="1"/>
+    <row r="614" ht="12.75" customHeight="1"/>
+    <row r="615" ht="12.75" customHeight="1"/>
+    <row r="616" ht="12.75" customHeight="1"/>
+    <row r="617" ht="12.75" customHeight="1"/>
+    <row r="618" ht="12.75" customHeight="1"/>
+    <row r="619" ht="12.75" customHeight="1"/>
+    <row r="620" ht="12.75" customHeight="1"/>
+    <row r="621" ht="12.75" customHeight="1"/>
+    <row r="622" ht="12.75" customHeight="1"/>
+    <row r="623" ht="12.75" customHeight="1"/>
+    <row r="624" ht="12.75" customHeight="1"/>
+    <row r="625" ht="12.75" customHeight="1"/>
+    <row r="626" ht="12.75" customHeight="1"/>
+    <row r="627" ht="12.75" customHeight="1"/>
+    <row r="628" ht="12.75" customHeight="1"/>
+    <row r="629" ht="12.75" customHeight="1"/>
+    <row r="630" ht="12.75" customHeight="1"/>
+    <row r="631" ht="12.75" customHeight="1"/>
+    <row r="632" ht="12.75" customHeight="1"/>
+    <row r="633" ht="12.75" customHeight="1"/>
+    <row r="634" ht="12.75" customHeight="1"/>
+    <row r="635" ht="12.75" customHeight="1"/>
+    <row r="636" ht="12.75" customHeight="1"/>
+    <row r="637" ht="12.75" customHeight="1"/>
+    <row r="638" ht="12.75" customHeight="1"/>
+    <row r="639" ht="12.75" customHeight="1"/>
+    <row r="640" ht="12.75" customHeight="1"/>
+    <row r="641" ht="12.75" customHeight="1"/>
+    <row r="642" ht="12.75" customHeight="1"/>
+    <row r="643" ht="12.75" customHeight="1"/>
+    <row r="644" ht="12.75" customHeight="1"/>
+    <row r="645" ht="12.75" customHeight="1"/>
+    <row r="646" ht="12.75" customHeight="1"/>
+    <row r="647" ht="12.75" customHeight="1"/>
+    <row r="648" ht="12.75" customHeight="1"/>
+    <row r="649" ht="12.75" customHeight="1"/>
+    <row r="650" ht="12.75" customHeight="1"/>
+    <row r="651" ht="12.75" customHeight="1"/>
+    <row r="652" ht="12.75" customHeight="1"/>
+    <row r="653" ht="12.75" customHeight="1"/>
+    <row r="654" ht="12.75" customHeight="1"/>
+    <row r="655" ht="12.75" customHeight="1"/>
+    <row r="656" ht="12.75" customHeight="1"/>
+    <row r="657" ht="12.75" customHeight="1"/>
+    <row r="658" ht="12.75" customHeight="1"/>
+    <row r="659" ht="12.75" customHeight="1"/>
+    <row r="660" ht="12.75" customHeight="1"/>
+    <row r="661" ht="12.75" customHeight="1"/>
+    <row r="662" ht="12.75" customHeight="1"/>
+    <row r="663" ht="12.75" customHeight="1"/>
+    <row r="664" ht="12.75" customHeight="1"/>
+    <row r="665" ht="12.75" customHeight="1"/>
+    <row r="666" ht="12.75" customHeight="1"/>
+    <row r="667" ht="12.75" customHeight="1"/>
+    <row r="668" ht="12.75" customHeight="1"/>
+    <row r="669" ht="12.75" customHeight="1"/>
+    <row r="670" ht="12.75" customHeight="1"/>
+    <row r="671" ht="12.75" customHeight="1"/>
+    <row r="672" ht="12.75" customHeight="1"/>
+    <row r="673" ht="12.75" customHeight="1"/>
+    <row r="674" ht="12.75" customHeight="1"/>
+    <row r="675" ht="12.75" customHeight="1"/>
+    <row r="676" ht="12.75" customHeight="1"/>
+    <row r="677" ht="12.75" customHeight="1"/>
+    <row r="678" ht="12.75" customHeight="1"/>
+    <row r="679" ht="12.75" customHeight="1"/>
+    <row r="680" ht="12.75" customHeight="1"/>
+    <row r="681" ht="12.75" customHeight="1"/>
+    <row r="682" ht="12.75" customHeight="1"/>
+    <row r="683" ht="12.75" customHeight="1"/>
+    <row r="684" ht="12.75" customHeight="1"/>
+    <row r="685" ht="12.75" customHeight="1"/>
+    <row r="686" ht="12.75" customHeight="1"/>
+    <row r="687" ht="12.75" customHeight="1"/>
+    <row r="688" ht="12.75" customHeight="1"/>
+    <row r="689" ht="12.75" customHeight="1"/>
+    <row r="690" ht="12.75" customHeight="1"/>
+    <row r="691" ht="12.75" customHeight="1"/>
+    <row r="692" ht="12.75" customHeight="1"/>
+    <row r="693" ht="12.75" customHeight="1"/>
+    <row r="694" ht="12.75" customHeight="1"/>
+    <row r="695" ht="12.75" customHeight="1"/>
+    <row r="696" ht="12.75" customHeight="1"/>
+    <row r="697" ht="12.75" customHeight="1"/>
+    <row r="698" ht="12.75" customHeight="1"/>
+    <row r="699" ht="12.75" customHeight="1"/>
+    <row r="700" ht="12.75" customHeight="1"/>
+    <row r="701" ht="12.75" customHeight="1"/>
+    <row r="702" ht="12.75" customHeight="1"/>
+    <row r="703" ht="12.75" customHeight="1"/>
+    <row r="704" ht="12.75" customHeight="1"/>
+    <row r="705" ht="12.75" customHeight="1"/>
+    <row r="706" ht="12.75" customHeight="1"/>
+    <row r="707" ht="12.75" customHeight="1"/>
+    <row r="708" ht="12.75" customHeight="1"/>
+    <row r="709" ht="12.75" customHeight="1"/>
+    <row r="710" ht="12.75" customHeight="1"/>
+    <row r="711" ht="12.75" customHeight="1"/>
+    <row r="712" ht="12.75" customHeight="1"/>
+    <row r="713" ht="12.75" customHeight="1"/>
+    <row r="714" ht="12.75" customHeight="1"/>
+    <row r="715" ht="12.75" customHeight="1"/>
+    <row r="716" ht="12.75" customHeight="1"/>
+    <row r="717" ht="12.75" customHeight="1"/>
+    <row r="718" ht="12.75" customHeight="1"/>
+    <row r="719" ht="12.75" customHeight="1"/>
+    <row r="720" ht="12.75" customHeight="1"/>
+    <row r="721" ht="12.75" customHeight="1"/>
+    <row r="722" ht="12.75" customHeight="1"/>
+    <row r="723" ht="12.75" customHeight="1"/>
+    <row r="724" ht="12.75" customHeight="1"/>
+    <row r="725" ht="12.75" customHeight="1"/>
+    <row r="726" ht="12.75" customHeight="1"/>
+    <row r="727" ht="12.75" customHeight="1"/>
+    <row r="728" ht="12.75" customHeight="1"/>
+    <row r="729" ht="12.75" customHeight="1"/>
+    <row r="730" ht="12.75" customHeight="1"/>
+    <row r="731" ht="12.75" customHeight="1"/>
+    <row r="732" ht="12.75" customHeight="1"/>
+    <row r="733" ht="12.75" customHeight="1"/>
+    <row r="734" ht="12.75" customHeight="1"/>
+    <row r="735" ht="12.75" customHeight="1"/>
+    <row r="736" ht="12.75" customHeight="1"/>
+    <row r="737" ht="12.75" customHeight="1"/>
+    <row r="738" ht="12.75" customHeight="1"/>
+    <row r="739" ht="12.75" customHeight="1"/>
+    <row r="740" ht="12.75" customHeight="1"/>
+    <row r="741" ht="12.75" customHeight="1"/>
+    <row r="742" ht="12.75" customHeight="1"/>
+    <row r="743" ht="12.75" customHeight="1"/>
+    <row r="744" ht="12.75" customHeight="1"/>
+    <row r="745" ht="12.75" customHeight="1"/>
+    <row r="746" ht="12.75" customHeight="1"/>
+    <row r="747" ht="12.75" customHeight="1"/>
+    <row r="748" ht="12.75" customHeight="1"/>
+    <row r="749" ht="12.75" customHeight="1"/>
+    <row r="750" ht="12.75" customHeight="1"/>
+    <row r="751" ht="12.75" customHeight="1"/>
+    <row r="752" ht="12.75" customHeight="1"/>
+    <row r="753" ht="12.75" customHeight="1"/>
+    <row r="754" ht="12.75" customHeight="1"/>
+    <row r="755" ht="12.75" customHeight="1"/>
+    <row r="756" ht="12.75" customHeight="1"/>
+    <row r="757" ht="12.75" customHeight="1"/>
+    <row r="758" ht="12.75" customHeight="1"/>
+    <row r="759" ht="12.75" customHeight="1"/>
+    <row r="760" ht="12.75" customHeight="1"/>
+    <row r="761" ht="12.75" customHeight="1"/>
+    <row r="762" ht="12.75" customHeight="1"/>
+    <row r="763" ht="12.75" customHeight="1"/>
+    <row r="764" ht="12.75" customHeight="1"/>
+    <row r="765" ht="12.75" customHeight="1"/>
+    <row r="766" ht="12.75" customHeight="1"/>
+    <row r="767" ht="12.75" customHeight="1"/>
+    <row r="768" ht="12.75" customHeight="1"/>
+    <row r="769" ht="12.75" customHeight="1"/>
+    <row r="770" ht="12.75" customHeight="1"/>
+    <row r="771" ht="12.75" customHeight="1"/>
+    <row r="772" ht="12.75" customHeight="1"/>
+    <row r="773" ht="12.75" customHeight="1"/>
+    <row r="774" ht="12.75" customHeight="1"/>
+    <row r="775" ht="12.75" customHeight="1"/>
+    <row r="776" ht="12.75" customHeight="1"/>
+    <row r="777" ht="12.75" customHeight="1"/>
+    <row r="778" ht="12.75" customHeight="1"/>
+    <row r="779" ht="12.75" customHeight="1"/>
+    <row r="780" ht="12.75" customHeight="1"/>
+    <row r="781" ht="12.75" customHeight="1"/>
+    <row r="782" ht="12.75" customHeight="1"/>
+    <row r="783" ht="12.75" customHeight="1"/>
+    <row r="784" ht="12.75" customHeight="1"/>
+    <row r="785" ht="12.75" customHeight="1"/>
+    <row r="786" ht="12.75" customHeight="1"/>
+    <row r="787" ht="12.75" customHeight="1"/>
+    <row r="788" ht="12.75" customHeight="1"/>
+    <row r="789" ht="12.75" customHeight="1"/>
+    <row r="790" ht="12.75" customHeight="1"/>
+    <row r="791" ht="12.75" customHeight="1"/>
+    <row r="792" ht="12.75" customHeight="1"/>
+    <row r="793" ht="12.75" customHeight="1"/>
+    <row r="794" ht="12.75" customHeight="1"/>
+    <row r="795" ht="12.75" customHeight="1"/>
+    <row r="796" ht="12.75" customHeight="1"/>
+    <row r="797" ht="12.75" customHeight="1"/>
+    <row r="798" ht="12.75" customHeight="1"/>
+    <row r="799" ht="12.75" customHeight="1"/>
+    <row r="800" ht="12.75" customHeight="1"/>
+    <row r="801" ht="12.75" customHeight="1"/>
+    <row r="802" ht="12.75" customHeight="1"/>
+    <row r="803" ht="12.75" customHeight="1"/>
+    <row r="804" ht="12.75" customHeight="1"/>
+    <row r="805" ht="12.75" customHeight="1"/>
+    <row r="806" ht="12.75" customHeight="1"/>
+    <row r="807" ht="12.75" customHeight="1"/>
+    <row r="808" ht="12.75" customHeight="1"/>
+    <row r="809" ht="12.75" customHeight="1"/>
+    <row r="810" ht="12.75" customHeight="1"/>
+    <row r="811" ht="12.75" customHeight="1"/>
+    <row r="812" ht="12.75" customHeight="1"/>
+    <row r="813" ht="12.75" customHeight="1"/>
+    <row r="814" ht="12.75" customHeight="1"/>
+    <row r="815" ht="12.75" customHeight="1"/>
+    <row r="816" ht="12.75" customHeight="1"/>
+    <row r="817" ht="12.75" customHeight="1"/>
+    <row r="818" ht="12.75" customHeight="1"/>
+    <row r="819" ht="12.75" customHeight="1"/>
+    <row r="820" ht="12.75" customHeight="1"/>
+    <row r="821" ht="12.75" customHeight="1"/>
+    <row r="822" ht="12.75" customHeight="1"/>
+    <row r="823" ht="12.75" customHeight="1"/>
+    <row r="824" ht="12.75" customHeight="1"/>
+    <row r="825" ht="12.75" customHeight="1"/>
+    <row r="826" ht="12.75" customHeight="1"/>
+    <row r="827" ht="12.75" customHeight="1"/>
+    <row r="828" ht="12.75" customHeight="1"/>
+    <row r="829" ht="12.75" customHeight="1"/>
+    <row r="830" ht="12.75" customHeight="1"/>
+    <row r="831" ht="12.75" customHeight="1"/>
+    <row r="832" ht="12.75" customHeight="1"/>
+    <row r="833" ht="12.75" customHeight="1"/>
+    <row r="834" ht="12.75" customHeight="1"/>
+    <row r="835" ht="12.75" customHeight="1"/>
+    <row r="836" ht="12.75" customHeight="1"/>
+    <row r="837" ht="12.75" customHeight="1"/>
+    <row r="838" ht="12.75" customHeight="1"/>
+    <row r="839" ht="12.75" customHeight="1"/>
+    <row r="840" ht="12.75" customHeight="1"/>
+    <row r="841" ht="12.75" customHeight="1"/>
+    <row r="842" ht="12.75" customHeight="1"/>
+    <row r="843" ht="12.75" customHeight="1"/>
+    <row r="844" ht="12.75" customHeight="1"/>
+    <row r="845" ht="12.75" customHeight="1"/>
+    <row r="846" ht="12.75" customHeight="1"/>
+    <row r="847" ht="12.75" customHeight="1"/>
+    <row r="848" ht="12.75" customHeight="1"/>
+    <row r="849" ht="12.75" customHeight="1"/>
+    <row r="850" ht="12.75" customHeight="1"/>
+    <row r="851" ht="12.75" customHeight="1"/>
+    <row r="852" ht="12.75" customHeight="1"/>
+    <row r="853" ht="12.75" customHeight="1"/>
+    <row r="854" ht="12.75" customHeight="1"/>
+    <row r="855" ht="12.75" customHeight="1"/>
+    <row r="856" ht="12.75" customHeight="1"/>
+    <row r="857" ht="12.75" customHeight="1"/>
+    <row r="858" ht="12.75" customHeight="1"/>
+    <row r="859" ht="12.75" customHeight="1"/>
+    <row r="860" ht="12.75" customHeight="1"/>
+    <row r="861" ht="12.75" customHeight="1"/>
+    <row r="862" ht="12.75" customHeight="1"/>
+    <row r="863" ht="12.75" customHeight="1"/>
+    <row r="864" ht="12.75" customHeight="1"/>
+    <row r="865" ht="12.75" customHeight="1"/>
+    <row r="866" ht="12.75" customHeight="1"/>
+    <row r="867" ht="12.75" customHeight="1"/>
+    <row r="868" ht="12.75" customHeight="1"/>
+    <row r="869" ht="12.75" customHeight="1"/>
+    <row r="870" ht="12.75" customHeight="1"/>
+    <row r="871" ht="12.75" customHeight="1"/>
+    <row r="872" ht="12.75" customHeight="1"/>
+    <row r="873" ht="12.75" customHeight="1"/>
+    <row r="874" ht="12.75" customHeight="1"/>
+    <row r="875" ht="12.75" customHeight="1"/>
+    <row r="876" ht="12.75" customHeight="1"/>
+    <row r="877" ht="12.75" customHeight="1"/>
+    <row r="878" ht="12.75" customHeight="1"/>
+    <row r="879" ht="12.75" customHeight="1"/>
+    <row r="880" ht="12.75" customHeight="1"/>
+    <row r="881" ht="12.75" customHeight="1"/>
+    <row r="882" ht="12.75" customHeight="1"/>
+    <row r="883" ht="12.75" customHeight="1"/>
+    <row r="884" ht="12.75" customHeight="1"/>
+    <row r="885" ht="12.75" customHeight="1"/>
+    <row r="886" ht="12.75" customHeight="1"/>
+    <row r="887" ht="12.75" customHeight="1"/>
+    <row r="888" ht="12.75" customHeight="1"/>
+    <row r="889" ht="12.75" customHeight="1"/>
+    <row r="890" ht="12.75" customHeight="1"/>
+    <row r="891" ht="12.75" customHeight="1"/>
+    <row r="892" ht="12.75" customHeight="1"/>
+    <row r="893" ht="12.75" customHeight="1"/>
+    <row r="894" ht="12.75" customHeight="1"/>
+    <row r="895" ht="12.75" customHeight="1"/>
+    <row r="896" ht="12.75" customHeight="1"/>
+    <row r="897" ht="12.75" customHeight="1"/>
+    <row r="898" ht="12.75" customHeight="1"/>
+    <row r="899" ht="12.75" customHeight="1"/>
+    <row r="900" ht="12.75" customHeight="1"/>
+    <row r="901" ht="12.75" customHeight="1"/>
+    <row r="902" ht="12.75" customHeight="1"/>
+    <row r="903" ht="12.75" customHeight="1"/>
+    <row r="904" ht="12.75" customHeight="1"/>
+    <row r="905" ht="12.75" customHeight="1"/>
+    <row r="906" ht="12.75" customHeight="1"/>
+    <row r="907" ht="12.75" customHeight="1"/>
+    <row r="908" ht="12.75" customHeight="1"/>
+    <row r="909" ht="12.75" customHeight="1"/>
+    <row r="910" ht="12.75" customHeight="1"/>
+    <row r="911" ht="12.75" customHeight="1"/>
+    <row r="912" ht="12.75" customHeight="1"/>
+    <row r="913" ht="12.75" customHeight="1"/>
+    <row r="914" ht="12.75" customHeight="1"/>
+    <row r="915" ht="12.75" customHeight="1"/>
+    <row r="916" ht="12.75" customHeight="1"/>
+    <row r="917" ht="12.75" customHeight="1"/>
+    <row r="918" ht="12.75" customHeight="1"/>
+    <row r="919" ht="12.75" customHeight="1"/>
+    <row r="920" ht="12.75" customHeight="1"/>
+    <row r="921" ht="12.75" customHeight="1"/>
+    <row r="922" ht="12.75" customHeight="1"/>
+    <row r="923" ht="12.75" customHeight="1"/>
+    <row r="924" ht="12.75" customHeight="1"/>
+    <row r="925" ht="12.75" customHeight="1"/>
+    <row r="926" ht="12.75" customHeight="1"/>
+    <row r="927" ht="12.75" customHeight="1"/>
+    <row r="928" ht="12.75" customHeight="1"/>
+    <row r="929" ht="12.75" customHeight="1"/>
+    <row r="930" ht="12.75" customHeight="1"/>
+    <row r="931" ht="12.75" customHeight="1"/>
+    <row r="932" ht="12.75" customHeight="1"/>
+    <row r="933" ht="12.75" customHeight="1"/>
+    <row r="934" ht="12.75" customHeight="1"/>
+    <row r="935" ht="12.75" customHeight="1"/>
+    <row r="936" ht="12.75" customHeight="1"/>
+    <row r="937" ht="12.75" customHeight="1"/>
+    <row r="938" ht="12.75" customHeight="1"/>
+    <row r="939" ht="12.75" customHeight="1"/>
+    <row r="940" ht="12.75" customHeight="1"/>
+    <row r="941" ht="12.75" customHeight="1"/>
+    <row r="942" ht="12.75" customHeight="1"/>
+    <row r="943" ht="12.75" customHeight="1"/>
+    <row r="944" ht="12.75" customHeight="1"/>
+    <row r="945" ht="12.75" customHeight="1"/>
+    <row r="946" ht="12.75" customHeight="1"/>
+    <row r="947" ht="12.75" customHeight="1"/>
+    <row r="948" ht="12.75" customHeight="1"/>
+    <row r="949" ht="12.75" customHeight="1"/>
+    <row r="950" ht="12.75" customHeight="1"/>
+    <row r="951" ht="12.75" customHeight="1"/>
+    <row r="952" ht="12.75" customHeight="1"/>
+    <row r="953" ht="12.75" customHeight="1"/>
+    <row r="954" ht="12.75" customHeight="1"/>
+    <row r="955" ht="12.75" customHeight="1"/>
+    <row r="956" ht="12.75" customHeight="1"/>
+    <row r="957" ht="12.75" customHeight="1"/>
+    <row r="958" ht="12.75" customHeight="1"/>
+    <row r="959" ht="12.75" customHeight="1"/>
+    <row r="960" ht="12.75" customHeight="1"/>
+    <row r="961" ht="12.75" customHeight="1"/>
+    <row r="962" ht="12.75" customHeight="1"/>
+    <row r="963" ht="12.75" customHeight="1"/>
+    <row r="964" ht="12.75" customHeight="1"/>
+    <row r="965" ht="12.75" customHeight="1"/>
+    <row r="966" ht="12.75" customHeight="1"/>
+    <row r="967" ht="12.75" customHeight="1"/>
+    <row r="968" ht="12.75" customHeight="1"/>
+    <row r="969" ht="12.75" customHeight="1"/>
+    <row r="970" ht="12.75" customHeight="1"/>
+    <row r="971" ht="12.75" customHeight="1"/>
+    <row r="972" ht="12.75" customHeight="1"/>
+    <row r="973" ht="12.75" customHeight="1"/>
+    <row r="974" ht="12.75" customHeight="1"/>
+    <row r="975" ht="12.75" customHeight="1"/>
+    <row r="976" ht="12.75" customHeight="1"/>
+    <row r="977" ht="12.75" customHeight="1"/>
+    <row r="978" ht="12.75" customHeight="1"/>
+    <row r="979" ht="12.75" customHeight="1"/>
+    <row r="980" ht="12.75" customHeight="1"/>
+    <row r="981" ht="12.75" customHeight="1"/>
+    <row r="982" ht="12.75" customHeight="1"/>
+    <row r="983" ht="12.75" customHeight="1"/>
+    <row r="984" ht="12.75" customHeight="1"/>
+    <row r="985" ht="12.75" customHeight="1"/>
+    <row r="986" ht="12.75" customHeight="1"/>
+    <row r="987" ht="12.75" customHeight="1"/>
+    <row r="988" ht="12.75" customHeight="1"/>
+    <row r="989" ht="12.75" customHeight="1"/>
+    <row r="990" ht="12.75" customHeight="1"/>
+    <row r="991" ht="12.75" customHeight="1"/>
+    <row r="992" ht="12.75" customHeight="1"/>
+    <row r="993" ht="12.75" customHeight="1"/>
+    <row r="994" ht="12.75" customHeight="1"/>
+    <row r="995" ht="12.75" customHeight="1"/>
+    <row r="996" ht="12.75" customHeight="1"/>
+    <row r="997" ht="12.75" customHeight="1"/>
+    <row r="998" ht="12.75" customHeight="1"/>
+    <row r="999" ht="12.75" customHeight="1"/>
+    <row r="1000" ht="12.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:B5"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A10:C13"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D11:E13"/>
+    <mergeCell ref="F11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+  </mergeCells>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9875,77 +9895,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1">
-      <c r="A1" s="140" t="s">
-        <v>21</v>
+      <c r="A1" s="137" t="s">
+        <v>18</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="146" t="s">
+      <c r="B1" s="138"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="143" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="144"/>
+      <c r="F1" s="145" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="144"/>
+      <c r="H1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="147"/>
-      <c r="F1" s="148" t="s">
+      <c r="J1" s="16" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="147"/>
-      <c r="H1" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>10</v>
       </c>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
       <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1">
-      <c r="A2" s="143"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="140" t="s">
-        <v>33</v>
+      <c r="A2" s="140"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="137" t="s">
+        <v>29</v>
       </c>
-      <c r="E2" s="142"/>
-      <c r="F2" s="140" t="s">
-        <v>35</v>
+      <c r="E2" s="139"/>
+      <c r="F2" s="137" t="s">
+        <v>31</v>
       </c>
-      <c r="G2" s="142"/>
-      <c r="H2" s="133">
+      <c r="G2" s="139"/>
+      <c r="H2" s="130">
         <v>45632</v>
       </c>
-      <c r="I2" s="136" t="s">
-        <v>34</v>
+      <c r="I2" s="133" t="s">
+        <v>30</v>
       </c>
-      <c r="J2" s="137"/>
+      <c r="J2" s="134"/>
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1">
-      <c r="A3" s="143"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="138"/>
+      <c r="A3" s="140"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="135"/>
       <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1">
-      <c r="A4" s="144"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="139"/>
+      <c r="A4" s="141"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="136"/>
       <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:13" ht="12.75" customHeight="1">

--- a/プロジェクト型演習_成果物(タスク一覧画面).xlsx
+++ b/プロジェクト型演習_成果物(タスク一覧画面).xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S-01\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEECA67-5160-4497-9C09-A71052832FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A5B747-F66C-47AF-B9F4-58CEEED297C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
-    <sheet name="ユースケース記述" sheetId="2" r:id="rId2"/>
-    <sheet name="画面設計書" sheetId="5" r:id="rId3"/>
+    <sheet name="画面設計書" sheetId="5" r:id="rId2"/>
+    <sheet name="ユースケース記述" sheetId="2" r:id="rId3"/>
     <sheet name="詳細クラス図" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -28,7 +28,16 @@
     <t>プロジェクト型演習　成果ドキュメント</t>
   </si>
   <si>
+    <t>○○○○システム</t>
+  </si>
+  <si>
     <t>初版</t>
+  </si>
+  <si>
+    <t>YYYY/MM/DD</t>
+  </si>
+  <si>
+    <t>チーム名</t>
   </si>
   <si>
     <t>ユースケース記述</t>
@@ -86,6 +95,9 @@
   </si>
   <si>
     <t>画面名称</t>
+  </si>
+  <si>
+    <t>画面レイアウト</t>
   </si>
   <si>
     <t>フォーム定義</t>
@@ -186,6 +198,19 @@
     </rPh>
     <rPh sb="55" eb="57">
       <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>タスク管理システムへのログイン状態を保持している。</t>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホジ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -327,6 +352,10 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
+    <t>/TaskEditServlet</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
     <t>post</t>
     <phoneticPr fontId="9"/>
   </si>
@@ -393,41 +422,8 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>TaskCategoryUserStatusBean.java</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>TaskCategoryUserStatusDAO.java</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>menu.jsp</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>TaskEditServlet</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>タスク管理システムへのログイン状態を保持している</t>
-    <rPh sb="3" eb="5">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t xml:space="preserve">①タスク情報の一覧を表示する　各タスクに隣接している詳細ボタンを押下すると、対象のタスク詳細画面へ遷移する
-②画面右上「メニュー画面へ」を押下すると、メニュー画面へ遷移する
+    <t xml:space="preserve">①タスク情報の一覧を表示する。各タスクに隣接している詳細ボタンを押下すると、対象のタスク詳細画面へ遷移する。
+②画面右上「メニュー画面へ」を押下すると、メニュー画面へ遷移する。
 </t>
     <rPh sb="4" eb="6">
       <t>ジョウホウ</t>
@@ -465,25 +461,33 @@
     <rPh sb="49" eb="51">
       <t>センイ</t>
     </rPh>
-    <rPh sb="55" eb="59">
+    <rPh sb="56" eb="60">
       <t>ガメンミギウエ</t>
     </rPh>
-    <rPh sb="64" eb="66">
+    <rPh sb="65" eb="67">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="69" eb="71">
+    <rPh sb="70" eb="72">
       <t>オウカ</t>
     </rPh>
-    <rPh sb="79" eb="81">
+    <rPh sb="80" eb="82">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="82" eb="84">
+    <rPh sb="83" eb="85">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>①タスクリストが空の時、「タスクはありません」と表示する</t>
+    <t>TaskCategoryUserStatusBean.java</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>TaskCategoryUserStatusDAO.java</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>①タスクリストが空の時、「タスクはありません」と表示する。</t>
     <rPh sb="8" eb="9">
       <t>カラ</t>
     </rPh>
@@ -496,7 +500,68 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>タスク情報の一覧が表示され、各タスクに隣接する詳細ボタンを押下すると、対象の詳細画面へ遷移する</t>
+    <t>①ログイン認証を行わず（ログアウト/セッションタイムアウトも含む）に、
+ブラウザのリンクにタスク一覧画面のURLを打ち込むとログイン画面へ遷移する。
+②タスク内の項目がNullの場合「　　　　　　」空白を表示する。
+③タスクの担当者以外が詳細画面ボタンを押下しても反応しない。</t>
+    <rPh sb="5" eb="7">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="113" eb="118">
+      <t>タントウシャイガイ</t>
+    </rPh>
+    <rPh sb="119" eb="123">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>ハンノウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>タスク情報の一覧が表示され、タスクの担当者は各タスクに隣接する詳細ボタンを押下すると、対象の詳細画面へ遷移する。</t>
     <rPh sb="3" eb="5">
       <t>ジョウホウ</t>
     </rPh>
@@ -506,98 +571,42 @@
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="14" eb="15">
+    <rPh sb="18" eb="21">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
       <t>カク</t>
     </rPh>
-    <rPh sb="19" eb="21">
+    <rPh sb="27" eb="29">
       <t>リンセツ</t>
     </rPh>
-    <rPh sb="23" eb="25">
+    <rPh sb="31" eb="33">
       <t>ショウサイ</t>
     </rPh>
-    <rPh sb="29" eb="31">
+    <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <rPh sb="35" eb="37">
+    <rPh sb="43" eb="45">
       <t>タイショウ</t>
     </rPh>
-    <rPh sb="38" eb="40">
+    <rPh sb="46" eb="48">
       <t>ショウサイ</t>
     </rPh>
-    <rPh sb="40" eb="42">
+    <rPh sb="48" eb="50">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="43" eb="45">
+    <rPh sb="51" eb="53">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>タスク管理システム</t>
-    <rPh sb="3" eb="5">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
+    <t>/menu.jsp</t>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>ProjectX</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>YYYY/MM/DD</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>画面レイアウト</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>①ログイン認証を行わず（ログアウト/セッションタイムアウトも含む）に、ブラウザのリンクにタスク一覧画面のURLを打ち込むと
-ログイン画面へ遷移する
-②タスク内の項目がNullの場合「　　　　　　」空白を表示する</t>
-    <rPh sb="5" eb="7">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
+    <t>get</t>
+    <phoneticPr fontId="9"/>
   </si>
 </sst>
 </file>
@@ -607,7 +616,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-411]h:mm"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -678,13 +687,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1466,7 +1468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1578,407 +1580,350 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="8" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2000,20 +1945,25 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7772400" cy="1220387"/>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>67862</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11">
+        <xdr:cNvPr id="10" name="図 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6528088-5F4E-4EB9-B81D-94EAEC74DD54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB1D5A4C-5A28-2113-5CAA-1071A9BC40C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2035,7 +1985,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1362075" y="14668500"/>
+          <a:off x="676275" y="6400800"/>
           <a:ext cx="7772400" cy="1220387"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2044,26 +1994,26 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D8E0A88-1073-4A80-8A48-91993CFB0881}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8121BE4-353F-F0BF-85B9-7D28F098FAA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2071,8 +2021,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7591425" y="14354174"/>
-          <a:ext cx="1409700" cy="238125"/>
+          <a:off x="6772275" y="6096000"/>
+          <a:ext cx="1724025" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5697,9 +5647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:K14"/>
-    </sheetView>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -5709,85 +5657,85 @@
   <sheetData>
     <row r="1" spans="3:16" ht="30" customHeight="1"/>
     <row r="2" spans="3:16" ht="30" customHeight="1">
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="3:16" ht="30" customHeight="1">
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="3:16" ht="30" customHeight="1">
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="3:16" ht="30" customHeight="1">
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="3:16" ht="30" customHeight="1">
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="3:16" ht="30" customHeight="1">
@@ -5807,48 +5755,46 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="3:16" ht="30" customHeight="1">
-      <c r="E8" s="55" t="s">
-        <v>73</v>
+      <c r="E8" s="44" t="s">
+        <v>1</v>
       </c>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
     </row>
     <row r="9" spans="3:16" ht="30" customHeight="1"/>
     <row r="10" spans="3:16" ht="30" customHeight="1"/>
     <row r="11" spans="3:16" ht="30" customHeight="1"/>
     <row r="12" spans="3:16" ht="30" customHeight="1"/>
     <row r="13" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G13" s="48" t="s">
-        <v>1</v>
+      <c r="G13" s="37" t="s">
+        <v>2</v>
       </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="165" t="s">
-        <v>75</v>
+      <c r="H13" s="39"/>
+      <c r="I13" s="37" t="s">
+        <v>3</v>
       </c>
-      <c r="J13" s="49"/>
-      <c r="K13" s="50"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
     </row>
     <row r="14" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G14" s="48"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="165">
-        <v>45632</v>
-      </c>
-      <c r="J14" s="49"/>
-      <c r="K14" s="50"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="39"/>
     </row>
     <row r="15" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G15" s="48"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="50"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="39"/>
     </row>
     <row r="16" spans="3:16" ht="15.75" customHeight="1">
       <c r="G16" s="3"/>
@@ -5857,13 +5803,13 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="7:11" ht="30" customHeight="1">
-      <c r="G17" s="51" t="s">
-        <v>74</v>
+      <c r="G17" s="40" t="s">
+        <v>4</v>
       </c>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
     </row>
     <row r="18" spans="7:11" ht="14.25" customHeight="1"/>
     <row r="19" spans="7:11" ht="24.75" customHeight="1"/>
@@ -6867,11 +6813,1807 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:N1000"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="3" width="5.140625" customWidth="1"/>
+    <col min="4" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="17" width="8.7109375" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" customWidth="1"/>
+    <col min="19" max="19" width="30.5703125" customWidth="1"/>
+    <col min="20" max="20" width="32.28515625" customWidth="1"/>
+    <col min="21" max="21" width="12" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" customWidth="1"/>
+    <col min="23" max="23" width="13" customWidth="1"/>
+    <col min="24" max="24" width="12" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" customWidth="1"/>
+    <col min="26" max="26" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="18" customHeight="1"/>
+    <row r="2" spans="2:11" ht="18" customHeight="1">
+      <c r="B2" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="54"/>
+      <c r="F2" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="54"/>
+      <c r="H2" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="56"/>
+    </row>
+    <row r="3" spans="2:11" ht="36" customHeight="1">
+      <c r="B3" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="56"/>
+      <c r="F3" s="149" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="56"/>
+      <c r="H3" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="56"/>
+    </row>
+    <row r="4" spans="2:11" ht="34.5" customHeight="1">
+      <c r="B4" s="57"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
+    </row>
+    <row r="5" spans="2:11" ht="50.25" customHeight="1">
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="56"/>
+      <c r="F5" s="150" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="54"/>
+      <c r="H5" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="54"/>
+    </row>
+    <row r="6" spans="2:11" ht="33.75" customHeight="1">
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="54"/>
+      <c r="H6" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="54"/>
+    </row>
+    <row r="7" spans="2:11" ht="21" customHeight="1">
+      <c r="B7" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="56"/>
+      <c r="D7" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="56"/>
+      <c r="F7" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="56"/>
+      <c r="H7" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="56"/>
+    </row>
+    <row r="8" spans="2:11" ht="21" customHeight="1">
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+    </row>
+    <row r="9" spans="2:11" ht="21" customHeight="1">
+      <c r="B9" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="56"/>
+      <c r="F9" s="149" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="56"/>
+      <c r="H9" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="56"/>
+    </row>
+    <row r="10" spans="2:11" ht="21" customHeight="1">
+      <c r="B10" s="60"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="61"/>
+    </row>
+    <row r="11" spans="2:11" ht="21" customHeight="1"/>
+    <row r="12" spans="2:11" ht="21" customHeight="1" thickBot="1">
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+    </row>
+    <row r="13" spans="2:11" ht="19.5" customHeight="1">
+      <c r="B13" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="71"/>
+      <c r="G13" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="71"/>
+      <c r="I13" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="19.5" customHeight="1">
+      <c r="B14" s="67"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="89"/>
+      <c r="G14" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="89"/>
+      <c r="I14" s="151">
+        <v>45632</v>
+      </c>
+      <c r="J14" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="77"/>
+    </row>
+    <row r="15" spans="2:11" ht="19.5" customHeight="1">
+      <c r="B15" s="67"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="78"/>
+    </row>
+    <row r="16" spans="2:11" ht="19.5" customHeight="1" thickBot="1">
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="78"/>
+    </row>
+    <row r="17" spans="2:14" ht="19.5" customHeight="1">
+      <c r="B17" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="92"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="94"/>
+    </row>
+    <row r="18" spans="2:14" ht="19.5" customHeight="1">
+      <c r="B18" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="49"/>
+    </row>
+    <row r="19" spans="2:14" ht="19.5" customHeight="1">
+      <c r="B19" s="79"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="81"/>
+    </row>
+    <row r="20" spans="2:14" ht="19.5" customHeight="1">
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="84"/>
+    </row>
+    <row r="21" spans="2:14" ht="19.5" customHeight="1">
+      <c r="B21" s="82"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="84"/>
+    </row>
+    <row r="22" spans="2:14" ht="19.5" customHeight="1">
+      <c r="B22" s="82"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="84"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+    </row>
+    <row r="23" spans="2:14" ht="19.5" customHeight="1">
+      <c r="B23" s="82"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="84"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+    </row>
+    <row r="24" spans="2:14" ht="12.75" customHeight="1">
+      <c r="B24" s="82"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="84"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+    </row>
+    <row r="25" spans="2:14" ht="12.75" customHeight="1">
+      <c r="B25" s="82"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="84"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+    </row>
+    <row r="26" spans="2:14" ht="12.75" customHeight="1">
+      <c r="B26" s="82"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="84"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+    </row>
+    <row r="27" spans="2:14" ht="12.75" customHeight="1">
+      <c r="B27" s="82"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="84"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+    </row>
+    <row r="28" spans="2:14" ht="12.75" customHeight="1">
+      <c r="B28" s="82"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="84"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+    </row>
+    <row r="29" spans="2:14" ht="12.75" customHeight="1">
+      <c r="B29" s="82"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="84"/>
+    </row>
+    <row r="30" spans="2:14" ht="12.75" customHeight="1">
+      <c r="B30" s="82"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="84"/>
+    </row>
+    <row r="31" spans="2:14" ht="12.75" customHeight="1">
+      <c r="B31" s="82"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="84"/>
+    </row>
+    <row r="32" spans="2:14" ht="12.75" customHeight="1">
+      <c r="B32" s="82"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="84"/>
+    </row>
+    <row r="33" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B33" s="82"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="84"/>
+    </row>
+    <row r="34" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B34" s="85"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="87"/>
+    </row>
+    <row r="35" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B35" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="49"/>
+    </row>
+    <row r="36" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B36" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="46"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B37" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="46"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="46"/>
+      <c r="K37" s="49"/>
+    </row>
+    <row r="38" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B38" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="46"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I38" s="48"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="49"/>
+    </row>
+    <row r="39" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="25"/>
+    </row>
+    <row r="40" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B40" s="45"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="49"/>
+    </row>
+    <row r="41" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B41" s="45"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="25"/>
+    </row>
+    <row r="42" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B42" s="45"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="25"/>
+    </row>
+    <row r="43" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B43" s="45"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="49"/>
+    </row>
+    <row r="44" spans="2:11" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B44" s="50"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="35"/>
+    </row>
+    <row r="45" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B45" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="49"/>
+    </row>
+    <row r="46" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B46" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="46"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" s="27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B47" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="46"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="46"/>
+      <c r="K47" s="49"/>
+    </row>
+    <row r="48" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B48" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="46"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G48" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="I48" s="48"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="49"/>
+    </row>
+    <row r="49" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B49" s="45"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="25"/>
+    </row>
+    <row r="50" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B50" s="45"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="49"/>
+    </row>
+    <row r="51" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B51" s="45"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="25"/>
+    </row>
+    <row r="52" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B52" s="45"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="25"/>
+    </row>
+    <row r="53" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B53" s="45"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="49"/>
+    </row>
+    <row r="54" spans="2:11" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B54" s="50"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="35"/>
+    </row>
+    <row r="55" spans="2:11" ht="12.75" customHeight="1"/>
+    <row r="56" spans="2:11" ht="12.75" customHeight="1"/>
+    <row r="57" spans="2:11" ht="12.75" customHeight="1"/>
+    <row r="58" spans="2:11" ht="12.75" customHeight="1"/>
+    <row r="59" spans="2:11" ht="12.75" customHeight="1"/>
+    <row r="60" spans="2:11" ht="12.75" customHeight="1"/>
+    <row r="61" spans="2:11" ht="12.75" customHeight="1"/>
+    <row r="62" spans="2:11" ht="12.75" customHeight="1"/>
+    <row r="63" spans="2:11" ht="12.75" customHeight="1"/>
+    <row r="64" spans="2:11" ht="12.75" customHeight="1"/>
+    <row r="65" ht="12.75" customHeight="1"/>
+    <row r="66" ht="12.75" customHeight="1"/>
+    <row r="67" ht="12.75" customHeight="1"/>
+    <row r="68" ht="12.75" customHeight="1"/>
+    <row r="69" ht="12.75" customHeight="1"/>
+    <row r="70" ht="12.75" customHeight="1"/>
+    <row r="71" ht="12.75" customHeight="1"/>
+    <row r="72" ht="12.75" customHeight="1"/>
+    <row r="73" ht="12.75" customHeight="1"/>
+    <row r="74" ht="12.75" customHeight="1"/>
+    <row r="75" ht="12.75" customHeight="1"/>
+    <row r="76" ht="12.75" customHeight="1"/>
+    <row r="77" ht="12.75" customHeight="1"/>
+    <row r="78" ht="12.75" customHeight="1"/>
+    <row r="79" ht="12.75" customHeight="1"/>
+    <row r="80" ht="12.75" customHeight="1"/>
+    <row r="81" ht="12.75" customHeight="1"/>
+    <row r="82" ht="12.75" customHeight="1"/>
+    <row r="83" ht="12.75" customHeight="1"/>
+    <row r="84" ht="12.75" customHeight="1"/>
+    <row r="85" ht="12.75" customHeight="1"/>
+    <row r="86" ht="12.75" customHeight="1"/>
+    <row r="87" ht="12.75" customHeight="1"/>
+    <row r="88" ht="12.75" customHeight="1"/>
+    <row r="89" ht="12.75" customHeight="1"/>
+    <row r="90" ht="12.75" customHeight="1"/>
+    <row r="91" ht="12.75" customHeight="1"/>
+    <row r="92" ht="12.75" customHeight="1"/>
+    <row r="93" ht="12.75" customHeight="1"/>
+    <row r="94" ht="12.75" customHeight="1"/>
+    <row r="95" ht="12.75" customHeight="1"/>
+    <row r="96" ht="12.75" customHeight="1"/>
+    <row r="97" ht="12.75" customHeight="1"/>
+    <row r="98" ht="12.75" customHeight="1"/>
+    <row r="99" ht="12.75" customHeight="1"/>
+    <row r="100" ht="12.75" customHeight="1"/>
+    <row r="101" ht="12.75" customHeight="1"/>
+    <row r="102" ht="12.75" customHeight="1"/>
+    <row r="103" ht="12.75" customHeight="1"/>
+    <row r="104" ht="12.75" customHeight="1"/>
+    <row r="105" ht="12.75" customHeight="1"/>
+    <row r="106" ht="12.75" customHeight="1"/>
+    <row r="107" ht="12.75" customHeight="1"/>
+    <row r="108" ht="12.75" customHeight="1"/>
+    <row r="109" ht="12.75" customHeight="1"/>
+    <row r="110" ht="12.75" customHeight="1"/>
+    <row r="111" ht="12.75" customHeight="1"/>
+    <row r="112" ht="12.75" customHeight="1"/>
+    <row r="113" ht="12.75" customHeight="1"/>
+    <row r="114" ht="12.75" customHeight="1"/>
+    <row r="115" ht="12.75" customHeight="1"/>
+    <row r="116" ht="12.75" customHeight="1"/>
+    <row r="117" ht="12.75" customHeight="1"/>
+    <row r="118" ht="12.75" customHeight="1"/>
+    <row r="119" ht="12.75" customHeight="1"/>
+    <row r="120" ht="12.75" customHeight="1"/>
+    <row r="121" ht="12.75" customHeight="1"/>
+    <row r="122" ht="12.75" customHeight="1"/>
+    <row r="123" ht="12.75" customHeight="1"/>
+    <row r="124" ht="12.75" customHeight="1"/>
+    <row r="125" ht="12.75" customHeight="1"/>
+    <row r="126" ht="12.75" customHeight="1"/>
+    <row r="127" ht="12.75" customHeight="1"/>
+    <row r="128" ht="12.75" customHeight="1"/>
+    <row r="129" ht="12.75" customHeight="1"/>
+    <row r="130" ht="12.75" customHeight="1"/>
+    <row r="131" ht="12.75" customHeight="1"/>
+    <row r="132" ht="12.75" customHeight="1"/>
+    <row r="133" ht="12.75" customHeight="1"/>
+    <row r="134" ht="12.75" customHeight="1"/>
+    <row r="135" ht="12.75" customHeight="1"/>
+    <row r="136" ht="12.75" customHeight="1"/>
+    <row r="137" ht="12.75" customHeight="1"/>
+    <row r="138" ht="12.75" customHeight="1"/>
+    <row r="139" ht="12.75" customHeight="1"/>
+    <row r="140" ht="12.75" customHeight="1"/>
+    <row r="141" ht="12.75" customHeight="1"/>
+    <row r="142" ht="12.75" customHeight="1"/>
+    <row r="143" ht="12.75" customHeight="1"/>
+    <row r="144" ht="12.75" customHeight="1"/>
+    <row r="145" ht="12.75" customHeight="1"/>
+    <row r="146" ht="12.75" customHeight="1"/>
+    <row r="147" ht="12.75" customHeight="1"/>
+    <row r="148" ht="12.75" customHeight="1"/>
+    <row r="149" ht="12.75" customHeight="1"/>
+    <row r="150" ht="12.75" customHeight="1"/>
+    <row r="151" ht="12.75" customHeight="1"/>
+    <row r="152" ht="12.75" customHeight="1"/>
+    <row r="153" ht="12.75" customHeight="1"/>
+    <row r="154" ht="12.75" customHeight="1"/>
+    <row r="155" ht="12.75" customHeight="1"/>
+    <row r="156" ht="12.75" customHeight="1"/>
+    <row r="157" ht="12.75" customHeight="1"/>
+    <row r="158" ht="12.75" customHeight="1"/>
+    <row r="159" ht="12.75" customHeight="1"/>
+    <row r="160" ht="12.75" customHeight="1"/>
+    <row r="161" ht="12.75" customHeight="1"/>
+    <row r="162" ht="12.75" customHeight="1"/>
+    <row r="163" ht="12.75" customHeight="1"/>
+    <row r="164" ht="12.75" customHeight="1"/>
+    <row r="165" ht="12.75" customHeight="1"/>
+    <row r="166" ht="12.75" customHeight="1"/>
+    <row r="167" ht="12.75" customHeight="1"/>
+    <row r="168" ht="12.75" customHeight="1"/>
+    <row r="169" ht="12.75" customHeight="1"/>
+    <row r="170" ht="12.75" customHeight="1"/>
+    <row r="171" ht="12.75" customHeight="1"/>
+    <row r="172" ht="12.75" customHeight="1"/>
+    <row r="173" ht="12.75" customHeight="1"/>
+    <row r="174" ht="12.75" customHeight="1"/>
+    <row r="175" ht="12.75" customHeight="1"/>
+    <row r="176" ht="12.75" customHeight="1"/>
+    <row r="177" ht="12.75" customHeight="1"/>
+    <row r="178" ht="12.75" customHeight="1"/>
+    <row r="179" ht="12.75" customHeight="1"/>
+    <row r="180" ht="12.75" customHeight="1"/>
+    <row r="181" ht="12.75" customHeight="1"/>
+    <row r="182" ht="12.75" customHeight="1"/>
+    <row r="183" ht="12.75" customHeight="1"/>
+    <row r="184" ht="12.75" customHeight="1"/>
+    <row r="185" ht="12.75" customHeight="1"/>
+    <row r="186" ht="12.75" customHeight="1"/>
+    <row r="187" ht="12.75" customHeight="1"/>
+    <row r="188" ht="12.75" customHeight="1"/>
+    <row r="189" ht="12.75" customHeight="1"/>
+    <row r="190" ht="12.75" customHeight="1"/>
+    <row r="191" ht="12.75" customHeight="1"/>
+    <row r="192" ht="12.75" customHeight="1"/>
+    <row r="193" ht="12.75" customHeight="1"/>
+    <row r="194" ht="12.75" customHeight="1"/>
+    <row r="195" ht="12.75" customHeight="1"/>
+    <row r="196" ht="12.75" customHeight="1"/>
+    <row r="197" ht="12.75" customHeight="1"/>
+    <row r="198" ht="12.75" customHeight="1"/>
+    <row r="199" ht="12.75" customHeight="1"/>
+    <row r="200" ht="12.75" customHeight="1"/>
+    <row r="201" ht="12.75" customHeight="1"/>
+    <row r="202" ht="12.75" customHeight="1"/>
+    <row r="203" ht="12.75" customHeight="1"/>
+    <row r="204" ht="12.75" customHeight="1"/>
+    <row r="205" ht="12.75" customHeight="1"/>
+    <row r="206" ht="12.75" customHeight="1"/>
+    <row r="207" ht="12.75" customHeight="1"/>
+    <row r="208" ht="12.75" customHeight="1"/>
+    <row r="209" ht="12.75" customHeight="1"/>
+    <row r="210" ht="12.75" customHeight="1"/>
+    <row r="211" ht="12.75" customHeight="1"/>
+    <row r="212" ht="12.75" customHeight="1"/>
+    <row r="213" ht="12.75" customHeight="1"/>
+    <row r="214" ht="12.75" customHeight="1"/>
+    <row r="215" ht="12.75" customHeight="1"/>
+    <row r="216" ht="12.75" customHeight="1"/>
+    <row r="217" ht="12.75" customHeight="1"/>
+    <row r="218" ht="12.75" customHeight="1"/>
+    <row r="219" ht="12.75" customHeight="1"/>
+    <row r="220" ht="12.75" customHeight="1"/>
+    <row r="221" ht="12.75" customHeight="1"/>
+    <row r="222" ht="12.75" customHeight="1"/>
+    <row r="223" ht="12.75" customHeight="1"/>
+    <row r="224" ht="12.75" customHeight="1"/>
+    <row r="225" ht="12.75" customHeight="1"/>
+    <row r="226" ht="12.75" customHeight="1"/>
+    <row r="227" ht="12.75" customHeight="1"/>
+    <row r="228" ht="12.75" customHeight="1"/>
+    <row r="229" ht="12.75" customHeight="1"/>
+    <row r="230" ht="12.75" customHeight="1"/>
+    <row r="231" ht="12.75" customHeight="1"/>
+    <row r="232" ht="12.75" customHeight="1"/>
+    <row r="233" ht="12.75" customHeight="1"/>
+    <row r="234" ht="12.75" customHeight="1"/>
+    <row r="235" ht="12.75" customHeight="1"/>
+    <row r="236" ht="12.75" customHeight="1"/>
+    <row r="237" ht="12.75" customHeight="1"/>
+    <row r="238" ht="12.75" customHeight="1"/>
+    <row r="239" ht="12.75" customHeight="1"/>
+    <row r="240" ht="12.75" customHeight="1"/>
+    <row r="241" ht="12.75" customHeight="1"/>
+    <row r="242" ht="12.75" customHeight="1"/>
+    <row r="243" ht="12.75" customHeight="1"/>
+    <row r="244" ht="12.75" customHeight="1"/>
+    <row r="245" ht="12.75" customHeight="1"/>
+    <row r="246" ht="12.75" customHeight="1"/>
+    <row r="247" ht="12.75" customHeight="1"/>
+    <row r="248" ht="12.75" customHeight="1"/>
+    <row r="249" ht="12.75" customHeight="1"/>
+    <row r="250" ht="12.75" customHeight="1"/>
+    <row r="251" ht="12.75" customHeight="1"/>
+    <row r="252" ht="12.75" customHeight="1"/>
+    <row r="253" ht="12.75" customHeight="1"/>
+    <row r="254" ht="12.75" customHeight="1"/>
+    <row r="255" ht="12.75" customHeight="1"/>
+    <row r="256" ht="12.75" customHeight="1"/>
+    <row r="257" ht="12.75" customHeight="1"/>
+    <row r="258" ht="12.75" customHeight="1"/>
+    <row r="259" ht="12.75" customHeight="1"/>
+    <row r="260" ht="12.75" customHeight="1"/>
+    <row r="261" ht="12.75" customHeight="1"/>
+    <row r="262" ht="12.75" customHeight="1"/>
+    <row r="263" ht="12.75" customHeight="1"/>
+    <row r="264" ht="12.75" customHeight="1"/>
+    <row r="265" ht="12.75" customHeight="1"/>
+    <row r="266" ht="12.75" customHeight="1"/>
+    <row r="267" ht="12.75" customHeight="1"/>
+    <row r="268" ht="12.75" customHeight="1"/>
+    <row r="269" ht="12.75" customHeight="1"/>
+    <row r="270" ht="12.75" customHeight="1"/>
+    <row r="271" ht="12.75" customHeight="1"/>
+    <row r="272" ht="12.75" customHeight="1"/>
+    <row r="273" ht="12.75" customHeight="1"/>
+    <row r="274" ht="12.75" customHeight="1"/>
+    <row r="275" ht="12.75" customHeight="1"/>
+    <row r="276" ht="12.75" customHeight="1"/>
+    <row r="277" ht="12.75" customHeight="1"/>
+    <row r="278" ht="12.75" customHeight="1"/>
+    <row r="279" ht="12.75" customHeight="1"/>
+    <row r="280" ht="12.75" customHeight="1"/>
+    <row r="281" ht="12.75" customHeight="1"/>
+    <row r="282" ht="12.75" customHeight="1"/>
+    <row r="283" ht="12.75" customHeight="1"/>
+    <row r="284" ht="12.75" customHeight="1"/>
+    <row r="285" ht="12.75" customHeight="1"/>
+    <row r="286" ht="12.75" customHeight="1"/>
+    <row r="287" ht="12.75" customHeight="1"/>
+    <row r="288" ht="12.75" customHeight="1"/>
+    <row r="289" ht="12.75" customHeight="1"/>
+    <row r="290" ht="12.75" customHeight="1"/>
+    <row r="291" ht="12.75" customHeight="1"/>
+    <row r="292" ht="12.75" customHeight="1"/>
+    <row r="293" ht="12.75" customHeight="1"/>
+    <row r="294" ht="12.75" customHeight="1"/>
+    <row r="295" ht="12.75" customHeight="1"/>
+    <row r="296" ht="12.75" customHeight="1"/>
+    <row r="297" ht="12.75" customHeight="1"/>
+    <row r="298" ht="12.75" customHeight="1"/>
+    <row r="299" ht="12.75" customHeight="1"/>
+    <row r="300" ht="12.75" customHeight="1"/>
+    <row r="301" ht="12.75" customHeight="1"/>
+    <row r="302" ht="12.75" customHeight="1"/>
+    <row r="303" ht="12.75" customHeight="1"/>
+    <row r="304" ht="12.75" customHeight="1"/>
+    <row r="305" ht="12.75" customHeight="1"/>
+    <row r="306" ht="12.75" customHeight="1"/>
+    <row r="307" ht="12.75" customHeight="1"/>
+    <row r="308" ht="12.75" customHeight="1"/>
+    <row r="309" ht="12.75" customHeight="1"/>
+    <row r="310" ht="12.75" customHeight="1"/>
+    <row r="311" ht="12.75" customHeight="1"/>
+    <row r="312" ht="12.75" customHeight="1"/>
+    <row r="313" ht="12.75" customHeight="1"/>
+    <row r="314" ht="12.75" customHeight="1"/>
+    <row r="315" ht="12.75" customHeight="1"/>
+    <row r="316" ht="12.75" customHeight="1"/>
+    <row r="317" ht="12.75" customHeight="1"/>
+    <row r="318" ht="12.75" customHeight="1"/>
+    <row r="319" ht="12.75" customHeight="1"/>
+    <row r="320" ht="12.75" customHeight="1"/>
+    <row r="321" ht="12.75" customHeight="1"/>
+    <row r="322" ht="12.75" customHeight="1"/>
+    <row r="323" ht="12.75" customHeight="1"/>
+    <row r="324" ht="12.75" customHeight="1"/>
+    <row r="325" ht="12.75" customHeight="1"/>
+    <row r="326" ht="12.75" customHeight="1"/>
+    <row r="327" ht="12.75" customHeight="1"/>
+    <row r="328" ht="12.75" customHeight="1"/>
+    <row r="329" ht="12.75" customHeight="1"/>
+    <row r="330" ht="12.75" customHeight="1"/>
+    <row r="331" ht="12.75" customHeight="1"/>
+    <row r="332" ht="12.75" customHeight="1"/>
+    <row r="333" ht="12.75" customHeight="1"/>
+    <row r="334" ht="12.75" customHeight="1"/>
+    <row r="335" ht="12.75" customHeight="1"/>
+    <row r="336" ht="12.75" customHeight="1"/>
+    <row r="337" ht="12.75" customHeight="1"/>
+    <row r="338" ht="12.75" customHeight="1"/>
+    <row r="339" ht="12.75" customHeight="1"/>
+    <row r="340" ht="12.75" customHeight="1"/>
+    <row r="341" ht="12.75" customHeight="1"/>
+    <row r="342" ht="12.75" customHeight="1"/>
+    <row r="343" ht="12.75" customHeight="1"/>
+    <row r="344" ht="12.75" customHeight="1"/>
+    <row r="345" ht="12.75" customHeight="1"/>
+    <row r="346" ht="12.75" customHeight="1"/>
+    <row r="347" ht="12.75" customHeight="1"/>
+    <row r="348" ht="12.75" customHeight="1"/>
+    <row r="349" ht="12.75" customHeight="1"/>
+    <row r="350" ht="12.75" customHeight="1"/>
+    <row r="351" ht="12.75" customHeight="1"/>
+    <row r="352" ht="12.75" customHeight="1"/>
+    <row r="353" ht="12.75" customHeight="1"/>
+    <row r="354" ht="12.75" customHeight="1"/>
+    <row r="355" ht="12.75" customHeight="1"/>
+    <row r="356" ht="12.75" customHeight="1"/>
+    <row r="357" ht="12.75" customHeight="1"/>
+    <row r="358" ht="12.75" customHeight="1"/>
+    <row r="359" ht="12.75" customHeight="1"/>
+    <row r="360" ht="12.75" customHeight="1"/>
+    <row r="361" ht="12.75" customHeight="1"/>
+    <row r="362" ht="12.75" customHeight="1"/>
+    <row r="363" ht="12.75" customHeight="1"/>
+    <row r="364" ht="12.75" customHeight="1"/>
+    <row r="365" ht="12.75" customHeight="1"/>
+    <row r="366" ht="12.75" customHeight="1"/>
+    <row r="367" ht="12.75" customHeight="1"/>
+    <row r="368" ht="12.75" customHeight="1"/>
+    <row r="369" ht="12.75" customHeight="1"/>
+    <row r="370" ht="12.75" customHeight="1"/>
+    <row r="371" ht="12.75" customHeight="1"/>
+    <row r="372" ht="12.75" customHeight="1"/>
+    <row r="373" ht="12.75" customHeight="1"/>
+    <row r="374" ht="12.75" customHeight="1"/>
+    <row r="375" ht="12.75" customHeight="1"/>
+    <row r="376" ht="12.75" customHeight="1"/>
+    <row r="377" ht="12.75" customHeight="1"/>
+    <row r="378" ht="12.75" customHeight="1"/>
+    <row r="379" ht="12.75" customHeight="1"/>
+    <row r="380" ht="12.75" customHeight="1"/>
+    <row r="381" ht="12.75" customHeight="1"/>
+    <row r="382" ht="12.75" customHeight="1"/>
+    <row r="383" ht="12.75" customHeight="1"/>
+    <row r="384" ht="12.75" customHeight="1"/>
+    <row r="385" ht="12.75" customHeight="1"/>
+    <row r="386" ht="12.75" customHeight="1"/>
+    <row r="387" ht="12.75" customHeight="1"/>
+    <row r="388" ht="12.75" customHeight="1"/>
+    <row r="389" ht="12.75" customHeight="1"/>
+    <row r="390" ht="12.75" customHeight="1"/>
+    <row r="391" ht="12.75" customHeight="1"/>
+    <row r="392" ht="12.75" customHeight="1"/>
+    <row r="393" ht="12.75" customHeight="1"/>
+    <row r="394" ht="12.75" customHeight="1"/>
+    <row r="395" ht="12.75" customHeight="1"/>
+    <row r="396" ht="12.75" customHeight="1"/>
+    <row r="397" ht="12.75" customHeight="1"/>
+    <row r="398" ht="12.75" customHeight="1"/>
+    <row r="399" ht="12.75" customHeight="1"/>
+    <row r="400" ht="12.75" customHeight="1"/>
+    <row r="401" ht="12.75" customHeight="1"/>
+    <row r="402" ht="12.75" customHeight="1"/>
+    <row r="403" ht="12.75" customHeight="1"/>
+    <row r="404" ht="12.75" customHeight="1"/>
+    <row r="405" ht="12.75" customHeight="1"/>
+    <row r="406" ht="12.75" customHeight="1"/>
+    <row r="407" ht="12.75" customHeight="1"/>
+    <row r="408" ht="12.75" customHeight="1"/>
+    <row r="409" ht="12.75" customHeight="1"/>
+    <row r="410" ht="12.75" customHeight="1"/>
+    <row r="411" ht="12.75" customHeight="1"/>
+    <row r="412" ht="12.75" customHeight="1"/>
+    <row r="413" ht="12.75" customHeight="1"/>
+    <row r="414" ht="12.75" customHeight="1"/>
+    <row r="415" ht="12.75" customHeight="1"/>
+    <row r="416" ht="12.75" customHeight="1"/>
+    <row r="417" ht="12.75" customHeight="1"/>
+    <row r="418" ht="12.75" customHeight="1"/>
+    <row r="419" ht="12.75" customHeight="1"/>
+    <row r="420" ht="12.75" customHeight="1"/>
+    <row r="421" ht="12.75" customHeight="1"/>
+    <row r="422" ht="12.75" customHeight="1"/>
+    <row r="423" ht="12.75" customHeight="1"/>
+    <row r="424" ht="12.75" customHeight="1"/>
+    <row r="425" ht="12.75" customHeight="1"/>
+    <row r="426" ht="12.75" customHeight="1"/>
+    <row r="427" ht="12.75" customHeight="1"/>
+    <row r="428" ht="12.75" customHeight="1"/>
+    <row r="429" ht="12.75" customHeight="1"/>
+    <row r="430" ht="12.75" customHeight="1"/>
+    <row r="431" ht="12.75" customHeight="1"/>
+    <row r="432" ht="12.75" customHeight="1"/>
+    <row r="433" ht="12.75" customHeight="1"/>
+    <row r="434" ht="12.75" customHeight="1"/>
+    <row r="435" ht="12.75" customHeight="1"/>
+    <row r="436" ht="12.75" customHeight="1"/>
+    <row r="437" ht="12.75" customHeight="1"/>
+    <row r="438" ht="12.75" customHeight="1"/>
+    <row r="439" ht="12.75" customHeight="1"/>
+    <row r="440" ht="12.75" customHeight="1"/>
+    <row r="441" ht="12.75" customHeight="1"/>
+    <row r="442" ht="12.75" customHeight="1"/>
+    <row r="443" ht="12.75" customHeight="1"/>
+    <row r="444" ht="12.75" customHeight="1"/>
+    <row r="445" ht="12.75" customHeight="1"/>
+    <row r="446" ht="12.75" customHeight="1"/>
+    <row r="447" ht="12.75" customHeight="1"/>
+    <row r="448" ht="12.75" customHeight="1"/>
+    <row r="449" ht="12.75" customHeight="1"/>
+    <row r="450" ht="12.75" customHeight="1"/>
+    <row r="451" ht="12.75" customHeight="1"/>
+    <row r="452" ht="12.75" customHeight="1"/>
+    <row r="453" ht="12.75" customHeight="1"/>
+    <row r="454" ht="12.75" customHeight="1"/>
+    <row r="455" ht="12.75" customHeight="1"/>
+    <row r="456" ht="12.75" customHeight="1"/>
+    <row r="457" ht="12.75" customHeight="1"/>
+    <row r="458" ht="12.75" customHeight="1"/>
+    <row r="459" ht="12.75" customHeight="1"/>
+    <row r="460" ht="12.75" customHeight="1"/>
+    <row r="461" ht="12.75" customHeight="1"/>
+    <row r="462" ht="12.75" customHeight="1"/>
+    <row r="463" ht="12.75" customHeight="1"/>
+    <row r="464" ht="12.75" customHeight="1"/>
+    <row r="465" ht="12.75" customHeight="1"/>
+    <row r="466" ht="12.75" customHeight="1"/>
+    <row r="467" ht="12.75" customHeight="1"/>
+    <row r="468" ht="12.75" customHeight="1"/>
+    <row r="469" ht="12.75" customHeight="1"/>
+    <row r="470" ht="12.75" customHeight="1"/>
+    <row r="471" ht="12.75" customHeight="1"/>
+    <row r="472" ht="12.75" customHeight="1"/>
+    <row r="473" ht="12.75" customHeight="1"/>
+    <row r="474" ht="12.75" customHeight="1"/>
+    <row r="475" ht="12.75" customHeight="1"/>
+    <row r="476" ht="12.75" customHeight="1"/>
+    <row r="477" ht="12.75" customHeight="1"/>
+    <row r="478" ht="12.75" customHeight="1"/>
+    <row r="479" ht="12.75" customHeight="1"/>
+    <row r="480" ht="12.75" customHeight="1"/>
+    <row r="481" ht="12.75" customHeight="1"/>
+    <row r="482" ht="12.75" customHeight="1"/>
+    <row r="483" ht="12.75" customHeight="1"/>
+    <row r="484" ht="12.75" customHeight="1"/>
+    <row r="485" ht="12.75" customHeight="1"/>
+    <row r="486" ht="12.75" customHeight="1"/>
+    <row r="487" ht="12.75" customHeight="1"/>
+    <row r="488" ht="12.75" customHeight="1"/>
+    <row r="489" ht="12.75" customHeight="1"/>
+    <row r="490" ht="12.75" customHeight="1"/>
+    <row r="491" ht="12.75" customHeight="1"/>
+    <row r="492" ht="12.75" customHeight="1"/>
+    <row r="493" ht="12.75" customHeight="1"/>
+    <row r="494" ht="12.75" customHeight="1"/>
+    <row r="495" ht="12.75" customHeight="1"/>
+    <row r="496" ht="12.75" customHeight="1"/>
+    <row r="497" ht="12.75" customHeight="1"/>
+    <row r="498" ht="12.75" customHeight="1"/>
+    <row r="499" ht="12.75" customHeight="1"/>
+    <row r="500" ht="12.75" customHeight="1"/>
+    <row r="501" ht="12.75" customHeight="1"/>
+    <row r="502" ht="12.75" customHeight="1"/>
+    <row r="503" ht="12.75" customHeight="1"/>
+    <row r="504" ht="12.75" customHeight="1"/>
+    <row r="505" ht="12.75" customHeight="1"/>
+    <row r="506" ht="12.75" customHeight="1"/>
+    <row r="507" ht="12.75" customHeight="1"/>
+    <row r="508" ht="12.75" customHeight="1"/>
+    <row r="509" ht="12.75" customHeight="1"/>
+    <row r="510" ht="12.75" customHeight="1"/>
+    <row r="511" ht="12.75" customHeight="1"/>
+    <row r="512" ht="12.75" customHeight="1"/>
+    <row r="513" ht="12.75" customHeight="1"/>
+    <row r="514" ht="12.75" customHeight="1"/>
+    <row r="515" ht="12.75" customHeight="1"/>
+    <row r="516" ht="12.75" customHeight="1"/>
+    <row r="517" ht="12.75" customHeight="1"/>
+    <row r="518" ht="12.75" customHeight="1"/>
+    <row r="519" ht="12.75" customHeight="1"/>
+    <row r="520" ht="12.75" customHeight="1"/>
+    <row r="521" ht="12.75" customHeight="1"/>
+    <row r="522" ht="12.75" customHeight="1"/>
+    <row r="523" ht="12.75" customHeight="1"/>
+    <row r="524" ht="12.75" customHeight="1"/>
+    <row r="525" ht="12.75" customHeight="1"/>
+    <row r="526" ht="12.75" customHeight="1"/>
+    <row r="527" ht="12.75" customHeight="1"/>
+    <row r="528" ht="12.75" customHeight="1"/>
+    <row r="529" ht="12.75" customHeight="1"/>
+    <row r="530" ht="12.75" customHeight="1"/>
+    <row r="531" ht="12.75" customHeight="1"/>
+    <row r="532" ht="12.75" customHeight="1"/>
+    <row r="533" ht="12.75" customHeight="1"/>
+    <row r="534" ht="12.75" customHeight="1"/>
+    <row r="535" ht="12.75" customHeight="1"/>
+    <row r="536" ht="12.75" customHeight="1"/>
+    <row r="537" ht="12.75" customHeight="1"/>
+    <row r="538" ht="12.75" customHeight="1"/>
+    <row r="539" ht="12.75" customHeight="1"/>
+    <row r="540" ht="12.75" customHeight="1"/>
+    <row r="541" ht="12.75" customHeight="1"/>
+    <row r="542" ht="12.75" customHeight="1"/>
+    <row r="543" ht="12.75" customHeight="1"/>
+    <row r="544" ht="12.75" customHeight="1"/>
+    <row r="545" ht="12.75" customHeight="1"/>
+    <row r="546" ht="12.75" customHeight="1"/>
+    <row r="547" ht="12.75" customHeight="1"/>
+    <row r="548" ht="12.75" customHeight="1"/>
+    <row r="549" ht="12.75" customHeight="1"/>
+    <row r="550" ht="12.75" customHeight="1"/>
+    <row r="551" ht="12.75" customHeight="1"/>
+    <row r="552" ht="12.75" customHeight="1"/>
+    <row r="553" ht="12.75" customHeight="1"/>
+    <row r="554" ht="12.75" customHeight="1"/>
+    <row r="555" ht="12.75" customHeight="1"/>
+    <row r="556" ht="12.75" customHeight="1"/>
+    <row r="557" ht="12.75" customHeight="1"/>
+    <row r="558" ht="12.75" customHeight="1"/>
+    <row r="559" ht="12.75" customHeight="1"/>
+    <row r="560" ht="12.75" customHeight="1"/>
+    <row r="561" ht="12.75" customHeight="1"/>
+    <row r="562" ht="12.75" customHeight="1"/>
+    <row r="563" ht="12.75" customHeight="1"/>
+    <row r="564" ht="12.75" customHeight="1"/>
+    <row r="565" ht="12.75" customHeight="1"/>
+    <row r="566" ht="12.75" customHeight="1"/>
+    <row r="567" ht="12.75" customHeight="1"/>
+    <row r="568" ht="12.75" customHeight="1"/>
+    <row r="569" ht="12.75" customHeight="1"/>
+    <row r="570" ht="12.75" customHeight="1"/>
+    <row r="571" ht="12.75" customHeight="1"/>
+    <row r="572" ht="12.75" customHeight="1"/>
+    <row r="573" ht="12.75" customHeight="1"/>
+    <row r="574" ht="12.75" customHeight="1"/>
+    <row r="575" ht="12.75" customHeight="1"/>
+    <row r="576" ht="12.75" customHeight="1"/>
+    <row r="577" ht="12.75" customHeight="1"/>
+    <row r="578" ht="12.75" customHeight="1"/>
+    <row r="579" ht="12.75" customHeight="1"/>
+    <row r="580" ht="12.75" customHeight="1"/>
+    <row r="581" ht="12.75" customHeight="1"/>
+    <row r="582" ht="12.75" customHeight="1"/>
+    <row r="583" ht="12.75" customHeight="1"/>
+    <row r="584" ht="12.75" customHeight="1"/>
+    <row r="585" ht="12.75" customHeight="1"/>
+    <row r="586" ht="12.75" customHeight="1"/>
+    <row r="587" ht="12.75" customHeight="1"/>
+    <row r="588" ht="12.75" customHeight="1"/>
+    <row r="589" ht="12.75" customHeight="1"/>
+    <row r="590" ht="12.75" customHeight="1"/>
+    <row r="591" ht="12.75" customHeight="1"/>
+    <row r="592" ht="12.75" customHeight="1"/>
+    <row r="593" ht="12.75" customHeight="1"/>
+    <row r="594" ht="12.75" customHeight="1"/>
+    <row r="595" ht="12.75" customHeight="1"/>
+    <row r="596" ht="12.75" customHeight="1"/>
+    <row r="597" ht="12.75" customHeight="1"/>
+    <row r="598" ht="12.75" customHeight="1"/>
+    <row r="599" ht="12.75" customHeight="1"/>
+    <row r="600" ht="12.75" customHeight="1"/>
+    <row r="601" ht="12.75" customHeight="1"/>
+    <row r="602" ht="12.75" customHeight="1"/>
+    <row r="603" ht="12.75" customHeight="1"/>
+    <row r="604" ht="12.75" customHeight="1"/>
+    <row r="605" ht="12.75" customHeight="1"/>
+    <row r="606" ht="12.75" customHeight="1"/>
+    <row r="607" ht="12.75" customHeight="1"/>
+    <row r="608" ht="12.75" customHeight="1"/>
+    <row r="609" ht="12.75" customHeight="1"/>
+    <row r="610" ht="12.75" customHeight="1"/>
+    <row r="611" ht="12.75" customHeight="1"/>
+    <row r="612" ht="12.75" customHeight="1"/>
+    <row r="613" ht="12.75" customHeight="1"/>
+    <row r="614" ht="12.75" customHeight="1"/>
+    <row r="615" ht="12.75" customHeight="1"/>
+    <row r="616" ht="12.75" customHeight="1"/>
+    <row r="617" ht="12.75" customHeight="1"/>
+    <row r="618" ht="12.75" customHeight="1"/>
+    <row r="619" ht="12.75" customHeight="1"/>
+    <row r="620" ht="12.75" customHeight="1"/>
+    <row r="621" ht="12.75" customHeight="1"/>
+    <row r="622" ht="12.75" customHeight="1"/>
+    <row r="623" ht="12.75" customHeight="1"/>
+    <row r="624" ht="12.75" customHeight="1"/>
+    <row r="625" ht="12.75" customHeight="1"/>
+    <row r="626" ht="12.75" customHeight="1"/>
+    <row r="627" ht="12.75" customHeight="1"/>
+    <row r="628" ht="12.75" customHeight="1"/>
+    <row r="629" ht="12.75" customHeight="1"/>
+    <row r="630" ht="12.75" customHeight="1"/>
+    <row r="631" ht="12.75" customHeight="1"/>
+    <row r="632" ht="12.75" customHeight="1"/>
+    <row r="633" ht="12.75" customHeight="1"/>
+    <row r="634" ht="12.75" customHeight="1"/>
+    <row r="635" ht="12.75" customHeight="1"/>
+    <row r="636" ht="12.75" customHeight="1"/>
+    <row r="637" ht="12.75" customHeight="1"/>
+    <row r="638" ht="12.75" customHeight="1"/>
+    <row r="639" ht="12.75" customHeight="1"/>
+    <row r="640" ht="12.75" customHeight="1"/>
+    <row r="641" ht="12.75" customHeight="1"/>
+    <row r="642" ht="12.75" customHeight="1"/>
+    <row r="643" ht="12.75" customHeight="1"/>
+    <row r="644" ht="12.75" customHeight="1"/>
+    <row r="645" ht="12.75" customHeight="1"/>
+    <row r="646" ht="12.75" customHeight="1"/>
+    <row r="647" ht="12.75" customHeight="1"/>
+    <row r="648" ht="12.75" customHeight="1"/>
+    <row r="649" ht="12.75" customHeight="1"/>
+    <row r="650" ht="12.75" customHeight="1"/>
+    <row r="651" ht="12.75" customHeight="1"/>
+    <row r="652" ht="12.75" customHeight="1"/>
+    <row r="653" ht="12.75" customHeight="1"/>
+    <row r="654" ht="12.75" customHeight="1"/>
+    <row r="655" ht="12.75" customHeight="1"/>
+    <row r="656" ht="12.75" customHeight="1"/>
+    <row r="657" ht="12.75" customHeight="1"/>
+    <row r="658" ht="12.75" customHeight="1"/>
+    <row r="659" ht="12.75" customHeight="1"/>
+    <row r="660" ht="12.75" customHeight="1"/>
+    <row r="661" ht="12.75" customHeight="1"/>
+    <row r="662" ht="12.75" customHeight="1"/>
+    <row r="663" ht="12.75" customHeight="1"/>
+    <row r="664" ht="12.75" customHeight="1"/>
+    <row r="665" ht="12.75" customHeight="1"/>
+    <row r="666" ht="12.75" customHeight="1"/>
+    <row r="667" ht="12.75" customHeight="1"/>
+    <row r="668" ht="12.75" customHeight="1"/>
+    <row r="669" ht="12.75" customHeight="1"/>
+    <row r="670" ht="12.75" customHeight="1"/>
+    <row r="671" ht="12.75" customHeight="1"/>
+    <row r="672" ht="12.75" customHeight="1"/>
+    <row r="673" ht="12.75" customHeight="1"/>
+    <row r="674" ht="12.75" customHeight="1"/>
+    <row r="675" ht="12.75" customHeight="1"/>
+    <row r="676" ht="12.75" customHeight="1"/>
+    <row r="677" ht="12.75" customHeight="1"/>
+    <row r="678" ht="12.75" customHeight="1"/>
+    <row r="679" ht="12.75" customHeight="1"/>
+    <row r="680" ht="12.75" customHeight="1"/>
+    <row r="681" ht="12.75" customHeight="1"/>
+    <row r="682" ht="12.75" customHeight="1"/>
+    <row r="683" ht="12.75" customHeight="1"/>
+    <row r="684" ht="12.75" customHeight="1"/>
+    <row r="685" ht="12.75" customHeight="1"/>
+    <row r="686" ht="12.75" customHeight="1"/>
+    <row r="687" ht="12.75" customHeight="1"/>
+    <row r="688" ht="12.75" customHeight="1"/>
+    <row r="689" ht="12.75" customHeight="1"/>
+    <row r="690" ht="12.75" customHeight="1"/>
+    <row r="691" ht="12.75" customHeight="1"/>
+    <row r="692" ht="12.75" customHeight="1"/>
+    <row r="693" ht="12.75" customHeight="1"/>
+    <row r="694" ht="12.75" customHeight="1"/>
+    <row r="695" ht="12.75" customHeight="1"/>
+    <row r="696" ht="12.75" customHeight="1"/>
+    <row r="697" ht="12.75" customHeight="1"/>
+    <row r="698" ht="12.75" customHeight="1"/>
+    <row r="699" ht="12.75" customHeight="1"/>
+    <row r="700" ht="12.75" customHeight="1"/>
+    <row r="701" ht="12.75" customHeight="1"/>
+    <row r="702" ht="12.75" customHeight="1"/>
+    <row r="703" ht="12.75" customHeight="1"/>
+    <row r="704" ht="12.75" customHeight="1"/>
+    <row r="705" ht="12.75" customHeight="1"/>
+    <row r="706" ht="12.75" customHeight="1"/>
+    <row r="707" ht="12.75" customHeight="1"/>
+    <row r="708" ht="12.75" customHeight="1"/>
+    <row r="709" ht="12.75" customHeight="1"/>
+    <row r="710" ht="12.75" customHeight="1"/>
+    <row r="711" ht="12.75" customHeight="1"/>
+    <row r="712" ht="12.75" customHeight="1"/>
+    <row r="713" ht="12.75" customHeight="1"/>
+    <row r="714" ht="12.75" customHeight="1"/>
+    <row r="715" ht="12.75" customHeight="1"/>
+    <row r="716" ht="12.75" customHeight="1"/>
+    <row r="717" ht="12.75" customHeight="1"/>
+    <row r="718" ht="12.75" customHeight="1"/>
+    <row r="719" ht="12.75" customHeight="1"/>
+    <row r="720" ht="12.75" customHeight="1"/>
+    <row r="721" ht="12.75" customHeight="1"/>
+    <row r="722" ht="12.75" customHeight="1"/>
+    <row r="723" ht="12.75" customHeight="1"/>
+    <row r="724" ht="12.75" customHeight="1"/>
+    <row r="725" ht="12.75" customHeight="1"/>
+    <row r="726" ht="12.75" customHeight="1"/>
+    <row r="727" ht="12.75" customHeight="1"/>
+    <row r="728" ht="12.75" customHeight="1"/>
+    <row r="729" ht="12.75" customHeight="1"/>
+    <row r="730" ht="12.75" customHeight="1"/>
+    <row r="731" ht="12.75" customHeight="1"/>
+    <row r="732" ht="12.75" customHeight="1"/>
+    <row r="733" ht="12.75" customHeight="1"/>
+    <row r="734" ht="12.75" customHeight="1"/>
+    <row r="735" ht="12.75" customHeight="1"/>
+    <row r="736" ht="12.75" customHeight="1"/>
+    <row r="737" ht="12.75" customHeight="1"/>
+    <row r="738" ht="12.75" customHeight="1"/>
+    <row r="739" ht="12.75" customHeight="1"/>
+    <row r="740" ht="12.75" customHeight="1"/>
+    <row r="741" ht="12.75" customHeight="1"/>
+    <row r="742" ht="12.75" customHeight="1"/>
+    <row r="743" ht="12.75" customHeight="1"/>
+    <row r="744" ht="12.75" customHeight="1"/>
+    <row r="745" ht="12.75" customHeight="1"/>
+    <row r="746" ht="12.75" customHeight="1"/>
+    <row r="747" ht="12.75" customHeight="1"/>
+    <row r="748" ht="12.75" customHeight="1"/>
+    <row r="749" ht="12.75" customHeight="1"/>
+    <row r="750" ht="12.75" customHeight="1"/>
+    <row r="751" ht="12.75" customHeight="1"/>
+    <row r="752" ht="12.75" customHeight="1"/>
+    <row r="753" ht="12.75" customHeight="1"/>
+    <row r="754" ht="12.75" customHeight="1"/>
+    <row r="755" ht="12.75" customHeight="1"/>
+    <row r="756" ht="12.75" customHeight="1"/>
+    <row r="757" ht="12.75" customHeight="1"/>
+    <row r="758" ht="12.75" customHeight="1"/>
+    <row r="759" ht="12.75" customHeight="1"/>
+    <row r="760" ht="12.75" customHeight="1"/>
+    <row r="761" ht="12.75" customHeight="1"/>
+    <row r="762" ht="12.75" customHeight="1"/>
+    <row r="763" ht="12.75" customHeight="1"/>
+    <row r="764" ht="12.75" customHeight="1"/>
+    <row r="765" ht="12.75" customHeight="1"/>
+    <row r="766" ht="12.75" customHeight="1"/>
+    <row r="767" ht="12.75" customHeight="1"/>
+    <row r="768" ht="12.75" customHeight="1"/>
+    <row r="769" ht="12.75" customHeight="1"/>
+    <row r="770" ht="12.75" customHeight="1"/>
+    <row r="771" ht="12.75" customHeight="1"/>
+    <row r="772" ht="12.75" customHeight="1"/>
+    <row r="773" ht="12.75" customHeight="1"/>
+    <row r="774" ht="12.75" customHeight="1"/>
+    <row r="775" ht="12.75" customHeight="1"/>
+    <row r="776" ht="12.75" customHeight="1"/>
+    <row r="777" ht="12.75" customHeight="1"/>
+    <row r="778" ht="12.75" customHeight="1"/>
+    <row r="779" ht="12.75" customHeight="1"/>
+    <row r="780" ht="12.75" customHeight="1"/>
+    <row r="781" ht="12.75" customHeight="1"/>
+    <row r="782" ht="12.75" customHeight="1"/>
+    <row r="783" ht="12.75" customHeight="1"/>
+    <row r="784" ht="12.75" customHeight="1"/>
+    <row r="785" ht="12.75" customHeight="1"/>
+    <row r="786" ht="12.75" customHeight="1"/>
+    <row r="787" ht="12.75" customHeight="1"/>
+    <row r="788" ht="12.75" customHeight="1"/>
+    <row r="789" ht="12.75" customHeight="1"/>
+    <row r="790" ht="12.75" customHeight="1"/>
+    <row r="791" ht="12.75" customHeight="1"/>
+    <row r="792" ht="12.75" customHeight="1"/>
+    <row r="793" ht="12.75" customHeight="1"/>
+    <row r="794" ht="12.75" customHeight="1"/>
+    <row r="795" ht="12.75" customHeight="1"/>
+    <row r="796" ht="12.75" customHeight="1"/>
+    <row r="797" ht="12.75" customHeight="1"/>
+    <row r="798" ht="12.75" customHeight="1"/>
+    <row r="799" ht="12.75" customHeight="1"/>
+    <row r="800" ht="12.75" customHeight="1"/>
+    <row r="801" ht="12.75" customHeight="1"/>
+    <row r="802" ht="12.75" customHeight="1"/>
+    <row r="803" ht="12.75" customHeight="1"/>
+    <row r="804" ht="12.75" customHeight="1"/>
+    <row r="805" ht="12.75" customHeight="1"/>
+    <row r="806" ht="12.75" customHeight="1"/>
+    <row r="807" ht="12.75" customHeight="1"/>
+    <row r="808" ht="12.75" customHeight="1"/>
+    <row r="809" ht="12.75" customHeight="1"/>
+    <row r="810" ht="12.75" customHeight="1"/>
+    <row r="811" ht="12.75" customHeight="1"/>
+    <row r="812" ht="12.75" customHeight="1"/>
+    <row r="813" ht="12.75" customHeight="1"/>
+    <row r="814" ht="12.75" customHeight="1"/>
+    <row r="815" ht="12.75" customHeight="1"/>
+    <row r="816" ht="12.75" customHeight="1"/>
+    <row r="817" ht="12.75" customHeight="1"/>
+    <row r="818" ht="12.75" customHeight="1"/>
+    <row r="819" ht="12.75" customHeight="1"/>
+    <row r="820" ht="12.75" customHeight="1"/>
+    <row r="821" ht="12.75" customHeight="1"/>
+    <row r="822" ht="12.75" customHeight="1"/>
+    <row r="823" ht="12.75" customHeight="1"/>
+    <row r="824" ht="12.75" customHeight="1"/>
+    <row r="825" ht="12.75" customHeight="1"/>
+    <row r="826" ht="12.75" customHeight="1"/>
+    <row r="827" ht="12.75" customHeight="1"/>
+    <row r="828" ht="12.75" customHeight="1"/>
+    <row r="829" ht="12.75" customHeight="1"/>
+    <row r="830" ht="12.75" customHeight="1"/>
+    <row r="831" ht="12.75" customHeight="1"/>
+    <row r="832" ht="12.75" customHeight="1"/>
+    <row r="833" ht="12.75" customHeight="1"/>
+    <row r="834" ht="12.75" customHeight="1"/>
+    <row r="835" ht="12.75" customHeight="1"/>
+    <row r="836" ht="12.75" customHeight="1"/>
+    <row r="837" ht="12.75" customHeight="1"/>
+    <row r="838" ht="12.75" customHeight="1"/>
+    <row r="839" ht="12.75" customHeight="1"/>
+    <row r="840" ht="12.75" customHeight="1"/>
+    <row r="841" ht="12.75" customHeight="1"/>
+    <row r="842" ht="12.75" customHeight="1"/>
+    <row r="843" ht="12.75" customHeight="1"/>
+    <row r="844" ht="12.75" customHeight="1"/>
+    <row r="845" ht="12.75" customHeight="1"/>
+    <row r="846" ht="12.75" customHeight="1"/>
+    <row r="847" ht="12.75" customHeight="1"/>
+    <row r="848" ht="12.75" customHeight="1"/>
+    <row r="849" ht="12.75" customHeight="1"/>
+    <row r="850" ht="12.75" customHeight="1"/>
+    <row r="851" ht="12.75" customHeight="1"/>
+    <row r="852" ht="12.75" customHeight="1"/>
+    <row r="853" ht="12.75" customHeight="1"/>
+    <row r="854" ht="12.75" customHeight="1"/>
+    <row r="855" ht="12.75" customHeight="1"/>
+    <row r="856" ht="12.75" customHeight="1"/>
+    <row r="857" ht="12.75" customHeight="1"/>
+    <row r="858" ht="12.75" customHeight="1"/>
+    <row r="859" ht="12.75" customHeight="1"/>
+    <row r="860" ht="12.75" customHeight="1"/>
+    <row r="861" ht="12.75" customHeight="1"/>
+    <row r="862" ht="12.75" customHeight="1"/>
+    <row r="863" ht="12.75" customHeight="1"/>
+    <row r="864" ht="12.75" customHeight="1"/>
+    <row r="865" ht="12.75" customHeight="1"/>
+    <row r="866" ht="12.75" customHeight="1"/>
+    <row r="867" ht="12.75" customHeight="1"/>
+    <row r="868" ht="12.75" customHeight="1"/>
+    <row r="869" ht="12.75" customHeight="1"/>
+    <row r="870" ht="12.75" customHeight="1"/>
+    <row r="871" ht="12.75" customHeight="1"/>
+    <row r="872" ht="12.75" customHeight="1"/>
+    <row r="873" ht="12.75" customHeight="1"/>
+    <row r="874" ht="12.75" customHeight="1"/>
+    <row r="875" ht="12.75" customHeight="1"/>
+    <row r="876" ht="12.75" customHeight="1"/>
+    <row r="877" ht="12.75" customHeight="1"/>
+    <row r="878" ht="12.75" customHeight="1"/>
+    <row r="879" ht="12.75" customHeight="1"/>
+    <row r="880" ht="12.75" customHeight="1"/>
+    <row r="881" ht="12.75" customHeight="1"/>
+    <row r="882" ht="12.75" customHeight="1"/>
+    <row r="883" ht="12.75" customHeight="1"/>
+    <row r="884" ht="12.75" customHeight="1"/>
+    <row r="885" ht="12.75" customHeight="1"/>
+    <row r="886" ht="12.75" customHeight="1"/>
+    <row r="887" ht="12.75" customHeight="1"/>
+    <row r="888" ht="12.75" customHeight="1"/>
+    <row r="889" ht="12.75" customHeight="1"/>
+    <row r="890" ht="12.75" customHeight="1"/>
+    <row r="891" ht="12.75" customHeight="1"/>
+    <row r="892" ht="12.75" customHeight="1"/>
+    <row r="893" ht="12.75" customHeight="1"/>
+    <row r="894" ht="12.75" customHeight="1"/>
+    <row r="895" ht="12.75" customHeight="1"/>
+    <row r="896" ht="12.75" customHeight="1"/>
+    <row r="897" ht="12.75" customHeight="1"/>
+    <row r="898" ht="12.75" customHeight="1"/>
+    <row r="899" ht="12.75" customHeight="1"/>
+    <row r="900" ht="12.75" customHeight="1"/>
+    <row r="901" ht="12.75" customHeight="1"/>
+    <row r="902" ht="12.75" customHeight="1"/>
+    <row r="903" ht="12.75" customHeight="1"/>
+    <row r="904" ht="12.75" customHeight="1"/>
+    <row r="905" ht="12.75" customHeight="1"/>
+    <row r="906" ht="12.75" customHeight="1"/>
+    <row r="907" ht="12.75" customHeight="1"/>
+    <row r="908" ht="12.75" customHeight="1"/>
+    <row r="909" ht="12.75" customHeight="1"/>
+    <row r="910" ht="12.75" customHeight="1"/>
+    <row r="911" ht="12.75" customHeight="1"/>
+    <row r="912" ht="12.75" customHeight="1"/>
+    <row r="913" ht="12.75" customHeight="1"/>
+    <row r="914" ht="12.75" customHeight="1"/>
+    <row r="915" ht="12.75" customHeight="1"/>
+    <row r="916" ht="12.75" customHeight="1"/>
+    <row r="917" ht="12.75" customHeight="1"/>
+    <row r="918" ht="12.75" customHeight="1"/>
+    <row r="919" ht="12.75" customHeight="1"/>
+    <row r="920" ht="12.75" customHeight="1"/>
+    <row r="921" ht="12.75" customHeight="1"/>
+    <row r="922" ht="12.75" customHeight="1"/>
+    <row r="923" ht="12.75" customHeight="1"/>
+    <row r="924" ht="12.75" customHeight="1"/>
+    <row r="925" ht="12.75" customHeight="1"/>
+    <row r="926" ht="12.75" customHeight="1"/>
+    <row r="927" ht="12.75" customHeight="1"/>
+    <row r="928" ht="12.75" customHeight="1"/>
+    <row r="929" ht="12.75" customHeight="1"/>
+    <row r="930" ht="12.75" customHeight="1"/>
+    <row r="931" ht="12.75" customHeight="1"/>
+    <row r="932" ht="12.75" customHeight="1"/>
+    <row r="933" ht="12.75" customHeight="1"/>
+    <row r="934" ht="12.75" customHeight="1"/>
+    <row r="935" ht="12.75" customHeight="1"/>
+    <row r="936" ht="12.75" customHeight="1"/>
+    <row r="937" ht="12.75" customHeight="1"/>
+    <row r="938" ht="12.75" customHeight="1"/>
+    <row r="939" ht="12.75" customHeight="1"/>
+    <row r="940" ht="12.75" customHeight="1"/>
+    <row r="941" ht="12.75" customHeight="1"/>
+    <row r="942" ht="12.75" customHeight="1"/>
+    <row r="943" ht="12.75" customHeight="1"/>
+    <row r="944" ht="12.75" customHeight="1"/>
+    <row r="945" ht="12.75" customHeight="1"/>
+    <row r="946" ht="12.75" customHeight="1"/>
+    <row r="947" ht="12.75" customHeight="1"/>
+    <row r="948" ht="12.75" customHeight="1"/>
+    <row r="949" ht="12.75" customHeight="1"/>
+    <row r="950" ht="12.75" customHeight="1"/>
+    <row r="951" ht="12.75" customHeight="1"/>
+    <row r="952" ht="12.75" customHeight="1"/>
+    <row r="953" ht="12.75" customHeight="1"/>
+    <row r="954" ht="12.75" customHeight="1"/>
+    <row r="955" ht="12.75" customHeight="1"/>
+    <row r="956" ht="12.75" customHeight="1"/>
+    <row r="957" ht="12.75" customHeight="1"/>
+    <row r="958" ht="12.75" customHeight="1"/>
+    <row r="959" ht="12.75" customHeight="1"/>
+    <row r="960" ht="12.75" customHeight="1"/>
+    <row r="961" ht="12.75" customHeight="1"/>
+    <row r="962" ht="12.75" customHeight="1"/>
+    <row r="963" ht="12.75" customHeight="1"/>
+    <row r="964" ht="12.75" customHeight="1"/>
+    <row r="965" ht="12.75" customHeight="1"/>
+    <row r="966" ht="12.75" customHeight="1"/>
+    <row r="967" ht="12.75" customHeight="1"/>
+    <row r="968" ht="12.75" customHeight="1"/>
+    <row r="969" ht="12.75" customHeight="1"/>
+    <row r="970" ht="12.75" customHeight="1"/>
+    <row r="971" ht="12.75" customHeight="1"/>
+    <row r="972" ht="12.75" customHeight="1"/>
+    <row r="973" ht="12.75" customHeight="1"/>
+    <row r="974" ht="12.75" customHeight="1"/>
+    <row r="975" ht="12.75" customHeight="1"/>
+    <row r="976" ht="12.75" customHeight="1"/>
+    <row r="977" ht="12.75" customHeight="1"/>
+    <row r="978" ht="12.75" customHeight="1"/>
+    <row r="979" ht="12.75" customHeight="1"/>
+    <row r="980" ht="12.75" customHeight="1"/>
+    <row r="981" ht="12.75" customHeight="1"/>
+    <row r="982" ht="12.75" customHeight="1"/>
+    <row r="983" ht="12.75" customHeight="1"/>
+    <row r="984" ht="12.75" customHeight="1"/>
+    <row r="985" ht="12.75" customHeight="1"/>
+    <row r="986" ht="12.75" customHeight="1"/>
+    <row r="987" ht="12.75" customHeight="1"/>
+    <row r="988" ht="12.75" customHeight="1"/>
+    <row r="989" ht="12.75" customHeight="1"/>
+    <row r="990" ht="12.75" customHeight="1"/>
+    <row r="991" ht="12.75" customHeight="1"/>
+    <row r="992" ht="12.75" customHeight="1"/>
+    <row r="993" ht="12.75" customHeight="1"/>
+    <row r="994" ht="12.75" customHeight="1"/>
+    <row r="995" ht="12.75" customHeight="1"/>
+    <row r="996" ht="12.75" customHeight="1"/>
+    <row r="997" ht="12.75" customHeight="1"/>
+    <row r="998" ht="12.75" customHeight="1"/>
+    <row r="999" ht="12.75" customHeight="1"/>
+    <row r="1000" ht="12.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="70">
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="B45:K45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="M27:N28"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E14:F16"/>
+    <mergeCell ref="G14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="E17:K17"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="B19:K34"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B13:D16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="F9:G10"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:C6"/>
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="B41:D41"/>
+  </mergeCells>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:J11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6882,216 +8624,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="92" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="93"/>
-      <c r="F1" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="93"/>
-      <c r="H1" s="4" t="s">
+      <c r="A1" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="E1" s="96"/>
+      <c r="F1" s="95" t="s">
         <v>7</v>
       </c>
+      <c r="G1" s="96"/>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="117"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="94" t="s">
-        <v>29</v>
+      <c r="A2" s="120"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="97" t="s">
+        <v>33</v>
       </c>
-      <c r="E2" s="95"/>
-      <c r="F2" s="94" t="s">
-        <v>31</v>
+      <c r="E2" s="98"/>
+      <c r="F2" s="97" t="s">
+        <v>35</v>
       </c>
-      <c r="G2" s="95"/>
-      <c r="H2" s="100">
+      <c r="G2" s="98"/>
+      <c r="H2" s="103">
         <v>45632</v>
       </c>
-      <c r="I2" s="103" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="104"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="117"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="105"/>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="118"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="106"/>
-    </row>
-    <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="128"/>
-    </row>
-    <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="108" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="129" t="s">
+      <c r="I2" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="110"/>
-    </row>
-    <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="129" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="110"/>
-    </row>
-    <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="108" t="s">
+      <c r="J2" s="107"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1">
+      <c r="A3" s="120"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="108"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1">
+      <c r="A4" s="121"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="109"/>
+    </row>
+    <row r="5" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A5" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="129" t="s">
-        <v>69</v>
+      <c r="B5" s="124"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="130" t="s">
+        <v>37</v>
       </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="110"/>
-    </row>
-    <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="122" t="s">
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="131"/>
+    </row>
+    <row r="6" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A6" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="107" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="112" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="113"/>
+    </row>
+    <row r="7" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A7" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="109" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="112" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="113"/>
+    </row>
+    <row r="8" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A8" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="112" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="113"/>
+    </row>
+    <row r="9" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A9" s="125" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="110"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="113"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="123"/>
-      <c r="B10" s="107" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="129" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="110"/>
-    </row>
-    <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="124"/>
-      <c r="B11" s="107" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="109" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="110"/>
-    </row>
-    <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="108" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="109" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="110"/>
-    </row>
-    <row r="13" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A13" s="111" t="s">
+      <c r="A10" s="126"/>
+      <c r="B10" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="126"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="112" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="113"/>
+    </row>
+    <row r="11" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A11" s="127"/>
+      <c r="B11" s="110" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="132" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="113"/>
+    </row>
+    <row r="12" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A12" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="132" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="113"/>
+    </row>
+    <row r="13" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A13" s="114" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="115"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="129"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -8116,1774 +9858,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:J1000"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D63" sqref="D63:N104"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="3" width="5.140625" customWidth="1"/>
-    <col min="4" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
-    <col min="9" max="10" width="16.7109375" customWidth="1"/>
-    <col min="11" max="17" width="8.7109375" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" customWidth="1"/>
-    <col min="19" max="19" width="30.5703125" customWidth="1"/>
-    <col min="20" max="20" width="32.28515625" customWidth="1"/>
-    <col min="21" max="21" width="12" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" customWidth="1"/>
-    <col min="23" max="23" width="13" customWidth="1"/>
-    <col min="24" max="24" width="12" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="64"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="151"/>
-      <c r="G2" s="164" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="148"/>
-    </row>
-    <row r="3" spans="1:10" ht="36" customHeight="1">
-      <c r="A3" s="66"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="150"/>
-    </row>
-    <row r="4" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A4" s="66"/>
-      <c r="B4" s="154"/>
-      <c r="C4" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="147"/>
-      <c r="G4" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="146"/>
-    </row>
-    <row r="5" spans="1:10" ht="50.25" customHeight="1">
-      <c r="A5" s="68"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="73" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="146"/>
-    </row>
-    <row r="6" spans="1:10" ht="33.75" customHeight="1">
-      <c r="A6" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="65"/>
-      <c r="G6" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="148"/>
-    </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="68"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="150"/>
-    </row>
-    <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="148"/>
-      <c r="E8" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="151"/>
-      <c r="G8" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="148"/>
-    </row>
-    <row r="9" spans="1:10" ht="21" customHeight="1" thickBot="1">
-      <c r="A9" s="68"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="150"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="81"/>
-      <c r="F10" s="80" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="77"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="88" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="88" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="89"/>
-      <c r="H11" s="91">
-        <v>45632</v>
-      </c>
-      <c r="I11" s="83" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="85"/>
-    </row>
-    <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="77"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="166"/>
-    </row>
-    <row r="13" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A13" s="77"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="167"/>
-    </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="87"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="155" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="156"/>
-    </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="168" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="157"/>
-      <c r="C15" s="157"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="158"/>
-    </row>
-    <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="40"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="42"/>
-    </row>
-    <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="43"/>
-      <c r="B17" s="159"/>
-      <c r="C17" s="159"/>
-      <c r="D17" s="159"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="44"/>
-    </row>
-    <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="43"/>
-      <c r="B18" s="159"/>
-      <c r="C18" s="159"/>
-      <c r="D18" s="159"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="159"/>
-      <c r="J18" s="44"/>
-    </row>
-    <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="43"/>
-      <c r="B19" s="159"/>
-      <c r="C19" s="159"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="159"/>
-      <c r="J19" s="44"/>
-    </row>
-    <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="43"/>
-      <c r="B20" s="159"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="159"/>
-      <c r="I20" s="159"/>
-      <c r="J20" s="44"/>
-    </row>
-    <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="43"/>
-      <c r="B21" s="159"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
-      <c r="H21" s="159"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="44"/>
-    </row>
-    <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="43"/>
-      <c r="B22" s="159"/>
-      <c r="C22" s="159"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="159"/>
-      <c r="I22" s="159"/>
-      <c r="J22" s="44"/>
-    </row>
-    <row r="23" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A23" s="43"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="159"/>
-      <c r="I23" s="159"/>
-      <c r="J23" s="44"/>
-    </row>
-    <row r="24" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A24" s="43"/>
-      <c r="B24" s="159"/>
-      <c r="C24" s="159"/>
-      <c r="D24" s="159"/>
-      <c r="E24" s="159"/>
-      <c r="F24" s="159"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="159"/>
-      <c r="I24" s="159"/>
-      <c r="J24" s="44"/>
-    </row>
-    <row r="25" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A25" s="43"/>
-      <c r="B25" s="159"/>
-      <c r="C25" s="159"/>
-      <c r="D25" s="159"/>
-      <c r="E25" s="159"/>
-      <c r="F25" s="159"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="159"/>
-      <c r="I25" s="159"/>
-      <c r="J25" s="44"/>
-    </row>
-    <row r="26" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A26" s="43"/>
-      <c r="B26" s="159"/>
-      <c r="C26" s="159"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="159"/>
-      <c r="I26" s="159"/>
-      <c r="J26" s="44"/>
-    </row>
-    <row r="27" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A27" s="43"/>
-      <c r="B27" s="159"/>
-      <c r="C27" s="159"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="159"/>
-      <c r="F27" s="159"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="159"/>
-      <c r="I27" s="159"/>
-      <c r="J27" s="44"/>
-    </row>
-    <row r="28" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A28" s="43"/>
-      <c r="B28" s="159"/>
-      <c r="C28" s="159"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="159"/>
-      <c r="F28" s="159"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="159"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="44"/>
-    </row>
-    <row r="29" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A29" s="43"/>
-      <c r="B29" s="159"/>
-      <c r="C29" s="159"/>
-      <c r="D29" s="159"/>
-      <c r="E29" s="159"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="159"/>
-      <c r="I29" s="159"/>
-      <c r="J29" s="44"/>
-    </row>
-    <row r="30" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A30" s="43"/>
-      <c r="B30" s="159"/>
-      <c r="C30" s="159"/>
-      <c r="D30" s="159"/>
-      <c r="E30" s="159"/>
-      <c r="F30" s="159"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="159"/>
-      <c r="I30" s="159"/>
-      <c r="J30" s="44"/>
-    </row>
-    <row r="31" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A31" s="45"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="47"/>
-    </row>
-    <row r="32" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A32" s="168" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="157"/>
-      <c r="C32" s="157"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="157"/>
-      <c r="H32" s="157"/>
-      <c r="I32" s="157"/>
-      <c r="J32" s="158"/>
-    </row>
-    <row r="33" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A33" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="57"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" s="27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A34" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="57"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="157"/>
-      <c r="J34" s="158"/>
-    </row>
-    <row r="35" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A35" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="57"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G35" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H35" s="37"/>
-      <c r="I35" s="160"/>
-      <c r="J35" s="161"/>
-    </row>
-    <row r="36" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A36" s="56"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="25"/>
-    </row>
-    <row r="37" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A37" s="56"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="160"/>
-      <c r="J37" s="161"/>
-    </row>
-    <row r="38" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A38" s="56"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="25"/>
-    </row>
-    <row r="39" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A39" s="56"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="25"/>
-    </row>
-    <row r="40" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A40" s="56"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="160"/>
-      <c r="J40" s="161"/>
-    </row>
-    <row r="41" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A41" s="60"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="35"/>
-    </row>
-    <row r="42" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A42" s="170" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="162"/>
-      <c r="C42" s="162"/>
-      <c r="D42" s="162"/>
-      <c r="E42" s="162"/>
-      <c r="F42" s="162"/>
-      <c r="G42" s="162"/>
-      <c r="H42" s="162"/>
-      <c r="I42" s="162"/>
-      <c r="J42" s="163"/>
-    </row>
-    <row r="43" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A43" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="57"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="J43" s="27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A44" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="57"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="I44" s="157"/>
-      <c r="J44" s="158"/>
-    </row>
-    <row r="45" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A45" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="57"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="F45" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="H45" s="37"/>
-      <c r="I45" s="160"/>
-      <c r="J45" s="161"/>
-    </row>
-    <row r="46" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A46" s="56"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="25"/>
-    </row>
-    <row r="47" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A47" s="56"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="160"/>
-      <c r="J47" s="161"/>
-    </row>
-    <row r="48" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A48" s="56"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="25"/>
-    </row>
-    <row r="49" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A49" s="56"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="25"/>
-    </row>
-    <row r="50" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A50" s="56"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="160"/>
-      <c r="J50" s="161"/>
-    </row>
-    <row r="51" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A51" s="60"/>
-      <c r="B51" s="61"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="35"/>
-    </row>
-    <row r="52" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="53" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="54" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="55" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="56" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="57" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="58" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="59" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="60" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="61" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="62" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="63" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="64" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="65" spans="1:1" ht="12.75" customHeight="1"/>
-    <row r="66" spans="1:1" ht="12.75" customHeight="1"/>
-    <row r="67" spans="1:1" ht="12.75" customHeight="1"/>
-    <row r="68" spans="1:1" ht="12.75" customHeight="1"/>
-    <row r="69" spans="1:1" ht="12.75" customHeight="1"/>
-    <row r="70" spans="1:1" ht="12.75" customHeight="1"/>
-    <row r="71" spans="1:1" ht="12.75" customHeight="1"/>
-    <row r="72" spans="1:1" ht="12.75" customHeight="1">
-      <c r="A72" s="169"/>
-    </row>
-    <row r="73" spans="1:1" ht="12.75" customHeight="1"/>
-    <row r="74" spans="1:1" ht="12.75" customHeight="1"/>
-    <row r="75" spans="1:1" ht="12.75" customHeight="1"/>
-    <row r="76" spans="1:1" ht="12.75" customHeight="1"/>
-    <row r="77" spans="1:1" ht="12.75" customHeight="1"/>
-    <row r="78" spans="1:1" ht="12.75" customHeight="1"/>
-    <row r="79" spans="1:1" ht="12.75" customHeight="1"/>
-    <row r="80" spans="1:1" ht="12.75" customHeight="1"/>
-    <row r="81" ht="12.75" customHeight="1"/>
-    <row r="82" ht="12.75" customHeight="1"/>
-    <row r="83" ht="12.75" customHeight="1"/>
-    <row r="84" ht="12.75" customHeight="1"/>
-    <row r="85" ht="12.75" customHeight="1"/>
-    <row r="86" ht="12.75" customHeight="1"/>
-    <row r="87" ht="12.75" customHeight="1"/>
-    <row r="88" ht="12.75" customHeight="1"/>
-    <row r="89" ht="12.75" customHeight="1"/>
-    <row r="90" ht="12.75" customHeight="1"/>
-    <row r="91" ht="12.75" customHeight="1"/>
-    <row r="92" ht="12.75" customHeight="1"/>
-    <row r="93" ht="12.75" customHeight="1"/>
-    <row r="94" ht="12.75" customHeight="1"/>
-    <row r="95" ht="12.75" customHeight="1"/>
-    <row r="96" ht="12.75" customHeight="1"/>
-    <row r="97" ht="12.75" customHeight="1"/>
-    <row r="98" ht="12.75" customHeight="1"/>
-    <row r="99" ht="12.75" customHeight="1"/>
-    <row r="100" ht="12.75" customHeight="1"/>
-    <row r="101" ht="12.75" customHeight="1"/>
-    <row r="102" ht="12.75" customHeight="1"/>
-    <row r="103" ht="12.75" customHeight="1"/>
-    <row r="104" ht="12.75" customHeight="1"/>
-    <row r="105" ht="12.75" customHeight="1"/>
-    <row r="106" ht="12.75" customHeight="1"/>
-    <row r="107" ht="12.75" customHeight="1"/>
-    <row r="108" ht="12.75" customHeight="1"/>
-    <row r="109" ht="12.75" customHeight="1"/>
-    <row r="110" ht="12.75" customHeight="1"/>
-    <row r="111" ht="12.75" customHeight="1"/>
-    <row r="112" ht="12.75" customHeight="1"/>
-    <row r="113" ht="12.75" customHeight="1"/>
-    <row r="114" ht="12.75" customHeight="1"/>
-    <row r="115" ht="12.75" customHeight="1"/>
-    <row r="116" ht="12.75" customHeight="1"/>
-    <row r="117" ht="12.75" customHeight="1"/>
-    <row r="118" ht="12.75" customHeight="1"/>
-    <row r="119" ht="12.75" customHeight="1"/>
-    <row r="120" ht="12.75" customHeight="1"/>
-    <row r="121" ht="12.75" customHeight="1"/>
-    <row r="122" ht="12.75" customHeight="1"/>
-    <row r="123" ht="12.75" customHeight="1"/>
-    <row r="124" ht="12.75" customHeight="1"/>
-    <row r="125" ht="12.75" customHeight="1"/>
-    <row r="126" ht="12.75" customHeight="1"/>
-    <row r="127" ht="12.75" customHeight="1"/>
-    <row r="128" ht="12.75" customHeight="1"/>
-    <row r="129" ht="12.75" customHeight="1"/>
-    <row r="130" ht="12.75" customHeight="1"/>
-    <row r="131" ht="12.75" customHeight="1"/>
-    <row r="132" ht="12.75" customHeight="1"/>
-    <row r="133" ht="12.75" customHeight="1"/>
-    <row r="134" ht="12.75" customHeight="1"/>
-    <row r="135" ht="12.75" customHeight="1"/>
-    <row r="136" ht="12.75" customHeight="1"/>
-    <row r="137" ht="12.75" customHeight="1"/>
-    <row r="138" ht="12.75" customHeight="1"/>
-    <row r="139" ht="12.75" customHeight="1"/>
-    <row r="140" ht="12.75" customHeight="1"/>
-    <row r="141" ht="12.75" customHeight="1"/>
-    <row r="142" ht="12.75" customHeight="1"/>
-    <row r="143" ht="12.75" customHeight="1"/>
-    <row r="144" ht="12.75" customHeight="1"/>
-    <row r="145" ht="12.75" customHeight="1"/>
-    <row r="146" ht="12.75" customHeight="1"/>
-    <row r="147" ht="12.75" customHeight="1"/>
-    <row r="148" ht="12.75" customHeight="1"/>
-    <row r="149" ht="12.75" customHeight="1"/>
-    <row r="150" ht="12.75" customHeight="1"/>
-    <row r="151" ht="12.75" customHeight="1"/>
-    <row r="152" ht="12.75" customHeight="1"/>
-    <row r="153" ht="12.75" customHeight="1"/>
-    <row r="154" ht="12.75" customHeight="1"/>
-    <row r="155" ht="12.75" customHeight="1"/>
-    <row r="156" ht="12.75" customHeight="1"/>
-    <row r="157" ht="12.75" customHeight="1"/>
-    <row r="158" ht="12.75" customHeight="1"/>
-    <row r="159" ht="12.75" customHeight="1"/>
-    <row r="160" ht="12.75" customHeight="1"/>
-    <row r="161" ht="12.75" customHeight="1"/>
-    <row r="162" ht="12.75" customHeight="1"/>
-    <row r="163" ht="12.75" customHeight="1"/>
-    <row r="164" ht="12.75" customHeight="1"/>
-    <row r="165" ht="12.75" customHeight="1"/>
-    <row r="166" ht="12.75" customHeight="1"/>
-    <row r="167" ht="12.75" customHeight="1"/>
-    <row r="168" ht="12.75" customHeight="1"/>
-    <row r="169" ht="12.75" customHeight="1"/>
-    <row r="170" ht="12.75" customHeight="1"/>
-    <row r="171" ht="12.75" customHeight="1"/>
-    <row r="172" ht="12.75" customHeight="1"/>
-    <row r="173" ht="12.75" customHeight="1"/>
-    <row r="174" ht="12.75" customHeight="1"/>
-    <row r="175" ht="12.75" customHeight="1"/>
-    <row r="176" ht="12.75" customHeight="1"/>
-    <row r="177" ht="12.75" customHeight="1"/>
-    <row r="178" ht="12.75" customHeight="1"/>
-    <row r="179" ht="12.75" customHeight="1"/>
-    <row r="180" ht="12.75" customHeight="1"/>
-    <row r="181" ht="12.75" customHeight="1"/>
-    <row r="182" ht="12.75" customHeight="1"/>
-    <row r="183" ht="12.75" customHeight="1"/>
-    <row r="184" ht="12.75" customHeight="1"/>
-    <row r="185" ht="12.75" customHeight="1"/>
-    <row r="186" ht="12.75" customHeight="1"/>
-    <row r="187" ht="12.75" customHeight="1"/>
-    <row r="188" ht="12.75" customHeight="1"/>
-    <row r="189" ht="12.75" customHeight="1"/>
-    <row r="190" ht="12.75" customHeight="1"/>
-    <row r="191" ht="12.75" customHeight="1"/>
-    <row r="192" ht="12.75" customHeight="1"/>
-    <row r="193" ht="12.75" customHeight="1"/>
-    <row r="194" ht="12.75" customHeight="1"/>
-    <row r="195" ht="12.75" customHeight="1"/>
-    <row r="196" ht="12.75" customHeight="1"/>
-    <row r="197" ht="12.75" customHeight="1"/>
-    <row r="198" ht="12.75" customHeight="1"/>
-    <row r="199" ht="12.75" customHeight="1"/>
-    <row r="200" ht="12.75" customHeight="1"/>
-    <row r="201" ht="12.75" customHeight="1"/>
-    <row r="202" ht="12.75" customHeight="1"/>
-    <row r="203" ht="12.75" customHeight="1"/>
-    <row r="204" ht="12.75" customHeight="1"/>
-    <row r="205" ht="12.75" customHeight="1"/>
-    <row r="206" ht="12.75" customHeight="1"/>
-    <row r="207" ht="12.75" customHeight="1"/>
-    <row r="208" ht="12.75" customHeight="1"/>
-    <row r="209" ht="12.75" customHeight="1"/>
-    <row r="210" ht="12.75" customHeight="1"/>
-    <row r="211" ht="12.75" customHeight="1"/>
-    <row r="212" ht="12.75" customHeight="1"/>
-    <row r="213" ht="12.75" customHeight="1"/>
-    <row r="214" ht="12.75" customHeight="1"/>
-    <row r="215" ht="12.75" customHeight="1"/>
-    <row r="216" ht="12.75" customHeight="1"/>
-    <row r="217" ht="12.75" customHeight="1"/>
-    <row r="218" ht="12.75" customHeight="1"/>
-    <row r="219" ht="12.75" customHeight="1"/>
-    <row r="220" ht="12.75" customHeight="1"/>
-    <row r="221" ht="12.75" customHeight="1"/>
-    <row r="222" ht="12.75" customHeight="1"/>
-    <row r="223" ht="12.75" customHeight="1"/>
-    <row r="224" ht="12.75" customHeight="1"/>
-    <row r="225" ht="12.75" customHeight="1"/>
-    <row r="226" ht="12.75" customHeight="1"/>
-    <row r="227" ht="12.75" customHeight="1"/>
-    <row r="228" ht="12.75" customHeight="1"/>
-    <row r="229" ht="12.75" customHeight="1"/>
-    <row r="230" ht="12.75" customHeight="1"/>
-    <row r="231" ht="12.75" customHeight="1"/>
-    <row r="232" ht="12.75" customHeight="1"/>
-    <row r="233" ht="12.75" customHeight="1"/>
-    <row r="234" ht="12.75" customHeight="1"/>
-    <row r="235" ht="12.75" customHeight="1"/>
-    <row r="236" ht="12.75" customHeight="1"/>
-    <row r="237" ht="12.75" customHeight="1"/>
-    <row r="238" ht="12.75" customHeight="1"/>
-    <row r="239" ht="12.75" customHeight="1"/>
-    <row r="240" ht="12.75" customHeight="1"/>
-    <row r="241" ht="12.75" customHeight="1"/>
-    <row r="242" ht="12.75" customHeight="1"/>
-    <row r="243" ht="12.75" customHeight="1"/>
-    <row r="244" ht="12.75" customHeight="1"/>
-    <row r="245" ht="12.75" customHeight="1"/>
-    <row r="246" ht="12.75" customHeight="1"/>
-    <row r="247" ht="12.75" customHeight="1"/>
-    <row r="248" ht="12.75" customHeight="1"/>
-    <row r="249" ht="12.75" customHeight="1"/>
-    <row r="250" ht="12.75" customHeight="1"/>
-    <row r="251" ht="12.75" customHeight="1"/>
-    <row r="252" ht="12.75" customHeight="1"/>
-    <row r="253" ht="12.75" customHeight="1"/>
-    <row r="254" ht="12.75" customHeight="1"/>
-    <row r="255" ht="12.75" customHeight="1"/>
-    <row r="256" ht="12.75" customHeight="1"/>
-    <row r="257" ht="12.75" customHeight="1"/>
-    <row r="258" ht="12.75" customHeight="1"/>
-    <row r="259" ht="12.75" customHeight="1"/>
-    <row r="260" ht="12.75" customHeight="1"/>
-    <row r="261" ht="12.75" customHeight="1"/>
-    <row r="262" ht="12.75" customHeight="1"/>
-    <row r="263" ht="12.75" customHeight="1"/>
-    <row r="264" ht="12.75" customHeight="1"/>
-    <row r="265" ht="12.75" customHeight="1"/>
-    <row r="266" ht="12.75" customHeight="1"/>
-    <row r="267" ht="12.75" customHeight="1"/>
-    <row r="268" ht="12.75" customHeight="1"/>
-    <row r="269" ht="12.75" customHeight="1"/>
-    <row r="270" ht="12.75" customHeight="1"/>
-    <row r="271" ht="12.75" customHeight="1"/>
-    <row r="272" ht="12.75" customHeight="1"/>
-    <row r="273" ht="12.75" customHeight="1"/>
-    <row r="274" ht="12.75" customHeight="1"/>
-    <row r="275" ht="12.75" customHeight="1"/>
-    <row r="276" ht="12.75" customHeight="1"/>
-    <row r="277" ht="12.75" customHeight="1"/>
-    <row r="278" ht="12.75" customHeight="1"/>
-    <row r="279" ht="12.75" customHeight="1"/>
-    <row r="280" ht="12.75" customHeight="1"/>
-    <row r="281" ht="12.75" customHeight="1"/>
-    <row r="282" ht="12.75" customHeight="1"/>
-    <row r="283" ht="12.75" customHeight="1"/>
-    <row r="284" ht="12.75" customHeight="1"/>
-    <row r="285" ht="12.75" customHeight="1"/>
-    <row r="286" ht="12.75" customHeight="1"/>
-    <row r="287" ht="12.75" customHeight="1"/>
-    <row r="288" ht="12.75" customHeight="1"/>
-    <row r="289" ht="12.75" customHeight="1"/>
-    <row r="290" ht="12.75" customHeight="1"/>
-    <row r="291" ht="12.75" customHeight="1"/>
-    <row r="292" ht="12.75" customHeight="1"/>
-    <row r="293" ht="12.75" customHeight="1"/>
-    <row r="294" ht="12.75" customHeight="1"/>
-    <row r="295" ht="12.75" customHeight="1"/>
-    <row r="296" ht="12.75" customHeight="1"/>
-    <row r="297" ht="12.75" customHeight="1"/>
-    <row r="298" ht="12.75" customHeight="1"/>
-    <row r="299" ht="12.75" customHeight="1"/>
-    <row r="300" ht="12.75" customHeight="1"/>
-    <row r="301" ht="12.75" customHeight="1"/>
-    <row r="302" ht="12.75" customHeight="1"/>
-    <row r="303" ht="12.75" customHeight="1"/>
-    <row r="304" ht="12.75" customHeight="1"/>
-    <row r="305" ht="12.75" customHeight="1"/>
-    <row r="306" ht="12.75" customHeight="1"/>
-    <row r="307" ht="12.75" customHeight="1"/>
-    <row r="308" ht="12.75" customHeight="1"/>
-    <row r="309" ht="12.75" customHeight="1"/>
-    <row r="310" ht="12.75" customHeight="1"/>
-    <row r="311" ht="12.75" customHeight="1"/>
-    <row r="312" ht="12.75" customHeight="1"/>
-    <row r="313" ht="12.75" customHeight="1"/>
-    <row r="314" ht="12.75" customHeight="1"/>
-    <row r="315" ht="12.75" customHeight="1"/>
-    <row r="316" ht="12.75" customHeight="1"/>
-    <row r="317" ht="12.75" customHeight="1"/>
-    <row r="318" ht="12.75" customHeight="1"/>
-    <row r="319" ht="12.75" customHeight="1"/>
-    <row r="320" ht="12.75" customHeight="1"/>
-    <row r="321" ht="12.75" customHeight="1"/>
-    <row r="322" ht="12.75" customHeight="1"/>
-    <row r="323" ht="12.75" customHeight="1"/>
-    <row r="324" ht="12.75" customHeight="1"/>
-    <row r="325" ht="12.75" customHeight="1"/>
-    <row r="326" ht="12.75" customHeight="1"/>
-    <row r="327" ht="12.75" customHeight="1"/>
-    <row r="328" ht="12.75" customHeight="1"/>
-    <row r="329" ht="12.75" customHeight="1"/>
-    <row r="330" ht="12.75" customHeight="1"/>
-    <row r="331" ht="12.75" customHeight="1"/>
-    <row r="332" ht="12.75" customHeight="1"/>
-    <row r="333" ht="12.75" customHeight="1"/>
-    <row r="334" ht="12.75" customHeight="1"/>
-    <row r="335" ht="12.75" customHeight="1"/>
-    <row r="336" ht="12.75" customHeight="1"/>
-    <row r="337" ht="12.75" customHeight="1"/>
-    <row r="338" ht="12.75" customHeight="1"/>
-    <row r="339" ht="12.75" customHeight="1"/>
-    <row r="340" ht="12.75" customHeight="1"/>
-    <row r="341" ht="12.75" customHeight="1"/>
-    <row r="342" ht="12.75" customHeight="1"/>
-    <row r="343" ht="12.75" customHeight="1"/>
-    <row r="344" ht="12.75" customHeight="1"/>
-    <row r="345" ht="12.75" customHeight="1"/>
-    <row r="346" ht="12.75" customHeight="1"/>
-    <row r="347" ht="12.75" customHeight="1"/>
-    <row r="348" ht="12.75" customHeight="1"/>
-    <row r="349" ht="12.75" customHeight="1"/>
-    <row r="350" ht="12.75" customHeight="1"/>
-    <row r="351" ht="12.75" customHeight="1"/>
-    <row r="352" ht="12.75" customHeight="1"/>
-    <row r="353" ht="12.75" customHeight="1"/>
-    <row r="354" ht="12.75" customHeight="1"/>
-    <row r="355" ht="12.75" customHeight="1"/>
-    <row r="356" ht="12.75" customHeight="1"/>
-    <row r="357" ht="12.75" customHeight="1"/>
-    <row r="358" ht="12.75" customHeight="1"/>
-    <row r="359" ht="12.75" customHeight="1"/>
-    <row r="360" ht="12.75" customHeight="1"/>
-    <row r="361" ht="12.75" customHeight="1"/>
-    <row r="362" ht="12.75" customHeight="1"/>
-    <row r="363" ht="12.75" customHeight="1"/>
-    <row r="364" ht="12.75" customHeight="1"/>
-    <row r="365" ht="12.75" customHeight="1"/>
-    <row r="366" ht="12.75" customHeight="1"/>
-    <row r="367" ht="12.75" customHeight="1"/>
-    <row r="368" ht="12.75" customHeight="1"/>
-    <row r="369" ht="12.75" customHeight="1"/>
-    <row r="370" ht="12.75" customHeight="1"/>
-    <row r="371" ht="12.75" customHeight="1"/>
-    <row r="372" ht="12.75" customHeight="1"/>
-    <row r="373" ht="12.75" customHeight="1"/>
-    <row r="374" ht="12.75" customHeight="1"/>
-    <row r="375" ht="12.75" customHeight="1"/>
-    <row r="376" ht="12.75" customHeight="1"/>
-    <row r="377" ht="12.75" customHeight="1"/>
-    <row r="378" ht="12.75" customHeight="1"/>
-    <row r="379" ht="12.75" customHeight="1"/>
-    <row r="380" ht="12.75" customHeight="1"/>
-    <row r="381" ht="12.75" customHeight="1"/>
-    <row r="382" ht="12.75" customHeight="1"/>
-    <row r="383" ht="12.75" customHeight="1"/>
-    <row r="384" ht="12.75" customHeight="1"/>
-    <row r="385" ht="12.75" customHeight="1"/>
-    <row r="386" ht="12.75" customHeight="1"/>
-    <row r="387" ht="12.75" customHeight="1"/>
-    <row r="388" ht="12.75" customHeight="1"/>
-    <row r="389" ht="12.75" customHeight="1"/>
-    <row r="390" ht="12.75" customHeight="1"/>
-    <row r="391" ht="12.75" customHeight="1"/>
-    <row r="392" ht="12.75" customHeight="1"/>
-    <row r="393" ht="12.75" customHeight="1"/>
-    <row r="394" ht="12.75" customHeight="1"/>
-    <row r="395" ht="12.75" customHeight="1"/>
-    <row r="396" ht="12.75" customHeight="1"/>
-    <row r="397" ht="12.75" customHeight="1"/>
-    <row r="398" ht="12.75" customHeight="1"/>
-    <row r="399" ht="12.75" customHeight="1"/>
-    <row r="400" ht="12.75" customHeight="1"/>
-    <row r="401" ht="12.75" customHeight="1"/>
-    <row r="402" ht="12.75" customHeight="1"/>
-    <row r="403" ht="12.75" customHeight="1"/>
-    <row r="404" ht="12.75" customHeight="1"/>
-    <row r="405" ht="12.75" customHeight="1"/>
-    <row r="406" ht="12.75" customHeight="1"/>
-    <row r="407" ht="12.75" customHeight="1"/>
-    <row r="408" ht="12.75" customHeight="1"/>
-    <row r="409" ht="12.75" customHeight="1"/>
-    <row r="410" ht="12.75" customHeight="1"/>
-    <row r="411" ht="12.75" customHeight="1"/>
-    <row r="412" ht="12.75" customHeight="1"/>
-    <row r="413" ht="12.75" customHeight="1"/>
-    <row r="414" ht="12.75" customHeight="1"/>
-    <row r="415" ht="12.75" customHeight="1"/>
-    <row r="416" ht="12.75" customHeight="1"/>
-    <row r="417" ht="12.75" customHeight="1"/>
-    <row r="418" ht="12.75" customHeight="1"/>
-    <row r="419" ht="12.75" customHeight="1"/>
-    <row r="420" ht="12.75" customHeight="1"/>
-    <row r="421" ht="12.75" customHeight="1"/>
-    <row r="422" ht="12.75" customHeight="1"/>
-    <row r="423" ht="12.75" customHeight="1"/>
-    <row r="424" ht="12.75" customHeight="1"/>
-    <row r="425" ht="12.75" customHeight="1"/>
-    <row r="426" ht="12.75" customHeight="1"/>
-    <row r="427" ht="12.75" customHeight="1"/>
-    <row r="428" ht="12.75" customHeight="1"/>
-    <row r="429" ht="12.75" customHeight="1"/>
-    <row r="430" ht="12.75" customHeight="1"/>
-    <row r="431" ht="12.75" customHeight="1"/>
-    <row r="432" ht="12.75" customHeight="1"/>
-    <row r="433" ht="12.75" customHeight="1"/>
-    <row r="434" ht="12.75" customHeight="1"/>
-    <row r="435" ht="12.75" customHeight="1"/>
-    <row r="436" ht="12.75" customHeight="1"/>
-    <row r="437" ht="12.75" customHeight="1"/>
-    <row r="438" ht="12.75" customHeight="1"/>
-    <row r="439" ht="12.75" customHeight="1"/>
-    <row r="440" ht="12.75" customHeight="1"/>
-    <row r="441" ht="12.75" customHeight="1"/>
-    <row r="442" ht="12.75" customHeight="1"/>
-    <row r="443" ht="12.75" customHeight="1"/>
-    <row r="444" ht="12.75" customHeight="1"/>
-    <row r="445" ht="12.75" customHeight="1"/>
-    <row r="446" ht="12.75" customHeight="1"/>
-    <row r="447" ht="12.75" customHeight="1"/>
-    <row r="448" ht="12.75" customHeight="1"/>
-    <row r="449" ht="12.75" customHeight="1"/>
-    <row r="450" ht="12.75" customHeight="1"/>
-    <row r="451" ht="12.75" customHeight="1"/>
-    <row r="452" ht="12.75" customHeight="1"/>
-    <row r="453" ht="12.75" customHeight="1"/>
-    <row r="454" ht="12.75" customHeight="1"/>
-    <row r="455" ht="12.75" customHeight="1"/>
-    <row r="456" ht="12.75" customHeight="1"/>
-    <row r="457" ht="12.75" customHeight="1"/>
-    <row r="458" ht="12.75" customHeight="1"/>
-    <row r="459" ht="12.75" customHeight="1"/>
-    <row r="460" ht="12.75" customHeight="1"/>
-    <row r="461" ht="12.75" customHeight="1"/>
-    <row r="462" ht="12.75" customHeight="1"/>
-    <row r="463" ht="12.75" customHeight="1"/>
-    <row r="464" ht="12.75" customHeight="1"/>
-    <row r="465" ht="12.75" customHeight="1"/>
-    <row r="466" ht="12.75" customHeight="1"/>
-    <row r="467" ht="12.75" customHeight="1"/>
-    <row r="468" ht="12.75" customHeight="1"/>
-    <row r="469" ht="12.75" customHeight="1"/>
-    <row r="470" ht="12.75" customHeight="1"/>
-    <row r="471" ht="12.75" customHeight="1"/>
-    <row r="472" ht="12.75" customHeight="1"/>
-    <row r="473" ht="12.75" customHeight="1"/>
-    <row r="474" ht="12.75" customHeight="1"/>
-    <row r="475" ht="12.75" customHeight="1"/>
-    <row r="476" ht="12.75" customHeight="1"/>
-    <row r="477" ht="12.75" customHeight="1"/>
-    <row r="478" ht="12.75" customHeight="1"/>
-    <row r="479" ht="12.75" customHeight="1"/>
-    <row r="480" ht="12.75" customHeight="1"/>
-    <row r="481" ht="12.75" customHeight="1"/>
-    <row r="482" ht="12.75" customHeight="1"/>
-    <row r="483" ht="12.75" customHeight="1"/>
-    <row r="484" ht="12.75" customHeight="1"/>
-    <row r="485" ht="12.75" customHeight="1"/>
-    <row r="486" ht="12.75" customHeight="1"/>
-    <row r="487" ht="12.75" customHeight="1"/>
-    <row r="488" ht="12.75" customHeight="1"/>
-    <row r="489" ht="12.75" customHeight="1"/>
-    <row r="490" ht="12.75" customHeight="1"/>
-    <row r="491" ht="12.75" customHeight="1"/>
-    <row r="492" ht="12.75" customHeight="1"/>
-    <row r="493" ht="12.75" customHeight="1"/>
-    <row r="494" ht="12.75" customHeight="1"/>
-    <row r="495" ht="12.75" customHeight="1"/>
-    <row r="496" ht="12.75" customHeight="1"/>
-    <row r="497" ht="12.75" customHeight="1"/>
-    <row r="498" ht="12.75" customHeight="1"/>
-    <row r="499" ht="12.75" customHeight="1"/>
-    <row r="500" ht="12.75" customHeight="1"/>
-    <row r="501" ht="12.75" customHeight="1"/>
-    <row r="502" ht="12.75" customHeight="1"/>
-    <row r="503" ht="12.75" customHeight="1"/>
-    <row r="504" ht="12.75" customHeight="1"/>
-    <row r="505" ht="12.75" customHeight="1"/>
-    <row r="506" ht="12.75" customHeight="1"/>
-    <row r="507" ht="12.75" customHeight="1"/>
-    <row r="508" ht="12.75" customHeight="1"/>
-    <row r="509" ht="12.75" customHeight="1"/>
-    <row r="510" ht="12.75" customHeight="1"/>
-    <row r="511" ht="12.75" customHeight="1"/>
-    <row r="512" ht="12.75" customHeight="1"/>
-    <row r="513" ht="12.75" customHeight="1"/>
-    <row r="514" ht="12.75" customHeight="1"/>
-    <row r="515" ht="12.75" customHeight="1"/>
-    <row r="516" ht="12.75" customHeight="1"/>
-    <row r="517" ht="12.75" customHeight="1"/>
-    <row r="518" ht="12.75" customHeight="1"/>
-    <row r="519" ht="12.75" customHeight="1"/>
-    <row r="520" ht="12.75" customHeight="1"/>
-    <row r="521" ht="12.75" customHeight="1"/>
-    <row r="522" ht="12.75" customHeight="1"/>
-    <row r="523" ht="12.75" customHeight="1"/>
-    <row r="524" ht="12.75" customHeight="1"/>
-    <row r="525" ht="12.75" customHeight="1"/>
-    <row r="526" ht="12.75" customHeight="1"/>
-    <row r="527" ht="12.75" customHeight="1"/>
-    <row r="528" ht="12.75" customHeight="1"/>
-    <row r="529" ht="12.75" customHeight="1"/>
-    <row r="530" ht="12.75" customHeight="1"/>
-    <row r="531" ht="12.75" customHeight="1"/>
-    <row r="532" ht="12.75" customHeight="1"/>
-    <row r="533" ht="12.75" customHeight="1"/>
-    <row r="534" ht="12.75" customHeight="1"/>
-    <row r="535" ht="12.75" customHeight="1"/>
-    <row r="536" ht="12.75" customHeight="1"/>
-    <row r="537" ht="12.75" customHeight="1"/>
-    <row r="538" ht="12.75" customHeight="1"/>
-    <row r="539" ht="12.75" customHeight="1"/>
-    <row r="540" ht="12.75" customHeight="1"/>
-    <row r="541" ht="12.75" customHeight="1"/>
-    <row r="542" ht="12.75" customHeight="1"/>
-    <row r="543" ht="12.75" customHeight="1"/>
-    <row r="544" ht="12.75" customHeight="1"/>
-    <row r="545" ht="12.75" customHeight="1"/>
-    <row r="546" ht="12.75" customHeight="1"/>
-    <row r="547" ht="12.75" customHeight="1"/>
-    <row r="548" ht="12.75" customHeight="1"/>
-    <row r="549" ht="12.75" customHeight="1"/>
-    <row r="550" ht="12.75" customHeight="1"/>
-    <row r="551" ht="12.75" customHeight="1"/>
-    <row r="552" ht="12.75" customHeight="1"/>
-    <row r="553" ht="12.75" customHeight="1"/>
-    <row r="554" ht="12.75" customHeight="1"/>
-    <row r="555" ht="12.75" customHeight="1"/>
-    <row r="556" ht="12.75" customHeight="1"/>
-    <row r="557" ht="12.75" customHeight="1"/>
-    <row r="558" ht="12.75" customHeight="1"/>
-    <row r="559" ht="12.75" customHeight="1"/>
-    <row r="560" ht="12.75" customHeight="1"/>
-    <row r="561" ht="12.75" customHeight="1"/>
-    <row r="562" ht="12.75" customHeight="1"/>
-    <row r="563" ht="12.75" customHeight="1"/>
-    <row r="564" ht="12.75" customHeight="1"/>
-    <row r="565" ht="12.75" customHeight="1"/>
-    <row r="566" ht="12.75" customHeight="1"/>
-    <row r="567" ht="12.75" customHeight="1"/>
-    <row r="568" ht="12.75" customHeight="1"/>
-    <row r="569" ht="12.75" customHeight="1"/>
-    <row r="570" ht="12.75" customHeight="1"/>
-    <row r="571" ht="12.75" customHeight="1"/>
-    <row r="572" ht="12.75" customHeight="1"/>
-    <row r="573" ht="12.75" customHeight="1"/>
-    <row r="574" ht="12.75" customHeight="1"/>
-    <row r="575" ht="12.75" customHeight="1"/>
-    <row r="576" ht="12.75" customHeight="1"/>
-    <row r="577" ht="12.75" customHeight="1"/>
-    <row r="578" ht="12.75" customHeight="1"/>
-    <row r="579" ht="12.75" customHeight="1"/>
-    <row r="580" ht="12.75" customHeight="1"/>
-    <row r="581" ht="12.75" customHeight="1"/>
-    <row r="582" ht="12.75" customHeight="1"/>
-    <row r="583" ht="12.75" customHeight="1"/>
-    <row r="584" ht="12.75" customHeight="1"/>
-    <row r="585" ht="12.75" customHeight="1"/>
-    <row r="586" ht="12.75" customHeight="1"/>
-    <row r="587" ht="12.75" customHeight="1"/>
-    <row r="588" ht="12.75" customHeight="1"/>
-    <row r="589" ht="12.75" customHeight="1"/>
-    <row r="590" ht="12.75" customHeight="1"/>
-    <row r="591" ht="12.75" customHeight="1"/>
-    <row r="592" ht="12.75" customHeight="1"/>
-    <row r="593" ht="12.75" customHeight="1"/>
-    <row r="594" ht="12.75" customHeight="1"/>
-    <row r="595" ht="12.75" customHeight="1"/>
-    <row r="596" ht="12.75" customHeight="1"/>
-    <row r="597" ht="12.75" customHeight="1"/>
-    <row r="598" ht="12.75" customHeight="1"/>
-    <row r="599" ht="12.75" customHeight="1"/>
-    <row r="600" ht="12.75" customHeight="1"/>
-    <row r="601" ht="12.75" customHeight="1"/>
-    <row r="602" ht="12.75" customHeight="1"/>
-    <row r="603" ht="12.75" customHeight="1"/>
-    <row r="604" ht="12.75" customHeight="1"/>
-    <row r="605" ht="12.75" customHeight="1"/>
-    <row r="606" ht="12.75" customHeight="1"/>
-    <row r="607" ht="12.75" customHeight="1"/>
-    <row r="608" ht="12.75" customHeight="1"/>
-    <row r="609" ht="12.75" customHeight="1"/>
-    <row r="610" ht="12.75" customHeight="1"/>
-    <row r="611" ht="12.75" customHeight="1"/>
-    <row r="612" ht="12.75" customHeight="1"/>
-    <row r="613" ht="12.75" customHeight="1"/>
-    <row r="614" ht="12.75" customHeight="1"/>
-    <row r="615" ht="12.75" customHeight="1"/>
-    <row r="616" ht="12.75" customHeight="1"/>
-    <row r="617" ht="12.75" customHeight="1"/>
-    <row r="618" ht="12.75" customHeight="1"/>
-    <row r="619" ht="12.75" customHeight="1"/>
-    <row r="620" ht="12.75" customHeight="1"/>
-    <row r="621" ht="12.75" customHeight="1"/>
-    <row r="622" ht="12.75" customHeight="1"/>
-    <row r="623" ht="12.75" customHeight="1"/>
-    <row r="624" ht="12.75" customHeight="1"/>
-    <row r="625" ht="12.75" customHeight="1"/>
-    <row r="626" ht="12.75" customHeight="1"/>
-    <row r="627" ht="12.75" customHeight="1"/>
-    <row r="628" ht="12.75" customHeight="1"/>
-    <row r="629" ht="12.75" customHeight="1"/>
-    <row r="630" ht="12.75" customHeight="1"/>
-    <row r="631" ht="12.75" customHeight="1"/>
-    <row r="632" ht="12.75" customHeight="1"/>
-    <row r="633" ht="12.75" customHeight="1"/>
-    <row r="634" ht="12.75" customHeight="1"/>
-    <row r="635" ht="12.75" customHeight="1"/>
-    <row r="636" ht="12.75" customHeight="1"/>
-    <row r="637" ht="12.75" customHeight="1"/>
-    <row r="638" ht="12.75" customHeight="1"/>
-    <row r="639" ht="12.75" customHeight="1"/>
-    <row r="640" ht="12.75" customHeight="1"/>
-    <row r="641" ht="12.75" customHeight="1"/>
-    <row r="642" ht="12.75" customHeight="1"/>
-    <row r="643" ht="12.75" customHeight="1"/>
-    <row r="644" ht="12.75" customHeight="1"/>
-    <row r="645" ht="12.75" customHeight="1"/>
-    <row r="646" ht="12.75" customHeight="1"/>
-    <row r="647" ht="12.75" customHeight="1"/>
-    <row r="648" ht="12.75" customHeight="1"/>
-    <row r="649" ht="12.75" customHeight="1"/>
-    <row r="650" ht="12.75" customHeight="1"/>
-    <row r="651" ht="12.75" customHeight="1"/>
-    <row r="652" ht="12.75" customHeight="1"/>
-    <row r="653" ht="12.75" customHeight="1"/>
-    <row r="654" ht="12.75" customHeight="1"/>
-    <row r="655" ht="12.75" customHeight="1"/>
-    <row r="656" ht="12.75" customHeight="1"/>
-    <row r="657" ht="12.75" customHeight="1"/>
-    <row r="658" ht="12.75" customHeight="1"/>
-    <row r="659" ht="12.75" customHeight="1"/>
-    <row r="660" ht="12.75" customHeight="1"/>
-    <row r="661" ht="12.75" customHeight="1"/>
-    <row r="662" ht="12.75" customHeight="1"/>
-    <row r="663" ht="12.75" customHeight="1"/>
-    <row r="664" ht="12.75" customHeight="1"/>
-    <row r="665" ht="12.75" customHeight="1"/>
-    <row r="666" ht="12.75" customHeight="1"/>
-    <row r="667" ht="12.75" customHeight="1"/>
-    <row r="668" ht="12.75" customHeight="1"/>
-    <row r="669" ht="12.75" customHeight="1"/>
-    <row r="670" ht="12.75" customHeight="1"/>
-    <row r="671" ht="12.75" customHeight="1"/>
-    <row r="672" ht="12.75" customHeight="1"/>
-    <row r="673" ht="12.75" customHeight="1"/>
-    <row r="674" ht="12.75" customHeight="1"/>
-    <row r="675" ht="12.75" customHeight="1"/>
-    <row r="676" ht="12.75" customHeight="1"/>
-    <row r="677" ht="12.75" customHeight="1"/>
-    <row r="678" ht="12.75" customHeight="1"/>
-    <row r="679" ht="12.75" customHeight="1"/>
-    <row r="680" ht="12.75" customHeight="1"/>
-    <row r="681" ht="12.75" customHeight="1"/>
-    <row r="682" ht="12.75" customHeight="1"/>
-    <row r="683" ht="12.75" customHeight="1"/>
-    <row r="684" ht="12.75" customHeight="1"/>
-    <row r="685" ht="12.75" customHeight="1"/>
-    <row r="686" ht="12.75" customHeight="1"/>
-    <row r="687" ht="12.75" customHeight="1"/>
-    <row r="688" ht="12.75" customHeight="1"/>
-    <row r="689" ht="12.75" customHeight="1"/>
-    <row r="690" ht="12.75" customHeight="1"/>
-    <row r="691" ht="12.75" customHeight="1"/>
-    <row r="692" ht="12.75" customHeight="1"/>
-    <row r="693" ht="12.75" customHeight="1"/>
-    <row r="694" ht="12.75" customHeight="1"/>
-    <row r="695" ht="12.75" customHeight="1"/>
-    <row r="696" ht="12.75" customHeight="1"/>
-    <row r="697" ht="12.75" customHeight="1"/>
-    <row r="698" ht="12.75" customHeight="1"/>
-    <row r="699" ht="12.75" customHeight="1"/>
-    <row r="700" ht="12.75" customHeight="1"/>
-    <row r="701" ht="12.75" customHeight="1"/>
-    <row r="702" ht="12.75" customHeight="1"/>
-    <row r="703" ht="12.75" customHeight="1"/>
-    <row r="704" ht="12.75" customHeight="1"/>
-    <row r="705" ht="12.75" customHeight="1"/>
-    <row r="706" ht="12.75" customHeight="1"/>
-    <row r="707" ht="12.75" customHeight="1"/>
-    <row r="708" ht="12.75" customHeight="1"/>
-    <row r="709" ht="12.75" customHeight="1"/>
-    <row r="710" ht="12.75" customHeight="1"/>
-    <row r="711" ht="12.75" customHeight="1"/>
-    <row r="712" ht="12.75" customHeight="1"/>
-    <row r="713" ht="12.75" customHeight="1"/>
-    <row r="714" ht="12.75" customHeight="1"/>
-    <row r="715" ht="12.75" customHeight="1"/>
-    <row r="716" ht="12.75" customHeight="1"/>
-    <row r="717" ht="12.75" customHeight="1"/>
-    <row r="718" ht="12.75" customHeight="1"/>
-    <row r="719" ht="12.75" customHeight="1"/>
-    <row r="720" ht="12.75" customHeight="1"/>
-    <row r="721" ht="12.75" customHeight="1"/>
-    <row r="722" ht="12.75" customHeight="1"/>
-    <row r="723" ht="12.75" customHeight="1"/>
-    <row r="724" ht="12.75" customHeight="1"/>
-    <row r="725" ht="12.75" customHeight="1"/>
-    <row r="726" ht="12.75" customHeight="1"/>
-    <row r="727" ht="12.75" customHeight="1"/>
-    <row r="728" ht="12.75" customHeight="1"/>
-    <row r="729" ht="12.75" customHeight="1"/>
-    <row r="730" ht="12.75" customHeight="1"/>
-    <row r="731" ht="12.75" customHeight="1"/>
-    <row r="732" ht="12.75" customHeight="1"/>
-    <row r="733" ht="12.75" customHeight="1"/>
-    <row r="734" ht="12.75" customHeight="1"/>
-    <row r="735" ht="12.75" customHeight="1"/>
-    <row r="736" ht="12.75" customHeight="1"/>
-    <row r="737" ht="12.75" customHeight="1"/>
-    <row r="738" ht="12.75" customHeight="1"/>
-    <row r="739" ht="12.75" customHeight="1"/>
-    <row r="740" ht="12.75" customHeight="1"/>
-    <row r="741" ht="12.75" customHeight="1"/>
-    <row r="742" ht="12.75" customHeight="1"/>
-    <row r="743" ht="12.75" customHeight="1"/>
-    <row r="744" ht="12.75" customHeight="1"/>
-    <row r="745" ht="12.75" customHeight="1"/>
-    <row r="746" ht="12.75" customHeight="1"/>
-    <row r="747" ht="12.75" customHeight="1"/>
-    <row r="748" ht="12.75" customHeight="1"/>
-    <row r="749" ht="12.75" customHeight="1"/>
-    <row r="750" ht="12.75" customHeight="1"/>
-    <row r="751" ht="12.75" customHeight="1"/>
-    <row r="752" ht="12.75" customHeight="1"/>
-    <row r="753" ht="12.75" customHeight="1"/>
-    <row r="754" ht="12.75" customHeight="1"/>
-    <row r="755" ht="12.75" customHeight="1"/>
-    <row r="756" ht="12.75" customHeight="1"/>
-    <row r="757" ht="12.75" customHeight="1"/>
-    <row r="758" ht="12.75" customHeight="1"/>
-    <row r="759" ht="12.75" customHeight="1"/>
-    <row r="760" ht="12.75" customHeight="1"/>
-    <row r="761" ht="12.75" customHeight="1"/>
-    <row r="762" ht="12.75" customHeight="1"/>
-    <row r="763" ht="12.75" customHeight="1"/>
-    <row r="764" ht="12.75" customHeight="1"/>
-    <row r="765" ht="12.75" customHeight="1"/>
-    <row r="766" ht="12.75" customHeight="1"/>
-    <row r="767" ht="12.75" customHeight="1"/>
-    <row r="768" ht="12.75" customHeight="1"/>
-    <row r="769" ht="12.75" customHeight="1"/>
-    <row r="770" ht="12.75" customHeight="1"/>
-    <row r="771" ht="12.75" customHeight="1"/>
-    <row r="772" ht="12.75" customHeight="1"/>
-    <row r="773" ht="12.75" customHeight="1"/>
-    <row r="774" ht="12.75" customHeight="1"/>
-    <row r="775" ht="12.75" customHeight="1"/>
-    <row r="776" ht="12.75" customHeight="1"/>
-    <row r="777" ht="12.75" customHeight="1"/>
-    <row r="778" ht="12.75" customHeight="1"/>
-    <row r="779" ht="12.75" customHeight="1"/>
-    <row r="780" ht="12.75" customHeight="1"/>
-    <row r="781" ht="12.75" customHeight="1"/>
-    <row r="782" ht="12.75" customHeight="1"/>
-    <row r="783" ht="12.75" customHeight="1"/>
-    <row r="784" ht="12.75" customHeight="1"/>
-    <row r="785" ht="12.75" customHeight="1"/>
-    <row r="786" ht="12.75" customHeight="1"/>
-    <row r="787" ht="12.75" customHeight="1"/>
-    <row r="788" ht="12.75" customHeight="1"/>
-    <row r="789" ht="12.75" customHeight="1"/>
-    <row r="790" ht="12.75" customHeight="1"/>
-    <row r="791" ht="12.75" customHeight="1"/>
-    <row r="792" ht="12.75" customHeight="1"/>
-    <row r="793" ht="12.75" customHeight="1"/>
-    <row r="794" ht="12.75" customHeight="1"/>
-    <row r="795" ht="12.75" customHeight="1"/>
-    <row r="796" ht="12.75" customHeight="1"/>
-    <row r="797" ht="12.75" customHeight="1"/>
-    <row r="798" ht="12.75" customHeight="1"/>
-    <row r="799" ht="12.75" customHeight="1"/>
-    <row r="800" ht="12.75" customHeight="1"/>
-    <row r="801" ht="12.75" customHeight="1"/>
-    <row r="802" ht="12.75" customHeight="1"/>
-    <row r="803" ht="12.75" customHeight="1"/>
-    <row r="804" ht="12.75" customHeight="1"/>
-    <row r="805" ht="12.75" customHeight="1"/>
-    <row r="806" ht="12.75" customHeight="1"/>
-    <row r="807" ht="12.75" customHeight="1"/>
-    <row r="808" ht="12.75" customHeight="1"/>
-    <row r="809" ht="12.75" customHeight="1"/>
-    <row r="810" ht="12.75" customHeight="1"/>
-    <row r="811" ht="12.75" customHeight="1"/>
-    <row r="812" ht="12.75" customHeight="1"/>
-    <row r="813" ht="12.75" customHeight="1"/>
-    <row r="814" ht="12.75" customHeight="1"/>
-    <row r="815" ht="12.75" customHeight="1"/>
-    <row r="816" ht="12.75" customHeight="1"/>
-    <row r="817" ht="12.75" customHeight="1"/>
-    <row r="818" ht="12.75" customHeight="1"/>
-    <row r="819" ht="12.75" customHeight="1"/>
-    <row r="820" ht="12.75" customHeight="1"/>
-    <row r="821" ht="12.75" customHeight="1"/>
-    <row r="822" ht="12.75" customHeight="1"/>
-    <row r="823" ht="12.75" customHeight="1"/>
-    <row r="824" ht="12.75" customHeight="1"/>
-    <row r="825" ht="12.75" customHeight="1"/>
-    <row r="826" ht="12.75" customHeight="1"/>
-    <row r="827" ht="12.75" customHeight="1"/>
-    <row r="828" ht="12.75" customHeight="1"/>
-    <row r="829" ht="12.75" customHeight="1"/>
-    <row r="830" ht="12.75" customHeight="1"/>
-    <row r="831" ht="12.75" customHeight="1"/>
-    <row r="832" ht="12.75" customHeight="1"/>
-    <row r="833" ht="12.75" customHeight="1"/>
-    <row r="834" ht="12.75" customHeight="1"/>
-    <row r="835" ht="12.75" customHeight="1"/>
-    <row r="836" ht="12.75" customHeight="1"/>
-    <row r="837" ht="12.75" customHeight="1"/>
-    <row r="838" ht="12.75" customHeight="1"/>
-    <row r="839" ht="12.75" customHeight="1"/>
-    <row r="840" ht="12.75" customHeight="1"/>
-    <row r="841" ht="12.75" customHeight="1"/>
-    <row r="842" ht="12.75" customHeight="1"/>
-    <row r="843" ht="12.75" customHeight="1"/>
-    <row r="844" ht="12.75" customHeight="1"/>
-    <row r="845" ht="12.75" customHeight="1"/>
-    <row r="846" ht="12.75" customHeight="1"/>
-    <row r="847" ht="12.75" customHeight="1"/>
-    <row r="848" ht="12.75" customHeight="1"/>
-    <row r="849" ht="12.75" customHeight="1"/>
-    <row r="850" ht="12.75" customHeight="1"/>
-    <row r="851" ht="12.75" customHeight="1"/>
-    <row r="852" ht="12.75" customHeight="1"/>
-    <row r="853" ht="12.75" customHeight="1"/>
-    <row r="854" ht="12.75" customHeight="1"/>
-    <row r="855" ht="12.75" customHeight="1"/>
-    <row r="856" ht="12.75" customHeight="1"/>
-    <row r="857" ht="12.75" customHeight="1"/>
-    <row r="858" ht="12.75" customHeight="1"/>
-    <row r="859" ht="12.75" customHeight="1"/>
-    <row r="860" ht="12.75" customHeight="1"/>
-    <row r="861" ht="12.75" customHeight="1"/>
-    <row r="862" ht="12.75" customHeight="1"/>
-    <row r="863" ht="12.75" customHeight="1"/>
-    <row r="864" ht="12.75" customHeight="1"/>
-    <row r="865" ht="12.75" customHeight="1"/>
-    <row r="866" ht="12.75" customHeight="1"/>
-    <row r="867" ht="12.75" customHeight="1"/>
-    <row r="868" ht="12.75" customHeight="1"/>
-    <row r="869" ht="12.75" customHeight="1"/>
-    <row r="870" ht="12.75" customHeight="1"/>
-    <row r="871" ht="12.75" customHeight="1"/>
-    <row r="872" ht="12.75" customHeight="1"/>
-    <row r="873" ht="12.75" customHeight="1"/>
-    <row r="874" ht="12.75" customHeight="1"/>
-    <row r="875" ht="12.75" customHeight="1"/>
-    <row r="876" ht="12.75" customHeight="1"/>
-    <row r="877" ht="12.75" customHeight="1"/>
-    <row r="878" ht="12.75" customHeight="1"/>
-    <row r="879" ht="12.75" customHeight="1"/>
-    <row r="880" ht="12.75" customHeight="1"/>
-    <row r="881" ht="12.75" customHeight="1"/>
-    <row r="882" ht="12.75" customHeight="1"/>
-    <row r="883" ht="12.75" customHeight="1"/>
-    <row r="884" ht="12.75" customHeight="1"/>
-    <row r="885" ht="12.75" customHeight="1"/>
-    <row r="886" ht="12.75" customHeight="1"/>
-    <row r="887" ht="12.75" customHeight="1"/>
-    <row r="888" ht="12.75" customHeight="1"/>
-    <row r="889" ht="12.75" customHeight="1"/>
-    <row r="890" ht="12.75" customHeight="1"/>
-    <row r="891" ht="12.75" customHeight="1"/>
-    <row r="892" ht="12.75" customHeight="1"/>
-    <row r="893" ht="12.75" customHeight="1"/>
-    <row r="894" ht="12.75" customHeight="1"/>
-    <row r="895" ht="12.75" customHeight="1"/>
-    <row r="896" ht="12.75" customHeight="1"/>
-    <row r="897" ht="12.75" customHeight="1"/>
-    <row r="898" ht="12.75" customHeight="1"/>
-    <row r="899" ht="12.75" customHeight="1"/>
-    <row r="900" ht="12.75" customHeight="1"/>
-    <row r="901" ht="12.75" customHeight="1"/>
-    <row r="902" ht="12.75" customHeight="1"/>
-    <row r="903" ht="12.75" customHeight="1"/>
-    <row r="904" ht="12.75" customHeight="1"/>
-    <row r="905" ht="12.75" customHeight="1"/>
-    <row r="906" ht="12.75" customHeight="1"/>
-    <row r="907" ht="12.75" customHeight="1"/>
-    <row r="908" ht="12.75" customHeight="1"/>
-    <row r="909" ht="12.75" customHeight="1"/>
-    <row r="910" ht="12.75" customHeight="1"/>
-    <row r="911" ht="12.75" customHeight="1"/>
-    <row r="912" ht="12.75" customHeight="1"/>
-    <row r="913" ht="12.75" customHeight="1"/>
-    <row r="914" ht="12.75" customHeight="1"/>
-    <row r="915" ht="12.75" customHeight="1"/>
-    <row r="916" ht="12.75" customHeight="1"/>
-    <row r="917" ht="12.75" customHeight="1"/>
-    <row r="918" ht="12.75" customHeight="1"/>
-    <row r="919" ht="12.75" customHeight="1"/>
-    <row r="920" ht="12.75" customHeight="1"/>
-    <row r="921" ht="12.75" customHeight="1"/>
-    <row r="922" ht="12.75" customHeight="1"/>
-    <row r="923" ht="12.75" customHeight="1"/>
-    <row r="924" ht="12.75" customHeight="1"/>
-    <row r="925" ht="12.75" customHeight="1"/>
-    <row r="926" ht="12.75" customHeight="1"/>
-    <row r="927" ht="12.75" customHeight="1"/>
-    <row r="928" ht="12.75" customHeight="1"/>
-    <row r="929" ht="12.75" customHeight="1"/>
-    <row r="930" ht="12.75" customHeight="1"/>
-    <row r="931" ht="12.75" customHeight="1"/>
-    <row r="932" ht="12.75" customHeight="1"/>
-    <row r="933" ht="12.75" customHeight="1"/>
-    <row r="934" ht="12.75" customHeight="1"/>
-    <row r="935" ht="12.75" customHeight="1"/>
-    <row r="936" ht="12.75" customHeight="1"/>
-    <row r="937" ht="12.75" customHeight="1"/>
-    <row r="938" ht="12.75" customHeight="1"/>
-    <row r="939" ht="12.75" customHeight="1"/>
-    <row r="940" ht="12.75" customHeight="1"/>
-    <row r="941" ht="12.75" customHeight="1"/>
-    <row r="942" ht="12.75" customHeight="1"/>
-    <row r="943" ht="12.75" customHeight="1"/>
-    <row r="944" ht="12.75" customHeight="1"/>
-    <row r="945" ht="12.75" customHeight="1"/>
-    <row r="946" ht="12.75" customHeight="1"/>
-    <row r="947" ht="12.75" customHeight="1"/>
-    <row r="948" ht="12.75" customHeight="1"/>
-    <row r="949" ht="12.75" customHeight="1"/>
-    <row r="950" ht="12.75" customHeight="1"/>
-    <row r="951" ht="12.75" customHeight="1"/>
-    <row r="952" ht="12.75" customHeight="1"/>
-    <row r="953" ht="12.75" customHeight="1"/>
-    <row r="954" ht="12.75" customHeight="1"/>
-    <row r="955" ht="12.75" customHeight="1"/>
-    <row r="956" ht="12.75" customHeight="1"/>
-    <row r="957" ht="12.75" customHeight="1"/>
-    <row r="958" ht="12.75" customHeight="1"/>
-    <row r="959" ht="12.75" customHeight="1"/>
-    <row r="960" ht="12.75" customHeight="1"/>
-    <row r="961" ht="12.75" customHeight="1"/>
-    <row r="962" ht="12.75" customHeight="1"/>
-    <row r="963" ht="12.75" customHeight="1"/>
-    <row r="964" ht="12.75" customHeight="1"/>
-    <row r="965" ht="12.75" customHeight="1"/>
-    <row r="966" ht="12.75" customHeight="1"/>
-    <row r="967" ht="12.75" customHeight="1"/>
-    <row r="968" ht="12.75" customHeight="1"/>
-    <row r="969" ht="12.75" customHeight="1"/>
-    <row r="970" ht="12.75" customHeight="1"/>
-    <row r="971" ht="12.75" customHeight="1"/>
-    <row r="972" ht="12.75" customHeight="1"/>
-    <row r="973" ht="12.75" customHeight="1"/>
-    <row r="974" ht="12.75" customHeight="1"/>
-    <row r="975" ht="12.75" customHeight="1"/>
-    <row r="976" ht="12.75" customHeight="1"/>
-    <row r="977" ht="12.75" customHeight="1"/>
-    <row r="978" ht="12.75" customHeight="1"/>
-    <row r="979" ht="12.75" customHeight="1"/>
-    <row r="980" ht="12.75" customHeight="1"/>
-    <row r="981" ht="12.75" customHeight="1"/>
-    <row r="982" ht="12.75" customHeight="1"/>
-    <row r="983" ht="12.75" customHeight="1"/>
-    <row r="984" ht="12.75" customHeight="1"/>
-    <row r="985" ht="12.75" customHeight="1"/>
-    <row r="986" ht="12.75" customHeight="1"/>
-    <row r="987" ht="12.75" customHeight="1"/>
-    <row r="988" ht="12.75" customHeight="1"/>
-    <row r="989" ht="12.75" customHeight="1"/>
-    <row r="990" ht="12.75" customHeight="1"/>
-    <row r="991" ht="12.75" customHeight="1"/>
-    <row r="992" ht="12.75" customHeight="1"/>
-    <row r="993" ht="12.75" customHeight="1"/>
-    <row r="994" ht="12.75" customHeight="1"/>
-    <row r="995" ht="12.75" customHeight="1"/>
-    <row r="996" ht="12.75" customHeight="1"/>
-    <row r="997" ht="12.75" customHeight="1"/>
-    <row r="998" ht="12.75" customHeight="1"/>
-    <row r="999" ht="12.75" customHeight="1"/>
-    <row r="1000" ht="12.75" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A2:B5"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A10:C13"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D11:E13"/>
-    <mergeCell ref="F11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-  </mergeCells>
-  <phoneticPr fontId="7"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9895,77 +9875,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1">
-      <c r="A1" s="137" t="s">
-        <v>18</v>
+      <c r="A1" s="140" t="s">
+        <v>21</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="143" t="s">
-        <v>3</v>
+      <c r="B1" s="141"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="146" t="s">
+        <v>6</v>
       </c>
-      <c r="E1" s="144"/>
-      <c r="F1" s="145" t="s">
-        <v>4</v>
+      <c r="E1" s="147"/>
+      <c r="F1" s="148" t="s">
+        <v>7</v>
       </c>
-      <c r="G1" s="144"/>
+      <c r="G1" s="147"/>
       <c r="H1" s="17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
       <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1">
-      <c r="A2" s="140"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="137" t="s">
-        <v>29</v>
+      <c r="A2" s="143"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="140" t="s">
+        <v>33</v>
       </c>
-      <c r="E2" s="139"/>
-      <c r="F2" s="137" t="s">
-        <v>31</v>
+      <c r="E2" s="142"/>
+      <c r="F2" s="140" t="s">
+        <v>35</v>
       </c>
-      <c r="G2" s="139"/>
-      <c r="H2" s="130">
+      <c r="G2" s="142"/>
+      <c r="H2" s="133">
         <v>45632</v>
       </c>
-      <c r="I2" s="133" t="s">
-        <v>30</v>
+      <c r="I2" s="136" t="s">
+        <v>34</v>
       </c>
-      <c r="J2" s="134"/>
+      <c r="J2" s="137"/>
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1">
-      <c r="A3" s="140"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="135"/>
+      <c r="A3" s="143"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="138"/>
       <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1">
-      <c r="A4" s="141"/>
-      <c r="B4" s="142"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="136"/>
+      <c r="A4" s="144"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="139"/>
       <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:13" ht="12.75" customHeight="1">
